--- a/Human/Position_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous.xlsx
+++ b/Human/Position_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Slow convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Human/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2BBCE92-2AF7-4294-A9E1-4A516A9ACCF8}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C38D31-01BF-41E9-B595-4598999633B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
   </bookViews>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59317904-1CB2-4F02-821F-D90C999A7FF6}">
   <dimension ref="A2:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,25 +532,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>259.92767420088376</v>
+        <v>259.92767419960381</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>259.92767420285202</v>
+        <v>259.92767420134862</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>259.92767421512366</v>
+        <v>259.92767421293337</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>259.92767421656748</v>
+        <v>259.92767421408809</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -564,25 +564,25 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <v>258.68032285215617</v>
+        <v>258.68031728019986</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>252.53197779320797</v>
+        <v>252.53197080745028</v>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>258.48338557568439</v>
+        <v>258.48338104085599</v>
       </c>
       <c r="M6">
         <v>0.5</v>
       </c>
       <c r="N6">
-        <v>253.1595365317059</v>
+        <v>253.15952949733546</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -596,25 +596,25 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>250.33618369706892</v>
+        <v>250.33617778639092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>213.43674464344059</v>
+        <v>213.436737924819</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>250.14608104589919</v>
+        <v>250.14607546174423</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>216.82492473034361</v>
+        <v>216.82491720424036</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -628,25 +628,25 @@
         <v>1.5</v>
       </c>
       <c r="E8">
-        <v>237.56235309105369</v>
+        <v>237.5623480736441</v>
       </c>
       <c r="G8">
         <v>1.5</v>
       </c>
       <c r="H8">
-        <v>167.33470899730108</v>
+        <v>167.33470344111791</v>
       </c>
       <c r="J8">
         <v>1.5</v>
       </c>
       <c r="K8">
-        <v>239.22495934741696</v>
+        <v>239.22495402016926</v>
       </c>
       <c r="M8">
         <v>1.5</v>
       </c>
       <c r="N8">
-        <v>173.21850108016866</v>
+        <v>173.21849448534076</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -660,25 +660,25 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>223.49938666460096</v>
+        <v>223.49938012393304</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>127.60727792728913</v>
+        <v>127.60727090942565</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
-        <v>228.53132572707759</v>
+        <v>228.53132032315304</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9">
-        <v>134.74742899050685</v>
+        <v>134.7474219778245</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -692,25 +692,25 @@
         <v>2.5</v>
       </c>
       <c r="E10">
-        <v>209.47888467379877</v>
+        <v>209.47887876775616</v>
       </c>
       <c r="G10">
         <v>2.5</v>
       </c>
       <c r="H10">
-        <v>96.19083176255387</v>
+        <v>96.190823628044441</v>
       </c>
       <c r="J10">
         <v>2.5</v>
       </c>
       <c r="K10">
-        <v>218.69589142939108</v>
+        <v>218.69588666318504</v>
       </c>
       <c r="M10">
         <v>2.5</v>
       </c>
       <c r="N10">
-        <v>103.6488082582573</v>
+        <v>103.64880075856983</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>196.06805795862576</v>
+        <v>196.06805283022157</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>72.174990955821372</v>
+        <v>72.174982763363758</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>209.73413790356867</v>
+        <v>209.73413360242142</v>
       </c>
       <c r="M11">
         <v>3</v>
       </c>
       <c r="N11">
-        <v>79.348196090930614</v>
+        <v>79.348188652330307</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -756,25 +756,25 @@
         <v>3.5</v>
       </c>
       <c r="E12">
-        <v>183.45104916211474</v>
+        <v>183.45104426632935</v>
       </c>
       <c r="G12">
         <v>3.5</v>
       </c>
       <c r="H12">
-        <v>54.004950881462626</v>
+        <v>54.004942070675284</v>
       </c>
       <c r="J12">
         <v>3.5</v>
       </c>
       <c r="K12">
-        <v>201.52109780764741</v>
+        <v>201.52109413698028</v>
       </c>
       <c r="M12">
         <v>3.5</v>
       </c>
       <c r="N12">
-        <v>60.49310707775529</v>
+        <v>60.493100269908489</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -788,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>171.66102897481599</v>
+        <v>171.66102439301832</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
-        <v>40.321521202677864</v>
+        <v>40.321513346824808</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>193.93113517680962</v>
+        <v>193.93113220621302</v>
       </c>
       <c r="M13">
         <v>4</v>
       </c>
       <c r="N13">
-        <v>46.076844706598045</v>
+        <v>46.076838709110831</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,25 +820,25 @@
         <v>4.5</v>
       </c>
       <c r="E14">
-        <v>160.67783998207813</v>
+        <v>160.67783619914542</v>
       </c>
       <c r="G14">
         <v>4.5</v>
       </c>
       <c r="H14">
-        <v>30.071237620357095</v>
+        <v>30.071233200076904</v>
       </c>
       <c r="J14">
         <v>4.5</v>
       </c>
       <c r="K14">
-        <v>186.85768968369104</v>
+        <v>186.85768696816902</v>
       </c>
       <c r="M14">
         <v>4.5</v>
       </c>
       <c r="N14">
-        <v>35.052198661944807</v>
+        <v>35.052193860621848</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -852,25 +852,25 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>150.45230221276148</v>
+        <v>150.45229877488148</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15">
-        <v>22.435276702780701</v>
+        <v>22.435272724833236</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
-        <v>180.20370179863448</v>
+        <v>180.20369903460551</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15">
-        <v>26.673808258008119</v>
+        <v>26.673804589842977</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -878,25 +878,25 @@
         <v>5.5</v>
       </c>
       <c r="E16">
-        <v>140.91875246592795</v>
+        <v>140.91874890933059</v>
       </c>
       <c r="G16">
         <v>5.5</v>
       </c>
       <c r="H16">
-        <v>16.732333293753399</v>
+        <v>16.732332111020902</v>
       </c>
       <c r="J16">
         <v>5.5</v>
       </c>
       <c r="K16">
-        <v>173.89596838866547</v>
+        <v>173.89596562209007</v>
       </c>
       <c r="M16">
         <v>5.5</v>
       </c>
       <c r="N16">
-        <v>20.29691361856759</v>
+        <v>20.296910824203859</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -908,25 +908,25 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>132.0187408559508</v>
+        <v>132.01873817851092</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17">
-        <v>12.482666678742898</v>
+        <v>12.48266513117937</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>167.89639312982052</v>
+        <v>167.8963903761381</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17">
-        <v>15.447582476281067</v>
+        <v>15.447580372008005</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -938,25 +938,25 @@
         <v>6.5</v>
       </c>
       <c r="E18">
-        <v>123.70057607283846</v>
+        <v>123.70057327599939</v>
       </c>
       <c r="G18">
         <v>6.5</v>
       </c>
       <c r="H18">
-        <v>9.3137923218284087</v>
+        <v>9.31379260458489</v>
       </c>
       <c r="J18">
         <v>6.5</v>
       </c>
       <c r="K18">
-        <v>162.18012144312556</v>
+        <v>162.1801187126454</v>
       </c>
       <c r="M18">
         <v>6.5</v>
       </c>
       <c r="N18">
-        <v>11.760070664762305</v>
+        <v>11.760069111363</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -970,25 +970,25 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>115.93900084083434</v>
+        <v>115.93899782006078</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19">
-        <v>6.9475099832920417</v>
+        <v>6.9475095574088277</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>156.70819325096448</v>
+        <v>156.70819056892577</v>
       </c>
       <c r="M19">
         <v>7</v>
       </c>
       <c r="N19">
-        <v>8.9482232228845273</v>
+        <v>8.9482220815338884</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1002,25 +1002,25 @@
         <v>7.5</v>
       </c>
       <c r="E20">
-        <v>108.68668551289443</v>
+        <v>108.68668255797797</v>
       </c>
       <c r="G20">
         <v>7.5</v>
       </c>
       <c r="H20">
-        <v>5.1857636246179775</v>
+        <v>5.1857632049734992</v>
       </c>
       <c r="J20">
         <v>7.5</v>
       </c>
       <c r="K20">
-        <v>151.45433944201099</v>
+        <v>151.4543367518562</v>
       </c>
       <c r="M20">
         <v>7.5</v>
       </c>
       <c r="N20">
-        <v>6.8123272149062144</v>
+        <v>6.8123263734862283</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1032,25 +1032,25 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>101.89005959466435</v>
+        <v>101.89005755747438</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21">
-        <v>3.8676564455950273</v>
+        <v>3.8676564849340371</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21">
-        <v>146.40754118102487</v>
+        <v>146.40753844588912</v>
       </c>
       <c r="M21">
         <v>8</v>
       </c>
       <c r="N21">
-        <v>5.1838712636418594</v>
+        <v>5.1838706409182169</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1064,25 +1064,25 @@
         <v>8.5</v>
       </c>
       <c r="E22">
-        <v>95.53557081639768</v>
+        <v>95.535568434596314</v>
       </c>
       <c r="G22">
         <v>8.5</v>
       </c>
       <c r="H22">
-        <v>2.8867239270480045</v>
+        <v>2.8867238044960262</v>
       </c>
       <c r="J22">
         <v>8.5</v>
       </c>
       <c r="K22">
-        <v>141.54927266267666</v>
+        <v>141.54926988391202</v>
       </c>
       <c r="M22">
         <v>8.5</v>
       </c>
       <c r="N22">
-        <v>3.9459287577553899</v>
+        <v>3.945928294451035</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1096,25 +1096,25 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>89.58749729602593</v>
+        <v>89.587494863630738</v>
       </c>
       <c r="G23">
         <v>9</v>
       </c>
       <c r="H23">
-        <v>2.1534289726507261</v>
+        <v>2.1534291823143925</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>136.86306891973382</v>
+        <v>136.863066115246</v>
       </c>
       <c r="M23">
         <v>9</v>
       </c>
       <c r="N23">
-        <v>3.0034682561116153</v>
+        <v>3.0034679105392827</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1122,25 +1122,25 @@
         <v>9.5</v>
       </c>
       <c r="E24">
-        <v>84.007479248848995</v>
+        <v>84.007477668354312</v>
       </c>
       <c r="G24">
         <v>9.5</v>
       </c>
       <c r="H24">
-        <v>1.6070427910687155</v>
+        <v>1.60704279947984</v>
       </c>
       <c r="J24">
         <v>9.5</v>
       </c>
       <c r="K24">
-        <v>132.34031814266584</v>
+        <v>132.34031534064559</v>
       </c>
       <c r="M24">
         <v>9.5</v>
       </c>
       <c r="N24">
-        <v>2.2857168863334474</v>
+        <v>2.2857166280659214</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1148,25 +1148,25 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>78.782113042066456</v>
+        <v>78.782111073208327</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
       <c r="H25">
-        <v>1.1991439582654737</v>
+        <v>1.1991442056745711</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25">
-        <v>127.96730151877183</v>
+        <v>127.96729876392514</v>
       </c>
       <c r="M25">
         <v>10</v>
       </c>
       <c r="N25">
-        <v>1.7402384534509208</v>
+        <v>1.7402382601005491</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1174,25 +1174,25 @@
         <v>10.5</v>
       </c>
       <c r="E26">
-        <v>73.887049285922075</v>
+        <v>73.887047213098754</v>
       </c>
       <c r="G26">
         <v>10.5</v>
       </c>
       <c r="H26">
-        <v>0.89471139546707501</v>
+        <v>0.89471145019600873</v>
       </c>
       <c r="J26">
         <v>10.5</v>
       </c>
       <c r="K26">
-        <v>123.74871790364466</v>
+        <v>123.74871523503633</v>
       </c>
       <c r="M26">
         <v>10.5</v>
       </c>
       <c r="N26">
-        <v>1.3241267885394927</v>
+        <v>1.3241266437623718</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1200,25 +1200,25 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>69.293502435292837</v>
+        <v>69.29350122832787</v>
       </c>
       <c r="G27">
         <v>11</v>
       </c>
       <c r="H27">
-        <v>0.66787476866507778</v>
+        <v>0.66787499460313793</v>
       </c>
       <c r="J27">
         <v>11</v>
       </c>
       <c r="K27">
-        <v>119.66880602291759</v>
+        <v>119.66880344320654</v>
       </c>
       <c r="M27">
         <v>11</v>
       </c>
       <c r="N27">
-        <v>1.008029676483835</v>
+        <v>1.008029567858389</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1226,25 +1226,25 @@
         <v>11.5</v>
       </c>
       <c r="E28">
-        <v>64.972906799918633</v>
+        <v>64.972903609479388</v>
       </c>
       <c r="G28">
         <v>11.5</v>
       </c>
       <c r="H28">
-        <v>0.49823519134315158</v>
+        <v>0.49823525326157075</v>
       </c>
       <c r="J28">
         <v>11.5</v>
       </c>
       <c r="K28">
-        <v>115.72566682784996</v>
+        <v>115.72566433548539</v>
       </c>
       <c r="M28">
         <v>11.5</v>
       </c>
       <c r="N28">
-        <v>0.76717752937649952</v>
+        <v>0.76717744774803565</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1252,25 +1252,25 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>60.905765883920765</v>
+        <v>60.905762959261303</v>
       </c>
       <c r="G29">
         <v>12</v>
       </c>
       <c r="H29">
-        <v>0.37198937695723844</v>
+        <v>0.37198939331759195</v>
       </c>
       <c r="J29">
         <v>12</v>
       </c>
       <c r="K29">
-        <v>111.92429110480667</v>
+        <v>111.92428870967383</v>
       </c>
       <c r="M29">
         <v>12</v>
       </c>
       <c r="N29">
-        <v>0.58396292126745819</v>
+        <v>0.58396285979524032</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1278,25 +1278,25 @@
         <v>12.5</v>
       </c>
       <c r="E30">
-        <v>57.10031543121481</v>
+        <v>57.100313803076617</v>
       </c>
       <c r="G30">
         <v>12.5</v>
       </c>
       <c r="H30">
-        <v>0.27760863242287637</v>
+        <v>0.27760869857535847</v>
       </c>
       <c r="J30">
         <v>12.5</v>
       </c>
       <c r="K30">
-        <v>108.24207432138623</v>
+        <v>108.24207201793965</v>
       </c>
       <c r="M30">
         <v>12.5</v>
       </c>
       <c r="N30">
-        <v>0.4446131337420719</v>
+        <v>0.4446130874740078</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1304,25 +1304,25 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>53.516316902800469</v>
+        <v>53.516313581976377</v>
       </c>
       <c r="G31">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>0.20732368720177471</v>
+        <v>0.20732370461383426</v>
       </c>
       <c r="J31">
         <v>13</v>
       </c>
       <c r="K31">
-        <v>104.68257786016103</v>
+        <v>104.68257564549714</v>
       </c>
       <c r="M31">
         <v>13</v>
       </c>
       <c r="N31">
-        <v>0.33837714038280881</v>
+        <v>0.33837710546443384</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1330,25 +1330,25 @@
         <v>13.5</v>
       </c>
       <c r="E32">
-        <v>50.158526125167043</v>
+        <v>50.158524302533031</v>
       </c>
       <c r="G32">
         <v>13.5</v>
       </c>
       <c r="H32">
-        <v>0.1547795143263192</v>
+        <v>0.15477956985872499</v>
       </c>
       <c r="J32">
         <v>13.5</v>
       </c>
       <c r="K32">
-        <v>101.24970900435055</v>
+        <v>101.24970687812174</v>
       </c>
       <c r="M32">
         <v>13.5</v>
       </c>
       <c r="N32">
-        <v>0.25766233244967984</v>
+        <v>0.25766230603625317</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
@@ -1356,25 +1356,25 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>47.034865666590413</v>
+        <v>47.034866307001643</v>
       </c>
       <c r="G33">
         <v>14</v>
       </c>
       <c r="H33">
-        <v>0.11556698609517808</v>
+        <v>0.11556700200773215</v>
       </c>
       <c r="J33">
         <v>14</v>
       </c>
       <c r="K33">
-        <v>97.920590649121053</v>
+        <v>97.920588655195601</v>
       </c>
       <c r="M33">
         <v>14</v>
       </c>
       <c r="N33">
-        <v>0.19610555793428378</v>
+        <v>0.19610553798359356</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
@@ -1382,25 +1382,25 @@
         <v>14.5</v>
       </c>
       <c r="E34">
-        <v>44.079414089222155</v>
+        <v>44.079411424715644</v>
       </c>
       <c r="G34">
         <v>14.5</v>
       </c>
       <c r="H34">
-        <v>8.6308156460659896E-2</v>
+        <v>8.6308200682734357E-2</v>
       </c>
       <c r="J34">
         <v>14.5</v>
       </c>
       <c r="K34">
-        <v>94.703643976287452</v>
+        <v>94.703642142442092</v>
       </c>
       <c r="M34">
         <v>14.5</v>
       </c>
       <c r="N34">
-        <v>0.14930753003439165</v>
+        <v>0.14930751495291858</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
@@ -1408,25 +1408,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>41.310605782208192</v>
+        <v>41.310604547271758</v>
       </c>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35">
-        <v>6.4422005603571503E-2</v>
+        <v>6.4422019193055569E-2</v>
       </c>
       <c r="J35">
         <v>15</v>
       </c>
       <c r="K35">
-        <v>91.599719669339635</v>
+        <v>91.599718019624163</v>
       </c>
       <c r="M35">
         <v>15</v>
       </c>
       <c r="N35">
-        <v>0.11366622159716859</v>
+        <v>0.1136662101939134</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
@@ -1434,25 +1434,25 @@
         <v>15.5</v>
       </c>
       <c r="E36">
-        <v>38.735822807180433</v>
+        <v>38.735823888889001</v>
       </c>
       <c r="G36">
         <v>15.5</v>
       </c>
       <c r="H36">
-        <v>4.8106660760834995E-2</v>
+        <v>4.8106667307662547E-2</v>
       </c>
       <c r="J36">
         <v>15.5</v>
       </c>
       <c r="K36">
-        <v>88.588124997899939</v>
+        <v>88.588123528326804</v>
       </c>
       <c r="M36">
         <v>15.5</v>
       </c>
       <c r="N36">
-        <v>8.6522699232465625E-2</v>
+        <v>8.6522690608872341E-2</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
@@ -1460,25 +1460,25 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>36.29592012921087</v>
+        <v>36.29591819994755</v>
       </c>
       <c r="G37">
         <v>16</v>
       </c>
       <c r="H37">
-        <v>3.5899591183858805E-2</v>
+        <v>3.5899603871500547E-2</v>
       </c>
       <c r="J37">
         <v>16</v>
       </c>
       <c r="K37">
-        <v>85.67908969235441</v>
+        <v>85.679088412826886</v>
       </c>
       <c r="M37">
         <v>16</v>
       </c>
       <c r="N37">
-        <v>6.5887984123147031E-2</v>
+        <v>6.588797760252231E-2</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
@@ -1486,25 +1486,25 @@
         <v>16.5</v>
       </c>
       <c r="E38">
-        <v>34.015397358399376</v>
+        <v>34.015396843360612</v>
       </c>
       <c r="G38">
         <v>16.5</v>
       </c>
       <c r="H38">
-        <v>2.681293519468363E-2</v>
+        <v>2.6812940108410548E-2</v>
       </c>
       <c r="J38">
         <v>16.5</v>
       </c>
       <c r="K38">
-        <v>82.870431626078641</v>
+        <v>82.870430542869059</v>
       </c>
       <c r="M38">
         <v>16.5</v>
       </c>
       <c r="N38">
-        <v>5.0142465640197864E-2</v>
+        <v>5.0142460713427491E-2</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
@@ -1512,25 +1512,25 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>31.895492745167687</v>
+        <v>31.895490890403916</v>
       </c>
       <c r="G39">
         <v>17</v>
       </c>
       <c r="H39">
-        <v>2.0015043085318339E-2</v>
+        <v>2.0015052525098012E-2</v>
       </c>
       <c r="J39">
         <v>17</v>
       </c>
       <c r="K39">
-        <v>80.146369376000067</v>
+        <v>80.146368469937784</v>
       </c>
       <c r="M39">
         <v>17</v>
       </c>
       <c r="N39">
-        <v>3.8180019267417667E-2</v>
+        <v>3.8180015541006786E-2</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
@@ -1538,25 +1538,25 @@
         <v>17.5</v>
       </c>
       <c r="E40">
-        <v>29.88389682494855</v>
+        <v>29.883895563370167</v>
       </c>
       <c r="G40">
         <v>17.5</v>
       </c>
       <c r="H40">
-        <v>1.4945913096203143E-2</v>
+        <v>1.494591613786754E-2</v>
       </c>
       <c r="J40">
         <v>17.5</v>
       </c>
       <c r="K40">
-        <v>77.515238961429304</v>
+        <v>77.515238226811775</v>
       </c>
       <c r="M40">
         <v>17.5</v>
       </c>
       <c r="N40">
-        <v>2.9061693193387955E-2</v>
+        <v>2.906169037701618E-2</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
@@ -1564,25 +1564,25 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>28.006604842313639</v>
+        <v>28.006604908144073</v>
       </c>
       <c r="G41">
         <v>18</v>
       </c>
       <c r="H41">
-        <v>1.1160215683997473E-2</v>
+        <v>1.1160222554742435E-2</v>
       </c>
       <c r="J41">
         <v>18</v>
       </c>
       <c r="K41">
-        <v>74.973482973867704</v>
+        <v>74.973482401442936</v>
       </c>
       <c r="M41">
         <v>18</v>
       </c>
       <c r="N41">
-        <v>2.2124590522818101E-2</v>
+        <v>2.2124588393405909E-2</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
@@ -1590,25 +1590,25 @@
         <v>18.5</v>
       </c>
       <c r="E42">
-        <v>26.259825967250524</v>
+        <v>26.259824678683923</v>
       </c>
       <c r="G42">
         <v>18.5</v>
       </c>
       <c r="H42">
-        <v>8.3313375354676644E-3</v>
+        <v>8.3313397562606931E-3</v>
       </c>
       <c r="J42">
         <v>18.5</v>
       </c>
       <c r="K42">
-        <v>72.509263130463566</v>
+        <v>72.509262699610701</v>
       </c>
       <c r="M42">
         <v>18.5</v>
       </c>
       <c r="N42">
-        <v>1.6845711707860509E-2</v>
+        <v>1.6845710098388585E-2</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
@@ -1616,25 +1616,25 @@
         <v>19</v>
       </c>
       <c r="E43">
-        <v>24.603558958092282</v>
+        <v>24.603558229313016</v>
       </c>
       <c r="G43">
         <v>19</v>
       </c>
       <c r="H43">
-        <v>6.2235888741469765E-3</v>
+        <v>6.223593963970318E-3</v>
       </c>
       <c r="J43">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>70.129384079753677</v>
+        <v>70.129383776421875</v>
       </c>
       <c r="M43">
         <v>19</v>
       </c>
       <c r="N43">
-        <v>1.2821377406963911E-2</v>
+        <v>1.2821376191045819E-2</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.25">
@@ -1642,25 +1642,25 @@
         <v>19.5</v>
       </c>
       <c r="E44">
-        <v>23.05859438942354</v>
+        <v>23.058594884054372</v>
       </c>
       <c r="G44">
         <v>19.5</v>
       </c>
       <c r="H44">
-        <v>4.6443672621351113E-3</v>
+        <v>4.6443689550100097E-3</v>
       </c>
       <c r="J44">
         <v>19.5</v>
       </c>
       <c r="K44">
-        <v>67.826103945979398</v>
+        <v>67.826103757519888</v>
       </c>
       <c r="M44">
         <v>19.5</v>
       </c>
       <c r="N44">
-        <v>9.7632373574654905E-3</v>
+        <v>9.7632364388158255E-3</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
@@ -1668,25 +1668,25 @@
         <v>20</v>
       </c>
       <c r="E45">
-        <v>21.619307940237206</v>
+        <v>21.619307094693795</v>
       </c>
       <c r="G45">
         <v>20</v>
       </c>
       <c r="H45">
-        <v>3.4679202452445801E-3</v>
+        <v>3.4679210258642219E-3</v>
       </c>
       <c r="J45">
         <v>20</v>
       </c>
       <c r="K45">
-        <v>65.585676764466257</v>
+        <v>65.585676681242745</v>
       </c>
       <c r="M45">
         <v>20</v>
       </c>
       <c r="N45">
-        <v>7.4306464358438289E-3</v>
+        <v>7.430645742122685E-3</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.25">
@@ -1694,25 +1694,25 @@
         <v>20.5</v>
       </c>
       <c r="E46">
-        <v>20.255836843958608</v>
+        <v>20.255836521849066</v>
       </c>
       <c r="G46">
         <v>20.5</v>
       </c>
       <c r="H46">
-        <v>2.5882742091012031E-3</v>
+        <v>2.5882756572155898E-3</v>
       </c>
       <c r="J46">
         <v>20.5</v>
       </c>
       <c r="K46">
-        <v>63.416990197914977</v>
+        <v>63.416990208422753</v>
       </c>
       <c r="M46">
         <v>20.5</v>
       </c>
       <c r="N46">
-        <v>5.6575264885680475E-3</v>
+        <v>5.6575259642029562E-3</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
@@ -1720,25 +1720,25 @@
         <v>21</v>
       </c>
       <c r="E47">
-        <v>18.984537581762751</v>
+        <v>18.984538378917819</v>
       </c>
       <c r="G47">
         <v>21</v>
       </c>
       <c r="H47">
-        <v>1.9329192691312001E-3</v>
+        <v>1.9329198242695597E-3</v>
       </c>
       <c r="J47">
         <v>21</v>
       </c>
       <c r="K47">
-        <v>61.320044246326319</v>
+        <v>61.32004433906004</v>
       </c>
       <c r="M47">
         <v>21</v>
       </c>
       <c r="N47">
-        <v>4.3068931483887865E-3</v>
+        <v>4.3068927522450342E-3</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
@@ -1746,25 +1746,25 @@
         <v>21.5</v>
       </c>
       <c r="E48">
-        <v>17.798592913502965</v>
+        <v>17.798592407045259</v>
       </c>
       <c r="G48">
         <v>21.5</v>
       </c>
       <c r="H48">
-        <v>1.4431181867646449E-3</v>
+        <v>1.4431192255744329E-3</v>
       </c>
       <c r="J48">
         <v>21.5</v>
       </c>
       <c r="K48">
-        <v>59.294838909700715</v>
+        <v>59.294839073154314</v>
       </c>
       <c r="M48">
         <v>21.5</v>
       </c>
       <c r="N48">
-        <v>3.2784867677617996E-3</v>
+        <v>3.2784864684440736E-3</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.25">
@@ -1772,25 +1772,25 @@
         <v>22</v>
       </c>
       <c r="E49">
-        <v>16.676263845084126</v>
+        <v>16.676263826468659</v>
       </c>
       <c r="G49">
         <v>22</v>
       </c>
       <c r="H49">
-        <v>1.077453226430995E-3</v>
+        <v>1.0774535785008912E-3</v>
       </c>
       <c r="J49">
         <v>22</v>
       </c>
       <c r="K49">
-        <v>57.34137418803774</v>
+        <v>57.341374410705427</v>
       </c>
       <c r="M49">
         <v>22</v>
       </c>
       <c r="N49">
-        <v>2.4966206231083156E-3</v>
+        <v>2.4966203969594681E-3</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
@@ -1798,25 +1798,25 @@
         <v>22.5</v>
       </c>
       <c r="E50">
-        <v>15.630238979857877</v>
+        <v>15.630239980474679</v>
       </c>
       <c r="G50">
         <v>22.5</v>
       </c>
       <c r="H50">
-        <v>8.0472494092359245E-4</v>
+        <v>8.0472567850468728E-4</v>
       </c>
       <c r="J50">
         <v>22.5</v>
       </c>
       <c r="K50">
-        <v>55.443450381851122</v>
+        <v>55.443450657048608</v>
       </c>
       <c r="M50">
         <v>22.5</v>
       </c>
       <c r="N50">
-        <v>1.8999666313280743E-3</v>
+        <v>1.899966460573374E-3</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
@@ -1824,25 +1824,25 @@
         <v>23</v>
       </c>
       <c r="E51">
-        <v>14.653002605666998</v>
+        <v>14.653002354669896</v>
       </c>
       <c r="G51">
         <v>23</v>
       </c>
       <c r="H51">
-        <v>6.0062208982142589E-4</v>
+        <v>6.0062233965953908E-4</v>
       </c>
       <c r="J51">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>53.599893668518192</v>
+        <v>53.599893990338821</v>
       </c>
       <c r="M51">
         <v>23</v>
       </c>
       <c r="N51">
-        <v>1.4467122833552541E-3</v>
+        <v>1.4467121542668022E-3</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
@@ -1850,25 +1850,25 @@
         <v>23.5</v>
       </c>
       <c r="E52">
-        <v>13.729224607274871</v>
+        <v>13.729224809528482</v>
       </c>
       <c r="G52">
         <v>23.5</v>
       </c>
       <c r="H52">
-        <v>4.4850195359009807E-4</v>
+        <v>4.4850207876090951E-4</v>
       </c>
       <c r="J52">
         <v>23.5</v>
       </c>
       <c r="K52">
-        <v>51.81966374588589</v>
+        <v>51.8196641054518</v>
       </c>
       <c r="M52">
         <v>23.5</v>
       </c>
       <c r="N52">
-        <v>1.1011761105372885E-3</v>
+        <v>1.1011760130267938E-3</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.25">
@@ -1876,25 +1876,25 @@
         <v>24</v>
       </c>
       <c r="E53">
-        <v>12.868604922145694</v>
+        <v>12.868606048869196</v>
       </c>
       <c r="G53">
         <v>24</v>
       </c>
       <c r="H53">
-        <v>3.3470691587859968E-4</v>
+        <v>3.3470712245925037E-4</v>
       </c>
       <c r="J53">
         <v>24</v>
       </c>
       <c r="K53">
-        <v>50.102760613954665</v>
+        <v>50.102761002387531</v>
       </c>
       <c r="M53">
         <v>24</v>
       </c>
       <c r="N53">
-        <v>8.3833944201834609E-4</v>
+        <v>8.3833936832538388E-4</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.25">
@@ -1902,25 +1902,25 @@
         <v>24.5</v>
       </c>
       <c r="E54">
-        <v>12.063303519259556</v>
+        <v>12.063303456887365</v>
       </c>
       <c r="G54">
         <v>24.5</v>
       </c>
       <c r="H54">
-        <v>2.4997979956705222E-4</v>
+        <v>2.4997988412495895E-4</v>
       </c>
       <c r="J54">
         <v>24.5</v>
       </c>
       <c r="K54">
-        <v>48.449184272723755</v>
+        <v>48.449184681145866</v>
       </c>
       <c r="M54">
         <v>24.5</v>
       </c>
       <c r="N54">
-        <v>6.3829204434519434E-4</v>
+        <v>6.3829198867817289E-4</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.25">
@@ -1928,25 +1928,25 @@
         <v>25</v>
       </c>
       <c r="E55">
-        <v>11.302986128306758</v>
+        <v>11.302986485574264</v>
       </c>
       <c r="G55">
         <v>25</v>
       </c>
       <c r="H55">
-        <v>1.866117236079722E-4</v>
+        <v>1.8661187040498189E-4</v>
       </c>
       <c r="J55">
         <v>25</v>
       </c>
       <c r="K55">
-        <v>46.858934722193631</v>
+        <v>46.858935141727265</v>
       </c>
       <c r="M55">
         <v>25</v>
       </c>
       <c r="N55">
-        <v>4.8582162904043204E-4</v>
+        <v>4.8582158700687648E-4</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.25">
@@ -1954,25 +1954,25 @@
         <v>25.5</v>
       </c>
       <c r="E56">
-        <v>10.594941860771046</v>
+        <v>10.594943053593214</v>
       </c>
       <c r="G56">
         <v>25.5</v>
       </c>
       <c r="H56">
-        <v>1.3934288399114966E-4</v>
+        <v>1.3934293611477427E-4</v>
       </c>
       <c r="J56">
         <v>25.5</v>
       </c>
       <c r="K56">
-        <v>45.302052508425632</v>
+        <v>45.30205293951169</v>
       </c>
       <c r="M56">
         <v>25.5</v>
       </c>
       <c r="N56">
-        <v>3.6994755900385267E-4</v>
+        <v>3.6994752726608835E-4</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.25">
@@ -1980,25 +1980,25 @@
         <v>26</v>
       </c>
       <c r="E57">
-        <v>9.9312840979526218</v>
+        <v>9.9312841711630409</v>
       </c>
       <c r="G57">
         <v>26</v>
       </c>
       <c r="H57">
-        <v>1.0405517048057552E-4</v>
+        <v>1.0405527381749704E-4</v>
       </c>
       <c r="J57">
         <v>26</v>
       </c>
       <c r="K57">
-        <v>43.792416515448949</v>
+        <v>43.792416954687233</v>
       </c>
       <c r="M57">
         <v>26</v>
       </c>
       <c r="N57">
-        <v>2.8155616708959864E-4</v>
+        <v>2.8155614313884699E-4</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.25">
@@ -2006,25 +2006,25 @@
         <v>26.5</v>
       </c>
       <c r="E58">
-        <v>9.3055274176084701</v>
+        <v>9.3055278779728621</v>
       </c>
       <c r="G58">
         <v>26.5</v>
       </c>
       <c r="H58">
-        <v>7.7674782970889447E-5</v>
+        <v>7.7674818969206309E-5</v>
       </c>
       <c r="J58">
         <v>26.5</v>
       </c>
       <c r="K58">
-        <v>42.335190950021662</v>
+        <v>42.335191392066513</v>
       </c>
       <c r="M58">
         <v>26.5</v>
       </c>
       <c r="N58">
-        <v>2.1437400793927741E-4</v>
+        <v>2.1437398984600775E-4</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.25">
@@ -2032,25 +2032,25 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>8.7230329223209662</v>
+        <v>8.7230341355152188</v>
       </c>
       <c r="G59">
         <v>27</v>
       </c>
       <c r="H59">
-        <v>5.8024397387932746E-5</v>
+        <v>5.8024420183310291E-5</v>
       </c>
       <c r="J59">
         <v>27</v>
       </c>
       <c r="K59">
-        <v>40.930375812145257</v>
+        <v>40.93037625164952</v>
       </c>
       <c r="M59">
         <v>27</v>
       </c>
       <c r="N59">
-        <v>1.6319149202788865E-4</v>
+        <v>1.6319147836838964E-4</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
@@ -2058,25 +2058,25 @@
         <v>27.5</v>
       </c>
       <c r="E60">
-        <v>8.176068854091314</v>
+        <v>8.1760690213604423</v>
       </c>
       <c r="G60">
         <v>27.5</v>
       </c>
       <c r="H60">
-        <v>4.3307022701911122E-5</v>
+        <v>4.3307051905480365E-5</v>
       </c>
       <c r="J60">
         <v>27.5</v>
       </c>
       <c r="K60">
-        <v>39.577971101819152</v>
+        <v>39.577971533436092</v>
       </c>
       <c r="M60">
         <v>27.5</v>
       </c>
       <c r="N60">
-        <v>1.2422731631530408E-4</v>
+        <v>1.2422730600075601E-4</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
@@ -2084,25 +2084,25 @@
         <v>28</v>
       </c>
       <c r="E61">
-        <v>7.6610762906384275</v>
+        <v>7.66107681388198</v>
       </c>
       <c r="G61">
         <v>28</v>
       </c>
       <c r="H61">
-        <v>3.2347740082327467E-5</v>
+        <v>3.2347752929222795E-5</v>
       </c>
       <c r="J61">
         <v>28</v>
       </c>
       <c r="K61">
-        <v>38.276472742112624</v>
+        <v>38.276473160811861</v>
       </c>
       <c r="M61">
         <v>28</v>
       </c>
       <c r="N61">
-        <v>9.4599380936351778E-5</v>
+        <v>9.459937314928413E-5</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
@@ -2110,25 +2110,25 @@
         <v>28.5</v>
       </c>
       <c r="E62">
-        <v>7.1818875400262803</v>
+        <v>7.1818887396623365</v>
       </c>
       <c r="G62">
         <v>28.5</v>
       </c>
       <c r="H62">
-        <v>2.414541624861089E-5</v>
+        <v>2.4145437149083313E-5</v>
       </c>
       <c r="J62">
         <v>28.5</v>
       </c>
       <c r="K62">
-        <v>36.998481309498892</v>
+        <v>36.998481721354416</v>
       </c>
       <c r="M62">
         <v>28.5</v>
       </c>
       <c r="N62">
-        <v>7.1992393136737911E-5</v>
+        <v>7.1992387262391139E-5</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
@@ -2136,25 +2136,25 @@
         <v>29</v>
       </c>
       <c r="E63">
-        <v>6.7310672001772041</v>
+        <v>6.7310674294966075</v>
       </c>
       <c r="G63">
         <v>29</v>
       </c>
       <c r="H63">
-        <v>1.8031237550346876E-5</v>
+        <v>1.8031246173963407E-5</v>
       </c>
       <c r="J63">
         <v>29</v>
       </c>
       <c r="K63">
-        <v>35.764073216667036</v>
+        <v>35.764073619764638</v>
       </c>
       <c r="M63">
         <v>29</v>
       </c>
       <c r="N63">
-        <v>5.4818639769867003E-5</v>
+        <v>5.4818635338116938E-5</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
@@ -2162,25 +2162,25 @@
         <v>29.5</v>
       </c>
       <c r="E64">
-        <v>6.3072466281076087</v>
+        <v>6.3072471836728079</v>
       </c>
       <c r="G64">
         <v>29.5</v>
       </c>
       <c r="H64">
-        <v>1.3462980427716575E-5</v>
+        <v>1.3462995790798993E-5</v>
       </c>
       <c r="J64">
         <v>29.5</v>
       </c>
       <c r="K64">
-        <v>34.573248463618256</v>
+        <v>34.57324885604298</v>
       </c>
       <c r="M64">
         <v>29.5</v>
       </c>
       <c r="N64">
-        <v>4.1724690308766274E-5</v>
+        <v>4.1724686966568878E-5</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
@@ -2188,25 +2188,25 @@
         <v>30</v>
       </c>
       <c r="E65">
-        <v>5.91305700542802</v>
+        <v>5.9130581671579412</v>
       </c>
       <c r="G65">
         <v>30</v>
       </c>
       <c r="H65">
-        <v>1.0051125199628089E-5</v>
+        <v>1.0051131575284672E-5</v>
       </c>
       <c r="J65">
         <v>30</v>
       </c>
       <c r="K65">
-        <v>33.426007050351352</v>
+        <v>33.426007430189458</v>
       </c>
       <c r="M65">
         <v>30</v>
       </c>
       <c r="N65">
-        <v>3.1766160417464686E-5</v>
+        <v>3.1766157894853415E-5</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
@@ -2214,25 +2214,25 @@
         <v>30.5</v>
       </c>
       <c r="E66">
-        <v>5.5414541444358143</v>
+        <v>5.5414544115520776</v>
       </c>
       <c r="G66">
         <v>30.5</v>
       </c>
       <c r="H66">
-        <v>7.5075260224705178E-6</v>
+        <v>7.5075374157690623E-6</v>
       </c>
       <c r="J66">
         <v>30.5</v>
       </c>
       <c r="K66">
-        <v>32.322348976867232</v>
+        <v>32.322349342203907</v>
       </c>
       <c r="M66">
         <v>30.5</v>
       </c>
       <c r="N66">
-        <v>2.4185223983785305E-5</v>
+        <v>2.418522208059281E-5</v>
       </c>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
@@ -2240,25 +2240,25 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>5.1926762584273591</v>
+        <v>5.192676823617437</v>
       </c>
       <c r="G67">
         <v>31</v>
       </c>
       <c r="H67">
-        <v>5.6030101537034171E-6</v>
+        <v>5.6030159534723481E-6</v>
       </c>
       <c r="J67">
         <v>31</v>
       </c>
       <c r="K67">
-        <v>31.25573258310915</v>
+        <v>31.25573293317094</v>
       </c>
       <c r="M67">
         <v>31</v>
       </c>
       <c r="N67">
-        <v>1.8408537758775576E-5</v>
+        <v>1.8408536323031691E-5</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
@@ -2266,25 +2266,25 @@
         <v>31.5</v>
       </c>
       <c r="E68">
-        <v>4.8684205954042499</v>
+        <v>4.868421702547721</v>
       </c>
       <c r="G68">
         <v>31.5</v>
       </c>
       <c r="H68">
-        <v>4.1838481846005412E-6</v>
+        <v>4.1838525758469045E-6</v>
       </c>
       <c r="J68">
         <v>31.5</v>
       </c>
       <c r="K68">
-        <v>30.211487104353814</v>
+        <v>30.211487442001676</v>
       </c>
       <c r="M68">
         <v>31.5</v>
       </c>
       <c r="N68">
-        <v>1.4018014314176406E-5</v>
+        <v>1.4018013231112227E-5</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
@@ -2292,25 +2292,25 @@
         <v>32</v>
       </c>
       <c r="E69">
-        <v>4.5620931318303644</v>
+        <v>4.5620934187164695</v>
       </c>
       <c r="G69">
         <v>32</v>
       </c>
       <c r="H69">
-        <v>3.1224356808375998E-6</v>
+        <v>3.1224418855543057E-6</v>
       </c>
       <c r="J69">
         <v>32</v>
       </c>
       <c r="K69">
-        <v>29.203266831658343</v>
+        <v>29.203267156611552</v>
       </c>
       <c r="M69">
         <v>32</v>
       </c>
       <c r="N69">
-        <v>1.0668513275221738E-5</v>
+        <v>1.0668512458662416E-5</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
@@ -2318,25 +2318,25 @@
         <v>32.5</v>
       </c>
       <c r="E70">
-        <v>4.2750800976682015</v>
+        <v>4.2750806560626131</v>
       </c>
       <c r="G70">
         <v>32.5</v>
       </c>
       <c r="H70">
-        <v>2.3319442107348393E-6</v>
+        <v>2.3319500631270089E-6</v>
       </c>
       <c r="J70">
         <v>32.5</v>
       </c>
       <c r="K70">
-        <v>28.23107176502214</v>
+        <v>28.231072077000423</v>
       </c>
       <c r="M70">
         <v>32.5</v>
       </c>
       <c r="N70">
-        <v>8.1230247417698681E-6</v>
+        <v>8.1230241254066945E-6</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
@@ -2344,25 +2344,25 @@
         <v>33</v>
       </c>
       <c r="E71">
-        <v>4.0083613331138395</v>
+        <v>4.008362374971397</v>
       </c>
       <c r="G71">
         <v>33</v>
       </c>
       <c r="H71">
-        <v>1.740905613539603E-6</v>
+        <v>1.7409147160050605E-6</v>
       </c>
       <c r="J71">
         <v>33</v>
       </c>
       <c r="K71">
-        <v>27.294901904445936</v>
+        <v>27.294902203168139</v>
       </c>
       <c r="M71">
         <v>33</v>
       </c>
       <c r="N71">
-        <v>6.1834588285087232E-6</v>
+        <v>6.1834583636132426E-6</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
@@ -2370,25 +2370,25 @@
         <v>33.5</v>
       </c>
       <c r="E72">
-        <v>3.7558246336378058</v>
+        <v>3.7558249271423865</v>
       </c>
       <c r="G72">
         <v>33.5</v>
       </c>
       <c r="H72">
-        <v>1.2998703752615937E-6</v>
+        <v>1.2998786793026634E-6</v>
       </c>
       <c r="J72">
         <v>33.5</v>
       </c>
       <c r="K72">
-        <v>26.394757249929594</v>
+        <v>26.394757535114699</v>
       </c>
       <c r="M72">
         <v>33.5</v>
       </c>
       <c r="N72">
-        <v>4.7071820842560871E-6</v>
+        <v>4.7071817334914029E-6</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
@@ -2396,25 +2396,25 @@
         <v>34</v>
       </c>
       <c r="E73">
-        <v>3.5196464183917722</v>
+        <v>3.5196469584699419</v>
       </c>
       <c r="G73">
         <v>34</v>
       </c>
       <c r="H73">
-        <v>9.7075350515092337E-7</v>
+        <v>9.7076210763699499E-7</v>
       </c>
       <c r="J73">
         <v>34</v>
       </c>
       <c r="K73">
-        <v>25.520440465510994</v>
+        <v>25.520440737555493</v>
       </c>
       <c r="M73">
         <v>34</v>
       </c>
       <c r="N73">
-        <v>3.5843957023020539E-6</v>
+        <v>3.5843954377479201E-6</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
@@ -2422,25 +2422,25 @@
         <v>34.5</v>
       </c>
       <c r="E74">
-        <v>3.300263475829913</v>
+        <v>3.3002644462755102</v>
       </c>
       <c r="G74">
         <v>34.5</v>
       </c>
       <c r="H74">
-        <v>7.2460037968656988E-7</v>
+        <v>7.2461097441548969E-7</v>
       </c>
       <c r="J74">
         <v>34.5</v>
       </c>
       <c r="K74">
-        <v>24.667683693372656</v>
+        <v>24.667683953525763</v>
       </c>
       <c r="M74">
         <v>34.5</v>
       </c>
       <c r="N74">
-        <v>2.7278946388862692E-6</v>
+        <v>2.7278944394928E-6</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
@@ -2448,25 +2448,25 @@
         <v>35</v>
       </c>
       <c r="E75">
-        <v>3.0920566273559076</v>
+        <v>3.0920569180981174</v>
       </c>
       <c r="G75">
         <v>35</v>
       </c>
       <c r="H75">
-        <v>5.4109246245758538E-7</v>
+        <v>5.4110797955511673E-7</v>
       </c>
       <c r="J75">
         <v>35</v>
       </c>
       <c r="K75">
-        <v>23.844627364780134</v>
+        <v>23.844627613346706</v>
       </c>
       <c r="M75">
         <v>35</v>
       </c>
       <c r="N75">
-        <v>2.0771813074542268E-6</v>
+        <v>2.0771811571779971E-6</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
@@ -2474,25 +2474,25 @@
         <v>35.5</v>
       </c>
       <c r="E76">
-        <v>2.8977161350514922</v>
+        <v>2.8977166490680721</v>
       </c>
       <c r="G76">
         <v>35.5</v>
       </c>
       <c r="H76">
-        <v>4.0378642081217476E-7</v>
+        <v>4.0381122683641461E-7</v>
       </c>
       <c r="J76">
         <v>35.5</v>
       </c>
       <c r="K76">
-        <v>23.05127147973344</v>
+        <v>23.051271717018174</v>
       </c>
       <c r="M76">
         <v>35.5</v>
       </c>
       <c r="N76">
-        <v>1.5809929617528346E-6</v>
+        <v>1.5809928485430666E-6</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
@@ -2500,25 +2500,25 @@
         <v>36</v>
       </c>
       <c r="E77">
-        <v>2.7170155396398115</v>
+        <v>2.7170157569000488</v>
       </c>
       <c r="G77">
         <v>36</v>
       </c>
       <c r="H77">
-        <v>3.0158556773838123E-7</v>
+        <v>3.0161905169877933E-7</v>
       </c>
       <c r="J77">
         <v>36</v>
       </c>
       <c r="K77">
-        <v>22.287616038232564</v>
+        <v>22.28761626454002</v>
       </c>
       <c r="M77">
         <v>36</v>
       </c>
       <c r="N77">
-        <v>1.2036763269132067E-6</v>
+        <v>1.2036762415449366E-6</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
@@ -2526,25 +2526,25 @@
         <v>36.5</v>
       </c>
       <c r="E78">
-        <v>2.5456039808624329</v>
+        <v>2.5456042623018877</v>
       </c>
       <c r="G78">
         <v>36.5</v>
       </c>
       <c r="H78">
-        <v>2.2512164791093807E-7</v>
+        <v>2.2515712931788114E-7</v>
       </c>
       <c r="J78">
         <v>36.5</v>
       </c>
       <c r="K78">
-        <v>21.553661040277809</v>
+        <v>21.553661255912697</v>
       </c>
       <c r="M78">
         <v>36.5</v>
       </c>
       <c r="N78">
-        <v>9.1639225018519208E-7</v>
+        <v>9.1639218584813944E-7</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
@@ -2552,25 +2552,25 @@
         <v>37</v>
       </c>
       <c r="E79">
-        <v>2.3856955613187489</v>
+        <v>2.3856960442768744</v>
       </c>
       <c r="G79">
         <v>37</v>
       </c>
       <c r="H79">
-        <v>1.6810835834988942E-7</v>
+        <v>1.681472053129709E-7</v>
       </c>
       <c r="J79">
         <v>37</v>
       </c>
       <c r="K79">
-        <v>20.836769510240643</v>
+        <v>20.83676971551705</v>
       </c>
       <c r="M79">
         <v>37</v>
       </c>
       <c r="N79">
-        <v>6.9752860391252245E-7</v>
+        <v>6.9752855542448201E-7</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
@@ -2578,25 +2578,25 @@
         <v>37.5</v>
       </c>
       <c r="E80">
-        <v>2.2368251760799525</v>
+        <v>2.2368253809281922</v>
       </c>
       <c r="G80">
         <v>37.5</v>
       </c>
       <c r="H80">
-        <v>1.2552592656468887E-7</v>
+        <v>1.2555256576861646E-7</v>
       </c>
       <c r="J80">
         <v>37.5</v>
       </c>
       <c r="K80">
-        <v>20.140583571060205</v>
+        <v>20.14058376665891</v>
       </c>
       <c r="M80">
         <v>37.5</v>
       </c>
       <c r="N80">
-        <v>5.3116915158645756E-7</v>
+        <v>5.311691150485121E-7</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
@@ -2604,25 +2604,25 @@
         <v>38</v>
       </c>
       <c r="E81">
-        <v>2.0957350516136448</v>
+        <v>2.0957353195081949</v>
       </c>
       <c r="G81">
         <v>38</v>
       </c>
       <c r="H81">
-        <v>9.3710683009338458E-8</v>
+        <v>9.3748385532564786E-8</v>
       </c>
       <c r="J81">
         <v>38</v>
       </c>
       <c r="K81">
-        <v>19.468856079233383</v>
+        <v>19.468856265569357</v>
       </c>
       <c r="M81">
         <v>38</v>
       </c>
       <c r="N81">
-        <v>4.0424361015447763E-7</v>
+        <v>4.042435826384137E-7</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
@@ -2630,25 +2630,25 @@
         <v>38.5</v>
       </c>
       <c r="E82">
-        <v>1.9641656587549097</v>
+        <v>1.9641661080763295</v>
       </c>
       <c r="G82">
         <v>38.5</v>
       </c>
       <c r="H82">
-        <v>7.000192120798203E-8</v>
+        <v>7.0031963321092429E-8</v>
       </c>
       <c r="J82">
         <v>38.5</v>
       </c>
       <c r="K82">
-        <v>18.821587034760331</v>
+        <v>18.821587212248239</v>
       </c>
       <c r="M82">
         <v>38.5</v>
       </c>
       <c r="N82">
-        <v>3.0779640034655893E-7</v>
+        <v>3.0779637959720183E-7</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
@@ -2656,25 +2656,25 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1.8415143243826391</v>
+        <v>1.8415145149597036</v>
       </c>
       <c r="G83">
         <v>39</v>
       </c>
       <c r="H83">
-        <v>5.224100809529701E-8</v>
+        <v>5.2282273205796781E-8</v>
       </c>
       <c r="J83">
         <v>39</v>
       </c>
       <c r="K83">
-        <v>18.1987764376412</v>
+        <v>18.198776606695407</v>
       </c>
       <c r="M83">
         <v>39</v>
       </c>
       <c r="N83">
-        <v>2.3429659093744397E-7</v>
+        <v>2.3429657530479458E-7</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
@@ -2682,25 +2682,25 @@
         <v>39.5</v>
       </c>
       <c r="E84">
-        <v>1.7253885617410962</v>
+        <v>1.7253888135018667</v>
       </c>
       <c r="G84">
         <v>39.5</v>
       </c>
       <c r="H84">
-        <v>3.9009361601633283E-8</v>
+        <v>3.9069112012704111E-8</v>
       </c>
       <c r="J84">
         <v>39.5</v>
       </c>
       <c r="K84">
-        <v>17.600424287875242</v>
+        <v>17.600424448911014</v>
       </c>
       <c r="M84">
         <v>39.5</v>
       </c>
       <c r="N84">
-        <v>1.7836314141329551E-7</v>
+        <v>1.7836312963050217E-7</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
@@ -2708,25 +2708,25 @@
         <v>40</v>
       </c>
       <c r="E85">
-        <v>1.61714283719704</v>
+        <v>1.6171432521360993</v>
       </c>
       <c r="G85">
         <v>40</v>
       </c>
       <c r="H85">
-        <v>2.9115032836821095E-8</v>
+        <v>2.917764598288444E-8</v>
       </c>
       <c r="J85">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>17.012422016856458</v>
+        <v>17.012422169883482</v>
       </c>
       <c r="M85">
         <v>40</v>
       </c>
       <c r="N85">
-        <v>1.3581391821917774E-7</v>
+        <v>1.358139093430901E-7</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
@@ -2734,25 +2734,25 @@
         <v>40.5</v>
       </c>
       <c r="E86">
-        <v>1.5160884802339809</v>
+        <v>1.516088655795585</v>
       </c>
       <c r="G86">
         <v>40.5</v>
       </c>
       <c r="H86">
-        <v>2.1746948802717745E-8</v>
+        <v>2.1802055367536734E-8</v>
       </c>
       <c r="J86">
         <v>40.5</v>
       </c>
       <c r="K86">
-        <v>16.444148602385969</v>
+        <v>16.444148747945558</v>
       </c>
       <c r="M86">
         <v>40.5</v>
       </c>
       <c r="N86">
-        <v>1.0336390557821455E-7</v>
+        <v>1.0336389889590038E-7</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
@@ -2760,25 +2760,25 @@
         <v>41</v>
       </c>
       <c r="E87">
-        <v>1.4205120067461199</v>
+        <v>1.4205122407751229</v>
       </c>
       <c r="G87">
         <v>41</v>
       </c>
       <c r="H87">
-        <v>1.6237969566202115E-8</v>
+        <v>1.6286803882208474E-8</v>
       </c>
       <c r="J87">
         <v>41</v>
       </c>
       <c r="K87">
-        <v>15.896006921249322</v>
+        <v>15.896007059706232</v>
       </c>
       <c r="M87">
         <v>41</v>
       </c>
       <c r="N87">
-        <v>7.8708314651305173E-8</v>
+        <v>7.8708309621429323E-8</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.25">
@@ -2786,25 +2786,25 @@
         <v>41.5</v>
       </c>
       <c r="E88">
-        <v>1.3314558745480087</v>
+        <v>1.3314562547699638</v>
       </c>
       <c r="G88">
         <v>41.5</v>
       </c>
       <c r="H88">
-        <v>1.2125709245894292E-8</v>
+        <v>1.2167537070644549E-8</v>
       </c>
       <c r="J88">
         <v>41.5</v>
       </c>
       <c r="K88">
-        <v>15.367996973446523</v>
+        <v>15.367997105165653</v>
       </c>
       <c r="M88">
         <v>41.5</v>
       </c>
       <c r="N88">
-        <v>5.9905571234783781E-8</v>
+        <v>5.9905567450604559E-8</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.25">
@@ -2812,25 +2812,25 @@
         <v>42</v>
       </c>
       <c r="E89">
-        <v>1.2481862837838509</v>
+        <v>1.2481864442474562</v>
       </c>
       <c r="G89">
         <v>42</v>
       </c>
       <c r="H89">
-        <v>9.0559650555386738E-9</v>
+        <v>9.0917311445784092E-9</v>
       </c>
       <c r="J89">
         <v>42</v>
       </c>
       <c r="K89">
-        <v>14.86011875897769</v>
+        <v>14.860118884323954</v>
       </c>
       <c r="M89">
         <v>42</v>
       </c>
       <c r="N89">
-        <v>4.5609454016178661E-8</v>
+        <v>4.5609451166008621E-8</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.25">
@@ -2838,25 +2838,25 @@
         <v>42.5</v>
       </c>
       <c r="E90">
-        <v>1.1695224874814143</v>
+        <v>1.169522703253796</v>
       </c>
       <c r="G90">
         <v>42.5</v>
       </c>
       <c r="H90">
-        <v>6.7604340024961863E-9</v>
+        <v>6.7898396334491144E-9</v>
       </c>
       <c r="J90">
         <v>42.5</v>
       </c>
       <c r="K90">
-        <v>14.370299842692086</v>
+        <v>14.37029996181313</v>
       </c>
       <c r="M90">
         <v>42.5</v>
       </c>
       <c r="N90">
-        <v>3.4722684976904834E-8</v>
+        <v>3.4722682831793856E-8</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.25">
@@ -2864,25 +2864,25 @@
         <v>43</v>
       </c>
       <c r="E91">
-        <v>1.0962537386712476</v>
+        <v>1.0962540850404203</v>
       </c>
       <c r="G91">
         <v>43</v>
       </c>
       <c r="H91">
-        <v>5.0513859832025374E-9</v>
+        <v>5.0744063780743356E-9</v>
       </c>
       <c r="J91">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>13.889918590380219</v>
+        <v>13.889918703526812</v>
       </c>
       <c r="M91">
         <v>43</v>
       </c>
       <c r="N91">
-        <v>2.6430478278053109E-8</v>
+        <v>2.6430476663371103E-8</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.25">
@@ -2890,25 +2890,25 @@
         <v>43.5</v>
       </c>
       <c r="E92">
-        <v>1.027631563154999</v>
+        <v>1.0276317089597804</v>
       </c>
       <c r="G92">
         <v>43.5</v>
       </c>
       <c r="H92">
-        <v>3.7711085562185E-9</v>
+        <v>3.789726871471564E-9</v>
       </c>
       <c r="J92">
         <v>43.5</v>
       </c>
       <c r="K92">
-        <v>13.426104200802643</v>
+        <v>13.426104308262307</v>
       </c>
       <c r="M92">
         <v>43.5</v>
       </c>
       <c r="N92">
-        <v>2.0127006848773872E-8</v>
+        <v>2.0127005633701668E-8</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.25">
@@ -2916,25 +2916,25 @@
         <v>44</v>
       </c>
       <c r="E93">
-        <v>0.96288764849729769</v>
+        <v>0.96288784613844902</v>
       </c>
       <c r="G93">
         <v>44</v>
       </c>
       <c r="H93">
-        <v>2.8179114326756904E-9</v>
+        <v>2.8315796621849405E-9</v>
       </c>
       <c r="J93">
         <v>44</v>
       </c>
       <c r="K93">
-        <v>12.978856673959639</v>
+        <v>12.978856776019722</v>
       </c>
       <c r="M93">
         <v>44</v>
       </c>
       <c r="N93">
-        <v>1.531732114363646E-8</v>
+        <v>1.5317320229896938E-8</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.25">
@@ -2942,25 +2942,25 @@
         <v>44.5</v>
       </c>
       <c r="E94">
-        <v>0.9026080193779451</v>
+        <v>0.9026083333434054</v>
       </c>
       <c r="G94">
         <v>44.5</v>
       </c>
       <c r="H94">
-        <v>2.1046285799521802E-9</v>
+        <v>2.1145748933520979E-9</v>
       </c>
       <c r="J94">
         <v>44.5</v>
       </c>
       <c r="K94">
-        <v>12.548176009850891</v>
+        <v>12.548176106798905</v>
       </c>
       <c r="M94">
         <v>44.5</v>
       </c>
       <c r="N94">
-        <v>1.1662976462552964E-8</v>
+        <v>1.16629757743925E-8</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.25">
@@ -2968,25 +2968,25 @@
         <v>45</v>
       </c>
       <c r="E95">
-        <v>0.84605160168364779</v>
+        <v>0.84605173342896201</v>
       </c>
       <c r="G95">
         <v>45</v>
       </c>
       <c r="H95">
-        <v>1.5723182439845768E-9</v>
+        <v>1.5798389666910153E-9</v>
       </c>
       <c r="J95">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>12.134062208476672</v>
+        <v>12.134062300600005</v>
       </c>
       <c r="M95">
         <v>45</v>
       </c>
       <c r="N95">
-        <v>8.8777106993820073E-9</v>
+        <v>8.8777101816611812E-9</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.25">
@@ -2994,25 +2994,25 @@
         <v>45.5</v>
       </c>
       <c r="E96">
-        <v>0.79276515670411241</v>
+        <v>0.7927653366707661</v>
       </c>
       <c r="G96">
         <v>45.5</v>
       </c>
       <c r="H96">
-        <v>1.1745815601664707E-9</v>
+        <v>1.1802507840126334E-9</v>
       </c>
       <c r="J96">
         <v>45.5</v>
       </c>
       <c r="K96">
-        <v>11.732677998666581</v>
+        <v>11.732678086006002</v>
       </c>
       <c r="M96">
         <v>45.5</v>
       </c>
       <c r="N96">
-        <v>6.7584862793502776E-9</v>
+        <v>6.7584858896423275E-9</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.25">
@@ -3020,25 +3020,25 @@
         <v>46</v>
       </c>
       <c r="E97">
-        <v>0.74317317484701406</v>
+        <v>0.74317345822608361</v>
       </c>
       <c r="G97">
         <v>46</v>
       </c>
       <c r="H97">
-        <v>8.7718962016780063E-10</v>
+        <v>8.8140928691286352E-10</v>
       </c>
       <c r="J97">
         <v>46</v>
       </c>
       <c r="K97">
-        <v>11.340520476267223</v>
+        <v>11.340520559062872</v>
       </c>
       <c r="M97">
         <v>46</v>
       </c>
       <c r="N97">
-        <v>5.1460413640714591E-9</v>
+        <v>5.146041070951537E-9</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.25">
@@ -3046,25 +3046,25 @@
         <v>46.5</v>
       </c>
       <c r="E98">
-        <v>0.69655745658105872</v>
+        <v>0.69655757506444327</v>
       </c>
       <c r="G98">
         <v>46.5</v>
       </c>
       <c r="H98">
-        <v>6.5568267557681153E-10</v>
+        <v>6.5867760812016821E-10</v>
       </c>
       <c r="J98">
         <v>46.5</v>
       </c>
       <c r="K98">
-        <v>10.961994929680397</v>
+        <v>10.961995008154885</v>
       </c>
       <c r="M98">
         <v>46.5</v>
       </c>
       <c r="N98">
-        <v>3.9166120333362753E-9</v>
+        <v>3.916611812984139E-9</v>
       </c>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.25">
@@ -3072,25 +3072,25 @@
         <v>47</v>
       </c>
       <c r="E99">
-        <v>0.65270198746878572</v>
+        <v>0.65270215052034986</v>
       </c>
       <c r="G99">
         <v>47</v>
       </c>
       <c r="H99">
-        <v>4.8966326933522909E-10</v>
+        <v>4.9180901887021806E-10</v>
       </c>
       <c r="J99">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>10.59710135890591</v>
+        <v>10.597101433282223</v>
       </c>
       <c r="M99">
         <v>47</v>
       </c>
       <c r="N99">
-        <v>2.9824067101956996E-9</v>
+        <v>2.9824065446027462E-9</v>
       </c>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.25">
@@ -3098,25 +3098,25 @@
         <v>47.5</v>
       </c>
       <c r="E100">
-        <v>0.61190405823837291</v>
+        <v>0.61190431305524806</v>
       </c>
       <c r="G100">
         <v>47.5</v>
       </c>
       <c r="H100">
-        <v>3.659228702575118E-10</v>
+        <v>3.6747729540652138E-10</v>
       </c>
       <c r="J100">
         <v>47.5</v>
       </c>
       <c r="K100">
-        <v>10.24583976394395</v>
+        <v>10.245839834444686</v>
       </c>
       <c r="M100">
         <v>47.5</v>
       </c>
       <c r="N100">
-        <v>2.2698906764858957E-9</v>
+        <v>2.2698905521156853E-9</v>
       </c>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.25">
@@ -3124,25 +3124,25 @@
         <v>48</v>
       </c>
       <c r="E101">
-        <v>0.57347900143614716</v>
+        <v>0.57347910759099441</v>
       </c>
       <c r="G101">
         <v>48</v>
       </c>
       <c r="H101">
-        <v>2.7331077023924367E-10</v>
+        <v>2.744470756660734E-10</v>
       </c>
       <c r="J101">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>9.908210144794479</v>
+        <v>9.9082102116423769</v>
       </c>
       <c r="M101">
         <v>48</v>
       </c>
       <c r="N101">
-        <v>1.7282245773697391E-9</v>
+        <v>1.7282244838389822E-9</v>
       </c>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.25">
@@ -3150,25 +3150,25 @@
         <v>48.5</v>
       </c>
       <c r="E102">
-        <v>0.53738641575332324</v>
+        <v>0.5373865628577229</v>
       </c>
       <c r="G102">
         <v>48.5</v>
       </c>
       <c r="H102">
-        <v>2.0421527391855625E-10</v>
+        <v>2.0509136624772305E-10</v>
       </c>
       <c r="J102">
         <v>48.5</v>
       </c>
       <c r="K102">
-        <v>9.5791757763341714</v>
+        <v>9.5791758394970596</v>
       </c>
       <c r="M102">
         <v>48.5</v>
       </c>
       <c r="N102">
-        <v>1.3156663815184847E-9</v>
+        <v>1.3156663112455462E-9</v>
       </c>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.25">
@@ -3176,25 +3176,25 @@
         <v>49</v>
       </c>
       <c r="E103">
-        <v>0.50382430021864599</v>
+        <v>0.50382452859536531</v>
       </c>
       <c r="G103">
         <v>49</v>
       </c>
       <c r="H103">
-        <v>1.525671348832697E-10</v>
+        <v>1.5322807013003345E-10</v>
       </c>
       <c r="J103">
         <v>49</v>
       </c>
       <c r="K103">
-        <v>9.2590620883017092</v>
+        <v>9.2590621480154098</v>
       </c>
       <c r="M103">
         <v>49</v>
       </c>
       <c r="N103">
-        <v>1.0014938408543251E-9</v>
+        <v>1.0014937880416565E-9</v>
       </c>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.25">
@@ -3202,25 +3202,25 @@
         <v>49.5</v>
       </c>
       <c r="E104">
-        <v>0.47214845392182286</v>
+        <v>0.47214854873260892</v>
       </c>
       <c r="G104">
         <v>49.5</v>
       </c>
       <c r="H104">
-        <v>1.1396510974134388E-10</v>
+        <v>1.1445845157594491E-10</v>
       </c>
       <c r="J104">
         <v>49.5</v>
       </c>
       <c r="K104">
-        <v>8.9501649616729289</v>
+        <v>8.9501650181104928</v>
       </c>
       <c r="M104">
         <v>49.5</v>
       </c>
       <c r="N104">
-        <v>7.6265046389042742E-10</v>
+        <v>7.6265042421732096E-10</v>
       </c>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.25">
@@ -3228,25 +3228,25 @@
         <v>50</v>
       </c>
       <c r="E105">
-        <v>0.44244556835034976</v>
+        <v>0.44244570058453897</v>
       </c>
       <c r="G105">
         <v>50</v>
       </c>
       <c r="H105">
-        <v>8.5170189383229431E-11</v>
+        <v>8.5523503707293286E-11</v>
       </c>
       <c r="J105">
         <v>50</v>
       </c>
       <c r="K105">
-        <v>8.6524843964476705</v>
+        <v>8.65248444978225</v>
       </c>
       <c r="M105">
         <v>50</v>
       </c>
       <c r="N105">
-        <v>5.8039391728101213E-10</v>
+        <v>5.8039388750039694E-10</v>
       </c>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.25">
@@ -3254,25 +3254,25 @@
         <v>50.5</v>
       </c>
       <c r="E106">
-        <v>0.41483695510492397</v>
+        <v>0.41483715917941399</v>
       </c>
       <c r="G106">
         <v>50.5</v>
       </c>
       <c r="H106">
-        <v>6.360695506172584E-11</v>
+        <v>6.386776499814266E-11</v>
       </c>
       <c r="J106">
         <v>50.5</v>
       </c>
       <c r="K106">
-        <v>8.3660203926259928</v>
+        <v>8.3660204430308447</v>
       </c>
       <c r="M106">
         <v>50.5</v>
       </c>
       <c r="N106">
-        <v>4.4193190291108921E-10</v>
+        <v>4.4193188051809826E-10</v>
       </c>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.25">
@@ -3280,25 +3280,25 @@
         <v>51</v>
       </c>
       <c r="E107">
-        <v>0.38872293203283609</v>
+        <v>0.38872301648438068</v>
       </c>
       <c r="G107">
         <v>51</v>
       </c>
       <c r="H107">
-        <v>4.7544160330042449E-11</v>
+        <v>4.7728935906364627E-11</v>
       </c>
       <c r="J107">
         <v>51</v>
       </c>
       <c r="K107">
-        <v>8.0907729502078798</v>
+        <v>8.0907729978561278</v>
       </c>
       <c r="M107">
         <v>51</v>
       </c>
       <c r="N107">
-        <v>3.3638491904956356E-10</v>
+        <v>3.3638490223231655E-10</v>
       </c>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.25">
@@ -3306,25 +3306,25 @@
         <v>51.5</v>
       </c>
       <c r="E108">
-        <v>0.36427932097744276</v>
+        <v>0.36427943946414398</v>
       </c>
       <c r="G108">
         <v>51.5</v>
       </c>
       <c r="H108">
-        <v>3.551088722932576E-11</v>
+        <v>3.5644090969513233E-11</v>
       </c>
       <c r="J108">
         <v>51.5</v>
       </c>
       <c r="K108">
-        <v>7.8209488827027238</v>
+        <v>7.8209489275179154</v>
       </c>
       <c r="M108">
         <v>51.5</v>
       </c>
       <c r="N108">
-        <v>2.5609078929069324E-10</v>
+        <v>2.5609077665183386E-10</v>
       </c>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.25">
@@ -3332,25 +3332,25 @@
         <v>52</v>
       </c>
       <c r="E109">
-        <v>0.34156897813642029</v>
+        <v>0.34156916000760229</v>
       </c>
       <c r="G109">
         <v>52</v>
       </c>
       <c r="H109">
-        <v>2.6535466953259061E-11</v>
+        <v>2.6627953335133996E-11</v>
       </c>
       <c r="J109">
         <v>52</v>
       </c>
       <c r="K109">
-        <v>7.5596613823683123</v>
+        <v>7.5596614245770928</v>
       </c>
       <c r="M109">
         <v>52</v>
       </c>
       <c r="N109">
-        <v>1.9498576921658923E-10</v>
+        <v>1.9498575972740203E-10</v>
       </c>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.25">
@@ -3358,25 +3358,25 @@
         <v>52.5</v>
       </c>
       <c r="E110">
-        <v>0.3200386033871076</v>
+        <v>0.32003867843587913</v>
       </c>
       <c r="G110">
         <v>52.5</v>
       </c>
       <c r="H110">
-        <v>1.9820032443491708E-11</v>
+        <v>1.9887991981428056E-11</v>
       </c>
       <c r="J110">
         <v>52.5</v>
       </c>
       <c r="K110">
-        <v>7.3076028493370986</v>
+        <v>7.3076028890751603</v>
       </c>
       <c r="M110">
         <v>52.5</v>
       </c>
       <c r="N110">
-        <v>1.4840635913323326E-10</v>
+        <v>1.4840635201160839E-10</v>
       </c>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.25">
@@ -3384,25 +3384,25 @@
         <v>53</v>
       </c>
       <c r="E111">
-        <v>0.29992369841956984</v>
+        <v>0.29992380428630189</v>
       </c>
       <c r="G111">
         <v>53</v>
       </c>
       <c r="H111">
-        <v>1.4809054189736997E-11</v>
+        <v>1.4858292585365563E-11</v>
       </c>
       <c r="J111">
         <v>53</v>
       </c>
       <c r="K111">
-        <v>7.0647732836090809</v>
+        <v>7.0647733210122237</v>
       </c>
       <c r="M111">
         <v>53</v>
       </c>
       <c r="N111">
-        <v>1.1300903349282654E-10</v>
+        <v>1.1300902815051827E-10</v>
       </c>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.25">
@@ -3410,25 +3410,25 @@
         <v>53.5</v>
       </c>
       <c r="E112">
-        <v>0.2812301260053664</v>
+        <v>0.28123018605700473</v>
       </c>
       <c r="G112">
         <v>53.5</v>
       </c>
       <c r="H112">
-        <v>1.1066397991911188E-11</v>
+        <v>1.1101489321103997E-11</v>
       </c>
       <c r="J112">
         <v>53.5</v>
       </c>
       <c r="K112">
-        <v>6.8311726851843781</v>
+        <v>6.8311727203882207</v>
       </c>
       <c r="M112">
         <v>53.5</v>
       </c>
       <c r="N112">
-        <v>8.6008843118955209E-11</v>
+        <v>8.6008839113605907E-11</v>
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.25">
@@ -3436,25 +3436,25 @@
         <v>54</v>
       </c>
       <c r="E113">
-        <v>0.26349068232467926</v>
+        <v>0.26349074888161145</v>
       </c>
       <c r="G113">
         <v>54</v>
       </c>
       <c r="H113">
-        <v>8.2653413773939132E-12</v>
+        <v>8.2903135063773958E-12</v>
       </c>
       <c r="J113">
         <v>54</v>
       </c>
       <c r="K113">
-        <v>6.6063015137152936</v>
+        <v>6.6063015467492807</v>
       </c>
       <c r="M113">
         <v>54</v>
       </c>
       <c r="N113">
-        <v>6.5485571254135275E-11</v>
+        <v>6.5485568246140411E-11</v>
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.25">
@@ -3462,25 +3462,25 @@
         <v>54.5</v>
       </c>
       <c r="E114">
-        <v>0.24693845785199053</v>
+        <v>0.2469385522027584</v>
       </c>
       <c r="G114">
         <v>54.5</v>
       </c>
       <c r="H114">
-        <v>6.1774500349994356E-12</v>
+        <v>6.1954776603375197E-12</v>
       </c>
       <c r="J114">
         <v>54.5</v>
       </c>
       <c r="K114">
-        <v>6.3854506343178565</v>
+        <v>6.3854506652919758</v>
       </c>
       <c r="M114">
         <v>54.5</v>
       </c>
       <c r="N114">
-        <v>4.9851568483280365E-11</v>
+        <v>4.9851566226417739E-11</v>
       </c>
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.25">
@@ -3488,25 +3488,25 @@
         <v>55</v>
       </c>
       <c r="E115">
-        <v>0.23153731923493076</v>
+        <v>0.23153737128945603</v>
       </c>
       <c r="G115">
         <v>55</v>
       </c>
       <c r="H115">
-        <v>4.6133480184243176E-12</v>
+        <v>4.626800148767726E-12</v>
       </c>
       <c r="J115">
         <v>55</v>
       </c>
       <c r="K115">
-        <v>6.17219327685621</v>
+        <v>6.1721933058775509</v>
       </c>
       <c r="M115">
         <v>55</v>
       </c>
       <c r="N115">
-        <v>3.7948253543963925E-11</v>
+        <v>3.7948251849461414E-11</v>
       </c>
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.25">
@@ -3514,25 +3514,25 @@
         <v>55.5</v>
       </c>
       <c r="E116">
-        <v>0.21693464785463876</v>
+        <v>0.21693470677516152</v>
       </c>
       <c r="G116">
         <v>55.5</v>
       </c>
       <c r="H116">
-        <v>3.4478000561687026E-12</v>
+        <v>3.4578601121568251E-12</v>
       </c>
       <c r="J116">
         <v>55.5</v>
       </c>
       <c r="K116">
-        <v>5.9665294413304748</v>
+        <v>5.9665294685060024</v>
       </c>
       <c r="M116">
         <v>55.5</v>
       </c>
       <c r="N116">
-        <v>2.8898271722061966E-11</v>
+        <v>2.8898270450099927E-11</v>
       </c>
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.25">
@@ -3540,25 +3540,25 @@
         <v>56</v>
       </c>
       <c r="E117">
-        <v>0.20331454631574947</v>
+        <v>0.20331463021170884</v>
       </c>
       <c r="G117">
         <v>56</v>
       </c>
       <c r="H117">
-        <v>2.5754329529208234E-12</v>
+        <v>2.5829506614546929E-12</v>
       </c>
       <c r="J117">
         <v>56</v>
       </c>
       <c r="K117">
-        <v>5.7684591277405302</v>
+        <v>5.7684591531772433</v>
       </c>
       <c r="M117">
         <v>56</v>
       </c>
       <c r="N117">
-        <v>2.1991925547973141E-11</v>
+        <v>2.19919245934702E-11</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.25">
@@ -3566,25 +3566,25 @@
         <v>56.5</v>
       </c>
       <c r="E118">
-        <v>0.19062512725211159</v>
+        <v>0.19062517235559912</v>
       </c>
       <c r="G118">
         <v>56.5</v>
       </c>
       <c r="H118">
-        <v>1.9244620385715871E-12</v>
+        <v>1.9300783473238167E-12</v>
       </c>
       <c r="J118">
         <v>56.5</v>
       </c>
       <c r="K118">
-        <v>5.577982336086392</v>
+        <v>5.5779823598913776</v>
       </c>
       <c r="M118">
         <v>56.5</v>
       </c>
       <c r="N118">
-        <v>1.6745626270053806E-11</v>
+        <v>1.6745625551933855E-11</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.25">
@@ -3592,25 +3592,25 @@
         <v>57</v>
       </c>
       <c r="E119">
-        <v>0.17860492001538969</v>
+        <v>0.17860497209307105</v>
       </c>
       <c r="G119">
         <v>57</v>
       </c>
       <c r="H119">
-        <v>1.4379005961407754E-12</v>
+        <v>1.442098472198395E-12</v>
       </c>
       <c r="J119">
         <v>57</v>
       </c>
       <c r="K119">
-        <v>5.39373873352221</v>
+        <v>5.3937387556879566</v>
       </c>
       <c r="M119">
         <v>57</v>
       </c>
       <c r="N119">
-        <v>1.2745959839809507E-11</v>
+        <v>1.2745959299800964E-11</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.25">
@@ -3618,25 +3618,25 @@
         <v>57.5</v>
       </c>
       <c r="E120">
-        <v>0.16739791006556914</v>
+        <v>0.16739798451117524</v>
       </c>
       <c r="G120">
         <v>57.5</v>
       </c>
       <c r="H120">
-        <v>1.0742118371940274E-12</v>
+        <v>1.0773469622159066E-12</v>
       </c>
       <c r="J120">
         <v>57.5</v>
       </c>
       <c r="K120">
-        <v>5.2134463958953896</v>
+        <v>5.2134464165291341</v>
       </c>
       <c r="M120">
         <v>57.5</v>
       </c>
       <c r="N120">
-        <v>9.7037293059883113E-12</v>
+        <v>9.7037288990921661E-12</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.25">
@@ -3644,25 +3644,25 @@
         <v>58</v>
       </c>
       <c r="E121">
-        <v>0.15694205711504969</v>
+        <v>0.15694209618420263</v>
       </c>
       <c r="G121">
         <v>58</v>
       </c>
       <c r="H121">
-        <v>8.0288784357299758E-13</v>
+        <v>8.0523220895355093E-13</v>
       </c>
       <c r="J121">
         <v>58</v>
       </c>
       <c r="K121">
-        <v>5.0394019267361623</v>
+        <v>5.0394019459216404</v>
       </c>
       <c r="M121">
         <v>58</v>
       </c>
       <c r="N121">
-        <v>7.3881074074038265E-12</v>
+        <v>7.388107100703686E-12</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.25">
@@ -3670,25 +3670,25 @@
         <v>58.5</v>
       </c>
       <c r="E122">
-        <v>0.14704790030493733</v>
+        <v>0.1470479462690685</v>
       </c>
       <c r="G122">
         <v>58.5</v>
       </c>
       <c r="H122">
-        <v>5.996390680982751E-13</v>
+        <v>6.0138926283636363E-13</v>
       </c>
       <c r="J122">
         <v>58.5</v>
       </c>
       <c r="K122">
-        <v>4.8716053260445715</v>
+        <v>4.8716053438654185</v>
       </c>
       <c r="M122">
         <v>58.5</v>
       </c>
       <c r="N122">
-        <v>5.6233456223078185E-12</v>
+        <v>5.6233453907270125E-12</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.25">
@@ -3696,25 +3696,25 @@
         <v>59</v>
       </c>
       <c r="E123">
-        <v>0.13782676419918849</v>
+        <v>0.13782683013448582</v>
       </c>
       <c r="G123">
         <v>59</v>
       </c>
       <c r="H123">
-        <v>4.4817057039194531E-13</v>
+        <v>4.4947847986549449E-13</v>
       </c>
       <c r="J123">
         <v>59</v>
       </c>
       <c r="K123">
-        <v>4.7100565938206476</v>
+        <v>4.7100566103605708</v>
       </c>
       <c r="M123">
         <v>59</v>
       </c>
       <c r="N123">
-        <v>4.2821264975281437E-12</v>
+        <v>4.2821263223259132E-12</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.25">
@@ -3722,25 +3722,25 @@
         <v>59.5</v>
       </c>
       <c r="E124">
-        <v>0.12921074958392967</v>
+        <v>0.1292107834196756</v>
       </c>
       <c r="G124">
         <v>59.5</v>
       </c>
       <c r="H124">
-        <v>3.3474716207775746E-13</v>
+        <v>3.3572429882666073E-13</v>
       </c>
       <c r="J124">
         <v>59.5</v>
       </c>
       <c r="K124">
-        <v>4.554755730064314</v>
+        <v>4.5547557454069327</v>
       </c>
       <c r="M124">
         <v>59.5</v>
       </c>
       <c r="N124">
-        <v>3.2589801152001413E-12</v>
+        <v>3.2589799823210322E-12</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.25">
@@ -3748,25 +3748,25 @@
         <v>60</v>
       </c>
       <c r="E125">
-        <v>0.12106684509993884</v>
+        <v>0.12106688561616442</v>
       </c>
       <c r="G125">
         <v>60</v>
       </c>
       <c r="H125">
-        <v>2.50154721496107E-13</v>
+        <v>2.5088477101496361E-13</v>
       </c>
       <c r="J125">
         <v>60</v>
       </c>
       <c r="K125">
-        <v>4.4037451646593189</v>
+        <v>4.4037451787730761</v>
       </c>
       <c r="M125">
         <v>60</v>
       </c>
       <c r="N125">
-        <v>2.4813682009966768E-12</v>
+        <v>2.4813680996824281E-12</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.25">
@@ -3774,25 +3774,25 @@
         <v>60.5</v>
       </c>
       <c r="E126">
-        <v>0.11347994798832259</v>
+        <v>0.11348000628525425</v>
       </c>
       <c r="G126">
         <v>60.5</v>
       </c>
       <c r="H126">
-        <v>1.8688695720059409E-13</v>
+        <v>1.8743255299541585E-13</v>
       </c>
       <c r="J126">
         <v>60.5</v>
       </c>
       <c r="K126">
-        <v>4.2565722539372821</v>
+        <v>4.2565722669273249</v>
       </c>
       <c r="M126">
         <v>60.5</v>
       </c>
       <c r="N126">
-        <v>1.8889152016439601E-12</v>
+        <v>1.888915124115565E-12</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.25">
@@ -3800,25 +3800,25 @@
         <v>61</v>
       </c>
       <c r="E127">
-        <v>0.10637954435562967</v>
+        <v>0.1063795736560066</v>
       </c>
       <c r="G127">
         <v>61</v>
       </c>
       <c r="H127">
-        <v>1.3963159022825458E-13</v>
+        <v>1.400391065977918E-13</v>
       </c>
       <c r="J127">
         <v>61</v>
       </c>
       <c r="K127">
-        <v>4.1145400057301549</v>
+        <v>4.1145400176624625</v>
       </c>
       <c r="M127">
         <v>61</v>
       </c>
       <c r="N127">
-        <v>1.4379228315523046E-12</v>
+        <v>1.4379227718780996E-12</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.25">
@@ -3826,25 +3826,25 @@
         <v>61.5</v>
       </c>
       <c r="E128">
-        <v>9.9676478943501914E-2</v>
+        <v>9.9676514615887835E-2</v>
       </c>
       <c r="G128">
         <v>61.5</v>
       </c>
       <c r="H128">
-        <v>1.0434816248835587E-13</v>
+        <v>1.0465284201559047E-13</v>
       </c>
       <c r="J128">
         <v>61.5</v>
       </c>
       <c r="K128">
-        <v>3.9776484200379842</v>
+        <v>3.9776484309785327</v>
       </c>
       <c r="M128">
         <v>61.5</v>
       </c>
       <c r="N128">
-        <v>1.094967028307372E-12</v>
+        <v>1.0949669821330498E-12</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.25">
@@ -3852,25 +3852,25 @@
         <v>62</v>
       </c>
       <c r="E129">
-        <v>9.3434405623063752E-2</v>
+        <v>9.3434457084406314E-2</v>
       </c>
       <c r="G129">
         <v>62</v>
       </c>
       <c r="H129">
-        <v>7.7817338968176704E-14</v>
+        <v>7.8045878836298485E-14</v>
       </c>
       <c r="J129">
         <v>62</v>
       </c>
       <c r="K129">
-        <v>3.845897496860724</v>
+        <v>3.8458975068754464</v>
       </c>
       <c r="M129">
         <v>62</v>
       </c>
       <c r="N129">
-        <v>8.3330518936975762E-13</v>
+        <v>8.3330515342982074E-13</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.25">
@@ -3878,25 +3878,25 @@
         <v>62.5</v>
       </c>
       <c r="E130">
-        <v>8.7582602407138749E-2</v>
+        <v>8.7582627779276098E-2</v>
       </c>
       <c r="G130">
         <v>62.5</v>
       </c>
       <c r="H130">
-        <v>5.7720865435771214E-14</v>
+        <v>5.7902226862106692E-14</v>
       </c>
       <c r="J130">
         <v>62.5</v>
       </c>
       <c r="K130">
-        <v>3.7192872361983902</v>
+        <v>3.719287245353263</v>
       </c>
       <c r="M130">
         <v>62.5</v>
       </c>
       <c r="N130">
-        <v>6.3452333791442346E-13</v>
+        <v>6.3452330976825642E-13</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.25">
@@ -3904,25 +3904,25 @@
         <v>63</v>
       </c>
       <c r="E131">
-        <v>8.2065627599723787E-2</v>
+        <v>8.2065658973833527E-2</v>
       </c>
       <c r="G131">
         <v>63</v>
       </c>
       <c r="H131">
-        <v>4.2577745925361372E-14</v>
+        <v>4.2717448728233087E-14</v>
       </c>
       <c r="J131">
         <v>63</v>
       </c>
       <c r="K131">
-        <v>3.5954701354348466</v>
+        <v>3.5954701436814602</v>
       </c>
       <c r="M131">
         <v>63</v>
       </c>
       <c r="N131">
-        <v>4.8295779855318269E-13</v>
+        <v>4.8295777639505143E-13</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.25">
@@ -3930,25 +3930,25 @@
         <v>63.5</v>
       </c>
       <c r="E132">
-        <v>7.6930180441129106E-2</v>
+        <v>7.6930225801366867E-2</v>
       </c>
       <c r="G132">
         <v>63.5</v>
       </c>
       <c r="H132">
-        <v>3.1417129888468421E-14</v>
+        <v>3.1507530161874484E-14</v>
       </c>
       <c r="J132">
         <v>63.5</v>
       </c>
       <c r="K132">
-        <v>3.4753403123239894</v>
+        <v>3.4753403197617567</v>
       </c>
       <c r="M132">
         <v>63.5</v>
       </c>
       <c r="N132">
-        <v>3.6769161870613307E-13</v>
+        <v>3.6769160116527795E-13</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.25">
@@ -3956,25 +3956,25 @@
         <v>64</v>
       </c>
       <c r="E133">
-        <v>7.2107073769669752E-2</v>
+        <v>7.2107095740757396E-2</v>
       </c>
       <c r="G133">
         <v>64</v>
       </c>
       <c r="H133">
-        <v>2.3225655378005721E-14</v>
+        <v>2.3267348533879489E-14</v>
       </c>
       <c r="J133">
         <v>64</v>
       </c>
       <c r="K133">
-        <v>3.3594401374482303</v>
+        <v>3.3594401441287354</v>
       </c>
       <c r="M133">
         <v>64</v>
       </c>
       <c r="N133">
-        <v>2.7993959107419576E-13</v>
+        <v>2.7993957713664783E-13</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.25">
@@ -3982,25 +3982,25 @@
         <v>64.5</v>
       </c>
       <c r="E134">
-        <v>6.7566453820939121E-2</v>
+        <v>6.7566481387514338E-2</v>
       </c>
       <c r="G134">
         <v>64.5</v>
       </c>
       <c r="H134">
-        <v>1.7191899561668241E-14</v>
+        <v>1.7213927250849254E-14</v>
       </c>
       <c r="J134">
         <v>64.5</v>
       </c>
       <c r="K134">
-        <v>3.2477696108076897</v>
+        <v>3.2477696167824104</v>
       </c>
       <c r="M134">
         <v>64.5</v>
       </c>
       <c r="N134">
-        <v>2.1307751022475255E-13</v>
+        <v>2.130774991164345E-13</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.25">
@@ -4008,25 +4008,25 @@
         <v>65</v>
       </c>
       <c r="E135">
-        <v>6.3341594926024453E-2</v>
+        <v>6.3341634853601836E-2</v>
       </c>
       <c r="G135">
         <v>65</v>
       </c>
       <c r="H135">
-        <v>1.2704143042879641E-14</v>
+        <v>1.2716749092378151E-14</v>
       </c>
       <c r="J135">
         <v>65</v>
       </c>
       <c r="K135">
-        <v>3.1403287324023057</v>
+        <v>3.1403287377227529</v>
       </c>
       <c r="M135">
         <v>65</v>
       </c>
       <c r="N135">
-        <v>1.6225802952452104E-13</v>
+        <v>1.6225802065446015E-13</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.25">
@@ -4034,25 +4034,25 @@
         <v>65.5</v>
       </c>
       <c r="E136">
-        <v>5.9366066070782833E-2</v>
+        <v>5.9366085097997609E-2</v>
       </c>
       <c r="G136">
         <v>65.5</v>
       </c>
       <c r="H136">
-        <v>9.3614580029297048E-15</v>
+        <v>9.3690861389514659E-15</v>
       </c>
       <c r="J136">
         <v>65.5</v>
       </c>
       <c r="K136">
-        <v>3.0370891655628238</v>
+        <v>3.0370891702273877</v>
       </c>
       <c r="M136">
         <v>65.5</v>
       </c>
       <c r="N136">
-        <v>1.2323402648079751E-13</v>
+        <v>1.2323401926716726E-13</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.25">
@@ -4060,25 +4060,25 @@
         <v>66</v>
       </c>
       <c r="E137">
-        <v>5.562912918408329E-2</v>
+        <v>5.5629153383052153E-2</v>
       </c>
       <c r="G137">
         <v>66</v>
       </c>
       <c r="H137">
-        <v>6.917103526271085E-15</v>
+        <v>6.922306499800423E-15</v>
       </c>
       <c r="J137">
         <v>66</v>
       </c>
       <c r="K137">
-        <v>2.9355593998619494</v>
+        <v>2.9355594039161943</v>
       </c>
       <c r="M137">
         <v>66</v>
       </c>
       <c r="N137">
-        <v>9.3121993046546807E-14</v>
+        <v>9.3121986476474505E-14</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.25">
@@ -4086,25 +4086,25 @@
         <v>66.5</v>
       </c>
       <c r="E138">
-        <v>5.2153523406861482E-2</v>
+        <v>5.2153558507349637E-2</v>
       </c>
       <c r="G138">
         <v>66.5</v>
       </c>
       <c r="H138">
-        <v>5.0882176336628288E-15</v>
+        <v>5.0918307093187488E-15</v>
       </c>
       <c r="J138">
         <v>66.5</v>
       </c>
       <c r="K138">
-        <v>2.8375096904828534</v>
+        <v>2.8375096939661604</v>
       </c>
       <c r="M138">
         <v>66.5</v>
       </c>
       <c r="N138">
-        <v>7.0423563591190967E-14</v>
+        <v>7.042355651501483E-14</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.25">
@@ -4112,25 +4112,25 @@
         <v>67</v>
       </c>
       <c r="E139">
-        <v>4.887638903136108E-2</v>
+        <v>4.8876405510765254E-2</v>
       </c>
       <c r="G139">
         <v>67</v>
       </c>
       <c r="H139">
-        <v>3.6153101064922361E-15</v>
+        <v>3.6175746602638062E-15</v>
       </c>
       <c r="J139">
         <v>67</v>
       </c>
       <c r="K139">
-        <v>2.7429400374255661</v>
+        <v>2.7429400403772859</v>
       </c>
       <c r="M139">
         <v>67</v>
       </c>
       <c r="N139">
-        <v>5.3087367764963297E-14</v>
+        <v>5.3087358711065456E-14</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.25">
@@ -4138,25 +4138,25 @@
         <v>67.5</v>
       </c>
       <c r="E140">
-        <v>4.5800981462765705E-2</v>
+        <v>4.580100268735663E-2</v>
       </c>
       <c r="G140">
         <v>67.5</v>
       </c>
       <c r="H140">
-        <v>2.5707524608764629E-15</v>
+        <v>2.572175288577173E-15</v>
       </c>
       <c r="J140">
         <v>67.5</v>
       </c>
       <c r="K140">
-        <v>2.651850440690072</v>
+        <v>2.6518504431495558</v>
       </c>
       <c r="M140">
         <v>67.5</v>
       </c>
       <c r="N140">
-        <v>4.0058210093090764E-14</v>
+        <v>4.0058199625272627E-14</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.25">
@@ -4164,25 +4164,25 @@
         <v>68</v>
       </c>
       <c r="E141">
-        <v>4.2941857530678314E-2</v>
+        <v>4.2941888350519097E-2</v>
       </c>
       <c r="G141">
         <v>68</v>
       </c>
       <c r="H141">
-        <v>1.7501127640147589E-15</v>
+        <v>1.7508366756470478E-15</v>
       </c>
       <c r="J141">
         <v>68</v>
       </c>
       <c r="K141">
-        <v>2.5642409002763711</v>
+        <v>2.5642409022830139</v>
       </c>
       <c r="M141">
         <v>68</v>
       </c>
       <c r="N141">
-        <v>3.0273923682543698E-14</v>
+        <v>3.0273912848019133E-14</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.25">
@@ -4190,25 +4190,25 @@
         <v>68.5</v>
       </c>
       <c r="E142">
-        <v>4.0240231137180692E-2</v>
+        <v>4.0240245411636975E-2</v>
       </c>
       <c r="G142">
         <v>68.5</v>
       </c>
       <c r="H142">
-        <v>1.1727206069737834E-15</v>
+        <v>1.1730781059144589E-15</v>
       </c>
       <c r="J142">
         <v>68.5</v>
       </c>
       <c r="K142">
-        <v>2.479665730112937</v>
+        <v>2.479665731650841</v>
       </c>
       <c r="M142">
         <v>68.5</v>
       </c>
       <c r="N142">
-        <v>2.2899590585782044E-14</v>
+        <v>2.2899580183588571E-14</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.25">
@@ -4216,25 +4216,25 @@
         <v>69</v>
       </c>
       <c r="E143">
-        <v>3.7709326713536599E-2</v>
+        <v>3.7709345314353451E-2</v>
       </c>
       <c r="G143">
         <v>69</v>
       </c>
       <c r="H143">
-        <v>8.2387606565337405E-16</v>
+        <v>8.2404476450432468E-16</v>
       </c>
       <c r="J143">
         <v>69</v>
       </c>
       <c r="K143">
-        <v>2.3967794467038117</v>
+        <v>2.3967794478198368</v>
       </c>
       <c r="M143">
         <v>69</v>
       </c>
       <c r="N143">
-        <v>1.7329577740213634E-14</v>
+        <v>1.7329568307423398E-14</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.25">
@@ -4242,25 +4242,25 @@
         <v>69.5</v>
       </c>
       <c r="E144">
-        <v>3.5357423601972617E-2</v>
+        <v>3.535745063254031E-2</v>
       </c>
       <c r="G144">
         <v>69.5</v>
       </c>
       <c r="H144">
-        <v>5.1668745706473079E-16</v>
+        <v>5.1669975106251009E-16</v>
       </c>
       <c r="J144">
         <v>69.5</v>
       </c>
       <c r="K144">
-        <v>2.3167564464102015</v>
+        <v>2.316756447134773</v>
       </c>
       <c r="M144">
         <v>69.5</v>
       </c>
       <c r="N144">
-        <v>1.3117730329896382E-14</v>
+        <v>1.3117722076108357E-14</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.25">
@@ -4268,25 +4268,25 @@
         <v>70</v>
       </c>
       <c r="E145">
-        <v>3.313007376818701E-2</v>
+        <v>3.3130086134342325E-2</v>
       </c>
       <c r="G145">
         <v>70</v>
       </c>
       <c r="H145">
-        <v>3.4655658297381917E-16</v>
+        <v>3.4654470970380861E-16</v>
       </c>
       <c r="J145">
         <v>70</v>
       </c>
       <c r="K145">
-        <v>2.2395967292321952</v>
+        <v>2.2395967295956658</v>
       </c>
       <c r="M145">
         <v>70</v>
       </c>
       <c r="N145">
-        <v>9.9148458019292719E-15</v>
+        <v>9.9148387063226573E-15</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.25">
@@ -4294,25 +4294,25 @@
         <v>70.5</v>
       </c>
       <c r="E146">
-        <v>3.1047334988259817E-2</v>
+        <v>3.1047351277223811E-2</v>
       </c>
       <c r="G146">
         <v>70.5</v>
       </c>
       <c r="H146">
-        <v>2.2501263650614447E-16</v>
+        <v>2.2495312219685502E-16</v>
       </c>
       <c r="J146">
         <v>70.5</v>
       </c>
       <c r="K146">
-        <v>2.1653002951697045</v>
+        <v>2.1653002952025444</v>
       </c>
       <c r="M146">
         <v>70.5</v>
       </c>
       <c r="N146">
-        <v>7.3358379841440284E-15</v>
+        <v>7.335831893172328E-15</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.25">
@@ -4320,25 +4320,25 @@
         <v>71</v>
       </c>
       <c r="E147">
-        <v>2.9112741811342119E-2</v>
+        <v>2.9112765493137197E-2</v>
       </c>
       <c r="G147">
         <v>71</v>
       </c>
       <c r="H147">
-        <v>1.344132923568143E-16</v>
+        <v>1.3434607226805921E-16</v>
       </c>
       <c r="J147">
         <v>71</v>
       </c>
       <c r="K147">
-        <v>2.0938671442227736</v>
+        <v>2.0938671439553782</v>
       </c>
       <c r="M147">
         <v>71</v>
       </c>
       <c r="N147">
-        <v>5.4383206666694153E-15</v>
+        <v>5.4383154498859445E-15</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.25">
@@ -4346,25 +4346,25 @@
         <v>71.5</v>
       </c>
       <c r="E148">
-        <v>2.7276270801941591E-2</v>
+        <v>2.7276281516367542E-2</v>
       </c>
       <c r="G148">
         <v>71.5</v>
       </c>
       <c r="H148">
-        <v>9.4219462769395239E-17</v>
+        <v>9.4158273136058697E-17</v>
       </c>
       <c r="J148">
         <v>71.5</v>
       </c>
       <c r="K148">
-        <v>2.0245568340745059</v>
+        <v>2.0245568334815451</v>
       </c>
       <c r="M148">
         <v>71.5</v>
       </c>
       <c r="N148">
-        <v>3.9219874129417342E-15</v>
+        <v>3.9219822482957483E-15</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.25">
@@ -4372,25 +4372,25 @@
         <v>72</v>
       </c>
       <c r="E149">
-        <v>2.556239362972788E-2</v>
+        <v>2.5562407883816307E-2</v>
       </c>
       <c r="G149">
         <v>72</v>
       </c>
       <c r="H149">
-        <v>3.6444660654516327E-17</v>
+        <v>3.6373829912061805E-17</v>
       </c>
       <c r="J149">
         <v>72</v>
       </c>
       <c r="K149">
-        <v>1.9568944479714516</v>
+        <v>1.9568944470970899</v>
       </c>
       <c r="M149">
         <v>72</v>
       </c>
       <c r="N149">
-        <v>2.8548173385454492E-15</v>
+        <v>2.8548115620400811E-15</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.25">
@@ -4398,25 +4398,25 @@
         <v>72.5</v>
       </c>
       <c r="E150">
-        <v>2.3968592479900394E-2</v>
+        <v>2.396860106242079E-2</v>
       </c>
       <c r="G150">
         <v>72.5</v>
       </c>
       <c r="H150">
-        <v>-6.8327803358563179E-18</v>
+        <v>-6.9079203294209157E-18</v>
       </c>
       <c r="J150">
         <v>72.5</v>
       </c>
       <c r="K150">
-        <v>1.891587869992275</v>
+        <v>1.8915878688594427</v>
       </c>
       <c r="M150">
         <v>72.5</v>
       </c>
       <c r="N150">
-        <v>2.0706018940243004E-15</v>
+        <v>2.0705952860287537E-15</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.25">
@@ -4424,25 +4424,25 @@
         <v>73</v>
       </c>
       <c r="E151">
-        <v>2.245682273585041E-2</v>
+        <v>2.2456832020412165E-2</v>
       </c>
       <c r="G151">
         <v>73</v>
       </c>
       <c r="H151">
-        <v>-3.5612860201724168E-17</v>
+        <v>-3.5686977588388656E-17</v>
       </c>
       <c r="J151">
         <v>73</v>
       </c>
       <c r="K151">
-        <v>1.8286371001370352</v>
+        <v>1.828637098768634</v>
       </c>
       <c r="M151">
         <v>73</v>
       </c>
       <c r="N151">
-        <v>1.4761064835007297E-15</v>
+        <v>1.4760990205215558E-15</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.25">
@@ -4450,25 +4450,25 @@
         <v>73.5</v>
       </c>
       <c r="E152">
-        <v>2.1046526768368372E-2</v>
+        <v>2.1046539233122059E-2</v>
       </c>
       <c r="G152">
         <v>73.5</v>
       </c>
       <c r="H152">
-        <v>-4.9895578943086793E-17</v>
+        <v>-4.9963341864841929E-17</v>
       </c>
       <c r="J152">
         <v>73.5</v>
       </c>
       <c r="K152">
-        <v>1.7680421384056877</v>
+        <v>1.7680421368246337</v>
       </c>
       <c r="M152">
         <v>73.5</v>
       </c>
       <c r="N152">
-        <v>1.0860194302695543E-15</v>
+        <v>1.0860111653831324E-15</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.25">
@@ -4476,25 +4476,25 @@
         <v>74</v>
       </c>
       <c r="E153">
-        <v>1.973338939101589E-2</v>
+        <v>1.9733396684288897E-2</v>
       </c>
       <c r="G153">
         <v>74</v>
       </c>
       <c r="H153">
-        <v>-4.9872616116162926E-17</v>
+        <v>-4.9932809088734578E-17</v>
       </c>
       <c r="J153">
         <v>74</v>
       </c>
       <c r="K153">
-        <v>1.7098029847982321</v>
+        <v>1.7098029830274717</v>
       </c>
       <c r="M153">
         <v>74</v>
       </c>
       <c r="N153">
-        <v>7.6238025383234064E-16</v>
+        <v>7.6237178058027186E-16</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.25">
@@ -4502,25 +4502,25 @@
         <v>74.5</v>
       </c>
       <c r="E154">
-        <v>1.8488957623551346E-2</v>
+        <v>1.8488965670139156E-2</v>
       </c>
       <c r="G154">
         <v>74.5</v>
       </c>
       <c r="H154">
-        <v>-5.2941690908318606E-17</v>
+        <v>-5.2999374794863994E-17</v>
       </c>
       <c r="J154">
         <v>74.5</v>
       </c>
       <c r="K154">
-        <v>1.6529813814943848</v>
+        <v>1.6529813795030148</v>
       </c>
       <c r="M154">
         <v>74.5</v>
       </c>
       <c r="N154">
-        <v>5.6836104106193875E-16</v>
+        <v>5.6835270039987997E-16</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.25">
@@ -4528,25 +4528,25 @@
         <v>75</v>
       </c>
       <c r="E155">
-        <v>1.7328507893792804E-2</v>
+        <v>1.7328518786598576E-2</v>
       </c>
       <c r="G155">
         <v>75</v>
       </c>
       <c r="H155">
-        <v>-5.6010765700474287E-17</v>
+        <v>-5.6065940500993564E-17</v>
       </c>
       <c r="J155">
         <v>75</v>
       </c>
       <c r="K155">
-        <v>1.597749814030998</v>
+        <v>1.5977498118610662</v>
       </c>
       <c r="M155">
         <v>75</v>
       </c>
       <c r="N155">
-        <v>4.1569363705637657E-16</v>
+        <v>4.1568602664506409E-16</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.25">
@@ -4554,25 +4554,25 @@
         <v>75.5</v>
       </c>
       <c r="E156">
-        <v>1.624653894828593E-2</v>
+        <v>1.624654515119944E-2</v>
       </c>
       <c r="G156">
         <v>75.5</v>
       </c>
       <c r="H156">
-        <v>-5.9079840492629825E-17</v>
+        <v>-5.9132506207122973E-17</v>
       </c>
       <c r="J156">
         <v>75.5</v>
       </c>
       <c r="K156">
-        <v>1.5444565296676265</v>
+        <v>1.5444565273362831</v>
       </c>
       <c r="M156">
         <v>75.5</v>
       </c>
       <c r="N156">
-        <v>3.402512856604113E-16</v>
+        <v>3.4024489889214681E-16</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.25">
@@ -4580,25 +4580,25 @@
         <v>76</v>
       </c>
       <c r="E157">
-        <v>1.5222199797825395E-2</v>
+        <v>1.52222067723579E-2</v>
       </c>
       <c r="G157">
         <v>76</v>
       </c>
       <c r="H157">
-        <v>-6.2148915284785499E-17</v>
+        <v>-6.2199071913252382E-17</v>
       </c>
       <c r="J157">
         <v>76</v>
       </c>
       <c r="K157">
-        <v>1.4931015284042259</v>
+        <v>1.4931015259286655</v>
       </c>
       <c r="M157">
         <v>76</v>
       </c>
       <c r="N157">
-        <v>2.6478587745216551E-16</v>
+        <v>2.6478016163831979E-16</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.25">
@@ -4606,25 +4606,25 @@
         <v>76.5</v>
       </c>
       <c r="E158">
-        <v>1.4267366116823386E-2</v>
+        <v>1.4267375629806492E-2</v>
       </c>
       <c r="G158">
         <v>76.5</v>
       </c>
       <c r="H158">
-        <v>-6.5217990076941173E-17</v>
+        <v>-6.5265637619381804E-17</v>
       </c>
       <c r="J158">
         <v>76.5</v>
       </c>
       <c r="K158">
-        <v>1.4436848102408499</v>
+        <v>1.4436848076382489</v>
       </c>
       <c r="M158">
         <v>76.5</v>
       </c>
       <c r="N158">
-        <v>1.905203500233209E-16</v>
+        <v>1.9051476955560982E-16</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.25">
@@ -4632,25 +4632,25 @@
         <v>77</v>
       </c>
       <c r="E159">
-        <v>1.3375810453471238E-2</v>
+        <v>1.3375815733564883E-2</v>
       </c>
       <c r="G159">
         <v>77</v>
       </c>
       <c r="H159">
-        <v>-6.8287064869096416E-17</v>
+        <v>-6.8332203325510918E-17</v>
       </c>
       <c r="J159">
         <v>77</v>
       </c>
       <c r="K159">
-        <v>1.3962063751774711</v>
+        <v>1.3962063724649889</v>
       </c>
       <c r="M159">
         <v>77</v>
       </c>
       <c r="N159">
-        <v>1.3057711150196587E-16</v>
+        <v>1.3057130824178948E-16</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.25">
@@ -4658,25 +4658,25 @@
         <v>77.5</v>
       </c>
       <c r="E160">
-        <v>1.253266294979217E-2</v>
+        <v>1.2532668995721797E-2</v>
       </c>
       <c r="G160">
         <v>77.5</v>
       </c>
       <c r="H160">
-        <v>-7.1356139661252103E-17</v>
+        <v>-7.1398769031640179E-17</v>
       </c>
       <c r="J160">
         <v>77.5</v>
       </c>
       <c r="K160">
-        <v>1.3496058270520279</v>
+        <v>1.3496058241959705</v>
       </c>
       <c r="M160">
         <v>77.5</v>
       </c>
       <c r="N160">
-        <v>8.495616188809676E-17</v>
+        <v>8.4949777696857634E-17</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.25">
@@ -4684,25 +4684,25 @@
         <v>78</v>
       </c>
       <c r="E161">
-        <v>1.1747039773927383E-2</v>
+        <v>1.174704807668028E-2</v>
       </c>
       <c r="G161">
         <v>78</v>
       </c>
       <c r="H161">
-        <v>-7.4425214453408221E-17</v>
+        <v>-7.4465334737770193E-17</v>
       </c>
       <c r="J161">
         <v>78</v>
       </c>
       <c r="K161">
-        <v>1.3045239394914065</v>
+        <v>1.3045239365310566</v>
       </c>
       <c r="M161">
         <v>78</v>
       </c>
       <c r="N161">
-        <v>5.8365892289819105E-17</v>
+        <v>5.8359073313868469E-17</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.25">
@@ -4710,25 +4710,25 @@
         <v>78.5</v>
       </c>
       <c r="E162">
-        <v>1.1012337161392761E-2</v>
+        <v>1.10123416598569E-2</v>
       </c>
       <c r="G162">
         <v>78.5</v>
       </c>
       <c r="H162">
-        <v>-7.7494289245563919E-17</v>
+        <v>-7.7531900443899467E-17</v>
       </c>
       <c r="J162">
         <v>78.5</v>
       </c>
       <c r="K162">
-        <v>1.2610368271357564</v>
+        <v>1.2610368240838414</v>
       </c>
       <c r="M162">
         <v>78.5</v>
       </c>
       <c r="N162">
-        <v>5.1463729439943198E-17</v>
+        <v>5.1457872368409672E-17</v>
       </c>
     </row>
     <row r="163" spans="4:14" x14ac:dyDescent="0.25">
@@ -4736,25 +4736,25 @@
         <v>79</v>
       </c>
       <c r="E163">
-        <v>1.0318351802612832E-2</v>
+        <v>1.0318357044010225E-2</v>
       </c>
       <c r="G163">
         <v>79</v>
       </c>
       <c r="H163">
-        <v>-8.0563364037719298E-17</v>
+        <v>-8.0598466150029024E-17</v>
       </c>
       <c r="J163">
         <v>79</v>
       </c>
       <c r="K163">
-        <v>1.2191444899850687</v>
+        <v>1.21914448685433</v>
       </c>
       <c r="M163">
         <v>79</v>
       </c>
       <c r="N163">
-        <v>4.4561566590067291E-17</v>
+        <v>4.4556671422950868E-17</v>
       </c>
     </row>
     <row r="164" spans="4:14" x14ac:dyDescent="0.25">
@@ -4762,25 +4762,25 @@
         <v>79.5</v>
       </c>
       <c r="E164">
-        <v>9.6719749020017978E-3</v>
+        <v>9.6719821440756654E-3</v>
       </c>
       <c r="G164">
         <v>79.5</v>
       </c>
       <c r="H164">
-        <v>-7.9516818047133884E-17</v>
+        <v>-7.9547977106233966E-17</v>
       </c>
       <c r="J164">
         <v>79.5</v>
       </c>
       <c r="K164">
-        <v>1.178846928039363</v>
+        <v>1.1788469248425157</v>
       </c>
       <c r="M164">
         <v>79.5</v>
       </c>
       <c r="N164">
-        <v>3.7659403740191532E-17</v>
+        <v>3.7655470477491923E-17</v>
       </c>
     </row>
     <row r="165" spans="4:14" x14ac:dyDescent="0.25">
@@ -4788,25 +4788,25 @@
         <v>80</v>
       </c>
       <c r="E165">
-        <v>9.0664882434208453E-3</v>
+        <v>9.0664920792976767E-3</v>
       </c>
       <c r="G165">
         <v>80</v>
       </c>
       <c r="H165">
-        <v>-7.7362154616214506E-17</v>
+        <v>-7.7391674154230305E-17</v>
       </c>
       <c r="J165">
         <v>80</v>
       </c>
       <c r="K165">
-        <v>1.140019064795502</v>
+        <v>1.1400190615184629</v>
       </c>
       <c r="M165">
         <v>80</v>
       </c>
       <c r="N165">
-        <v>3.0757240890315774E-17</v>
+        <v>3.0754269532032971E-17</v>
       </c>
     </row>
     <row r="166" spans="4:14" x14ac:dyDescent="0.25">
@@ -4814,25 +4814,25 @@
         <v>80.5</v>
       </c>
       <c r="E166">
-        <v>8.4952939267451105E-3</v>
+        <v>8.4952984709508045E-3</v>
       </c>
       <c r="G166">
         <v>80.5</v>
       </c>
       <c r="H166">
-        <v>-7.5207491185294844E-17</v>
+        <v>-7.5235371202226496E-17</v>
       </c>
       <c r="J166">
         <v>80.5</v>
       </c>
       <c r="K166">
-        <v>1.1019117799952987</v>
+        <v>1.1019117766578326</v>
       </c>
       <c r="M166">
         <v>80.5</v>
       </c>
       <c r="N166">
-        <v>2.3855078040440018E-17</v>
+        <v>2.3853068586574174E-17</v>
       </c>
     </row>
     <row r="167" spans="4:14" x14ac:dyDescent="0.25">
@@ -4840,25 +4840,25 @@
         <v>81</v>
       </c>
       <c r="E167">
-        <v>7.9635014656465435E-3</v>
+        <v>7.9635077787894772E-3</v>
       </c>
       <c r="G167">
         <v>81</v>
       </c>
       <c r="H167">
-        <v>-7.3052827754375479E-17</v>
+        <v>-7.3079068250222983E-17</v>
       </c>
       <c r="J167">
         <v>81</v>
       </c>
       <c r="K167">
-        <v>1.0651166562943815</v>
+        <v>1.0651166529059486</v>
       </c>
       <c r="M167">
         <v>81</v>
       </c>
       <c r="N167">
-        <v>1.6952915190564259E-17</v>
+        <v>1.6951867641115225E-17</v>
       </c>
     </row>
     <row r="168" spans="4:14" x14ac:dyDescent="0.25">
@@ -4866,25 +4866,25 @@
         <v>81.5</v>
       </c>
       <c r="E168">
-        <v>7.4644700790116114E-3</v>
+        <v>7.4644733527271159E-3</v>
       </c>
       <c r="G168">
         <v>81.5</v>
       </c>
       <c r="H168">
-        <v>-7.0898164323456409E-17</v>
+        <v>-7.0922765298219938E-17</v>
       </c>
       <c r="J168">
         <v>81.5</v>
       </c>
       <c r="K168">
-        <v>1.0296336936927535</v>
+        <v>1.0296336902628016</v>
       </c>
       <c r="M168">
         <v>81.5</v>
       </c>
       <c r="N168">
-        <v>1.0050752340688369E-17</v>
+        <v>1.0050666695656337E-17</v>
       </c>
     </row>
     <row r="169" spans="4:14" x14ac:dyDescent="0.25">
@@ -4892,25 +4892,25 @@
         <v>82</v>
       </c>
       <c r="E169">
-        <v>6.9943550650525639E-3</v>
+        <v>6.9943590049613581E-3</v>
       </c>
       <c r="G169">
         <v>82</v>
       </c>
       <c r="H169">
-        <v>-6.8743500892538078E-17</v>
+        <v>-6.8766462346216277E-17</v>
       </c>
       <c r="J169">
         <v>82</v>
       </c>
       <c r="K169">
-        <v>0.99546289219039974</v>
+        <v>0.99546288872839228</v>
       </c>
       <c r="M169">
         <v>82</v>
       </c>
       <c r="N169">
-        <v>3.1485894908126725E-18</v>
+        <v>3.1494657501974789E-18</v>
       </c>
     </row>
     <row r="170" spans="4:14" x14ac:dyDescent="0.25">
@@ -4918,25 +4918,25 @@
         <v>82.5</v>
       </c>
       <c r="E170">
-        <v>6.5568499332115731E-3</v>
+        <v>6.5568554333778747E-3</v>
       </c>
       <c r="G170">
         <v>82.5</v>
       </c>
       <c r="H170">
-        <v>-6.6588837461618565E-17</v>
+        <v>-6.6610159394212912E-17</v>
       </c>
       <c r="J170">
         <v>82.5</v>
       </c>
       <c r="K170">
-        <v>0.96260425178733233</v>
+        <v>0.96260424830272739</v>
       </c>
       <c r="M170">
         <v>82.5</v>
       </c>
       <c r="N170">
-        <v>-2.9365618322615932E-18</v>
+        <v>-2.934844419508258E-18</v>
       </c>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.25">
@@ -4944,25 +4944,25 @@
         <v>83</v>
       </c>
       <c r="E171">
-        <v>6.1455280203134375E-3</v>
+        <v>6.1455308166424036E-3</v>
       </c>
       <c r="G171">
         <v>83</v>
       </c>
       <c r="H171">
-        <v>-6.4434174030698891E-17</v>
+        <v>-6.4453856442209399E-17</v>
       </c>
       <c r="J171">
         <v>83</v>
       </c>
       <c r="K171">
-        <v>0.93078842521132621</v>
+        <v>0.93078842168734499</v>
       </c>
       <c r="M171">
         <v>83</v>
       </c>
       <c r="N171">
-        <v>-4.2167779274728369E-18</v>
+        <v>-4.2149296343522228E-18</v>
       </c>
     </row>
     <row r="172" spans="4:14" x14ac:dyDescent="0.25">
@@ -4970,25 +4970,25 @@
         <v>83.5</v>
       </c>
       <c r="E172">
-        <v>5.7586171860025803E-3</v>
+        <v>5.7586206020325287E-3</v>
       </c>
       <c r="G172">
         <v>83.5</v>
       </c>
       <c r="H172">
-        <v>-6.2279510599779525E-17</v>
+        <v>-6.2297553490206034E-17</v>
       </c>
       <c r="J172">
         <v>83.5</v>
       </c>
       <c r="K172">
-        <v>0.89967910524228778</v>
+        <v>0.89967910169784282</v>
       </c>
       <c r="M172">
         <v>83.5</v>
       </c>
       <c r="N172">
-        <v>-5.4969940226840797E-18</v>
+        <v>-5.4950148491962025E-18</v>
       </c>
     </row>
     <row r="173" spans="4:14" x14ac:dyDescent="0.25">
@@ -4996,25 +4996,25 @@
         <v>84</v>
       </c>
       <c r="E173">
-        <v>5.3986950401933775E-3</v>
+        <v>5.3986998293466095E-3</v>
       </c>
       <c r="G173">
         <v>84</v>
       </c>
       <c r="H173">
-        <v>-6.0124847168860603E-17</v>
+        <v>-6.0141250538202385E-17</v>
       </c>
       <c r="J173">
         <v>84</v>
       </c>
       <c r="K173">
-        <v>0.86964942491698294</v>
+        <v>0.86964942135894496</v>
       </c>
       <c r="M173">
         <v>84</v>
       </c>
       <c r="N173">
-        <v>-6.7772101178953819E-18</v>
+        <v>-6.7751000640402123E-18</v>
       </c>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.25">
@@ -5022,25 +5022,25 @@
         <v>84.5</v>
       </c>
       <c r="E174">
-        <v>5.0596425454887458E-3</v>
+        <v>5.0596449360466389E-3</v>
       </c>
       <c r="G174">
         <v>84.5</v>
       </c>
       <c r="H174">
-        <v>-5.7970183737941238E-17</v>
+        <v>-5.798494758619902E-17</v>
       </c>
       <c r="J174">
         <v>84.5</v>
       </c>
       <c r="K174">
-        <v>0.84069938423542556</v>
+        <v>0.84069938067065275</v>
       </c>
       <c r="M174">
         <v>84.5</v>
       </c>
       <c r="N174">
-        <v>-8.0574262131066255E-18</v>
+        <v>-8.0551852788842067E-18</v>
       </c>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.25">
@@ -5048,25 +5048,25 @@
         <v>85</v>
       </c>
       <c r="E175">
-        <v>4.7412198345176135E-3</v>
+        <v>4.7412227963085623E-3</v>
       </c>
       <c r="G175">
         <v>85</v>
       </c>
       <c r="H175">
-        <v>-5.5815520307022168E-17</v>
+        <v>-5.5828644634195224E-17</v>
       </c>
       <c r="J175">
         <v>85</v>
       </c>
       <c r="K175">
-        <v>0.8128289831976182</v>
+        <v>0.81282897963296608</v>
       </c>
       <c r="M175">
         <v>85</v>
       </c>
       <c r="N175">
-        <v>-9.3376423083179292E-18</v>
+        <v>-9.3352704937281719E-18</v>
       </c>
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.25">
@@ -5074,25 +5074,25 @@
         <v>85.5</v>
       </c>
       <c r="E176">
-        <v>4.4451335828718875E-3</v>
+        <v>4.445137750597003E-3</v>
       </c>
       <c r="G176">
         <v>85.5</v>
       </c>
       <c r="H176">
-        <v>-5.3660856876102654E-17</v>
+        <v>-5.3672341682192E-17</v>
       </c>
       <c r="J176">
         <v>85.5</v>
       </c>
       <c r="K176">
-        <v>0.78603822180354765</v>
+        <v>0.78603821824589104</v>
       </c>
       <c r="M176">
         <v>85.5</v>
       </c>
       <c r="N176">
-        <v>-1.0617858403529202E-17</v>
+        <v>-1.0615355708572166E-17</v>
       </c>
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.25">
@@ -5100,25 +5100,25 @@
         <v>86</v>
       </c>
       <c r="E177">
-        <v>4.1656324581190287E-3</v>
+        <v>4.1656345034525189E-3</v>
       </c>
       <c r="G177">
         <v>86</v>
       </c>
       <c r="H177">
-        <v>-5.1506193445183584E-17</v>
+        <v>-5.1516038730188499E-17</v>
       </c>
       <c r="J177">
         <v>86</v>
       </c>
       <c r="K177">
-        <v>0.7599586624263015</v>
+        <v>0.75995865885750857</v>
       </c>
       <c r="M177">
         <v>86</v>
       </c>
       <c r="N177">
-        <v>-1.1898074498740444E-17</v>
+        <v>-1.189544092341613E-17</v>
       </c>
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.25">
@@ -5126,25 +5126,25 @@
         <v>86.5</v>
       </c>
       <c r="E178">
-        <v>3.9035829185570655E-3</v>
+        <v>3.9035854864345387E-3</v>
       </c>
       <c r="G178">
         <v>86.5</v>
       </c>
       <c r="H178">
-        <v>-4.935153001426481E-17</v>
+        <v>-4.9359735778185134E-17</v>
       </c>
       <c r="J178">
         <v>86.5</v>
       </c>
       <c r="K178">
-        <v>0.73456376909388288</v>
+        <v>0.73456376553185909</v>
       </c>
       <c r="M178">
         <v>86.5</v>
       </c>
       <c r="N178">
-        <v>-1.3178290593951717E-17</v>
+        <v>-1.3175526138260155E-17</v>
       </c>
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.25">
@@ -5152,25 +5152,25 @@
         <v>87</v>
       </c>
       <c r="E179">
-        <v>3.6600195464486394E-3</v>
+        <v>3.6600231713927699E-3</v>
       </c>
       <c r="G179">
         <v>87</v>
       </c>
       <c r="H179">
-        <v>-4.7196866583345445E-17</v>
+        <v>-4.7203432826181479E-17</v>
       </c>
       <c r="J179">
         <v>87</v>
       </c>
       <c r="K179">
-        <v>0.71005720249317839</v>
+        <v>0.71005719894278407</v>
       </c>
       <c r="M179">
         <v>87</v>
       </c>
       <c r="N179">
-        <v>-1.445850668916293E-17</v>
+        <v>-1.4455611353104105E-17</v>
       </c>
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.25">
@@ -5178,25 +5178,25 @@
         <v>87.5</v>
       </c>
       <c r="E180">
-        <v>3.4295932197168813E-3</v>
+        <v>3.4295949710594544E-3</v>
       </c>
       <c r="G180">
         <v>87.5</v>
       </c>
       <c r="H180">
-        <v>-4.5042203152425783E-17</v>
+        <v>-4.5047129874177819E-17</v>
       </c>
       <c r="J180">
         <v>87.5</v>
       </c>
       <c r="K180">
-        <v>0.68643896262419102</v>
+        <v>0.68643895909029684</v>
       </c>
       <c r="M180">
         <v>87.5</v>
       </c>
       <c r="N180">
-        <v>-1.5738722784374086E-17</v>
+        <v>-1.5735696567948042E-17</v>
       </c>
     </row>
     <row r="181" spans="4:14" x14ac:dyDescent="0.25">
@@ -5204,25 +5204,25 @@
         <v>88</v>
       </c>
       <c r="E181">
-        <v>3.2139435333284026E-3</v>
+        <v>3.2139457595639991E-3</v>
       </c>
       <c r="G181">
         <v>88</v>
       </c>
       <c r="H181">
-        <v>-4.2887539721506707E-17</v>
+        <v>-4.2890826922174305E-17</v>
       </c>
       <c r="J181">
         <v>88</v>
       </c>
       <c r="K181">
-        <v>0.66370904948692944</v>
+        <v>0.66370904597438563</v>
       </c>
       <c r="M181">
         <v>88</v>
       </c>
       <c r="N181">
-        <v>-1.7018938879585358E-17</v>
+        <v>-1.7015781782791992E-17</v>
       </c>
     </row>
     <row r="182" spans="4:14" x14ac:dyDescent="0.25">
@@ -5230,25 +5230,25 @@
         <v>88.5</v>
       </c>
       <c r="E182">
-        <v>3.0135934242949592E-3</v>
+        <v>3.0135965754448666E-3</v>
       </c>
       <c r="G182">
         <v>88.5</v>
       </c>
       <c r="H182">
-        <v>-4.0732876290587785E-17</v>
+        <v>-4.0734523970170805E-17</v>
       </c>
       <c r="J182">
         <v>88.5</v>
       </c>
       <c r="K182">
-        <v>0.6418674630813791</v>
+        <v>0.64186745959505487</v>
       </c>
       <c r="M182">
         <v>88.5</v>
       </c>
       <c r="N182">
-        <v>-1.8299154974796631E-17</v>
+        <v>-1.8295866997636089E-17</v>
       </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.25">
@@ -5256,25 +5256,25 @@
         <v>89</v>
       </c>
       <c r="E183">
-        <v>2.8236112062950216E-3</v>
+        <v>2.8236127070355075E-3</v>
       </c>
       <c r="G183">
         <v>89</v>
       </c>
       <c r="H183">
-        <v>-3.8578212859668272E-17</v>
+        <v>-3.857822101816744E-17</v>
       </c>
       <c r="J183">
         <v>89</v>
       </c>
       <c r="K183">
-        <v>0.62048211833042188</v>
+        <v>0.62048211485198557</v>
       </c>
       <c r="M183">
         <v>89</v>
       </c>
       <c r="N183">
-        <v>-1.9579371070007753E-17</v>
+        <v>-1.9575952212479891E-17</v>
       </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.25">
@@ -5282,25 +5282,25 @@
         <v>89.5</v>
       </c>
       <c r="E184">
-        <v>2.6461513333968633E-3</v>
+        <v>2.6461532632969988E-3</v>
       </c>
       <c r="G184">
         <v>89.5</v>
       </c>
       <c r="H184">
-        <v>-3.6757614670009286E-17</v>
+        <v>-3.6757175211604211E-17</v>
       </c>
       <c r="J184">
         <v>89.5</v>
       </c>
       <c r="K184">
-        <v>0.59975328111457538</v>
+        <v>0.59975327766075093</v>
       </c>
       <c r="M184">
         <v>89.5</v>
       </c>
       <c r="N184">
-        <v>-2.0859587165219177E-17</v>
+        <v>-2.0856037427323841E-17</v>
       </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.25">
@@ -5308,25 +5308,25 @@
         <v>90</v>
       </c>
       <c r="E185">
-        <v>2.4812131080600092E-3</v>
+        <v>2.4812143277720571E-3</v>
       </c>
       <c r="G185">
         <v>90</v>
       </c>
       <c r="H185">
-        <v>-3.5026962454382107E-17</v>
+        <v>-3.5026177275854459E-17</v>
       </c>
       <c r="J185">
         <v>90</v>
       </c>
       <c r="K185">
-        <v>0.57975536001721861</v>
+        <v>0.57975535659138677</v>
       </c>
       <c r="M185">
         <v>90</v>
       </c>
       <c r="N185">
-        <v>-2.2139803260430598E-17</v>
+        <v>-2.2136122642167942E-17</v>
       </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.25">
@@ -5334,25 +5334,25 @@
         <v>90.5</v>
       </c>
       <c r="E186">
-        <v>2.3247051375029706E-3</v>
+        <v>2.3247064244264304E-3</v>
       </c>
       <c r="G186">
         <v>90.5</v>
       </c>
       <c r="H186">
-        <v>-3.3296310238754637E-17</v>
+        <v>-3.3295179340104558E-17</v>
       </c>
       <c r="J186">
         <v>90.5</v>
       </c>
       <c r="K186">
-        <v>0.56048835503835603</v>
+        <v>0.56048835164390209</v>
       </c>
       <c r="M186">
         <v>90.5</v>
       </c>
       <c r="N186">
-        <v>-2.3420019355641723E-17</v>
+        <v>-2.3416207857011891E-17</v>
       </c>
     </row>
     <row r="187" spans="4:14" x14ac:dyDescent="0.25">
@@ -5360,25 +5360,25 @@
         <v>91</v>
       </c>
       <c r="E187">
-        <v>2.178676761746377E-3</v>
+        <v>2.1786784345920102E-3</v>
       </c>
       <c r="G187">
         <v>91</v>
       </c>
       <c r="H187">
-        <v>-3.1565658023127754E-17</v>
+        <v>-3.1564181404354818E-17</v>
       </c>
       <c r="J187">
         <v>91</v>
       </c>
       <c r="K187">
-        <v>0.5419522661779862</v>
+        <v>0.5419522628182879</v>
       </c>
       <c r="M187">
         <v>91</v>
       </c>
       <c r="N187">
-        <v>-2.4700235450852996E-17</v>
+        <v>-2.4696293071855992E-17</v>
       </c>
     </row>
     <row r="188" spans="4:14" x14ac:dyDescent="0.25">
@@ -5386,25 +5386,25 @@
         <v>91.5</v>
       </c>
       <c r="E188">
-        <v>2.0427876972490444E-3</v>
+        <v>2.0427887241394179E-3</v>
       </c>
       <c r="G188">
         <v>91.5</v>
       </c>
       <c r="H188">
-        <v>-2.9835005807500426E-17</v>
+        <v>-2.9833183468605213E-17</v>
       </c>
       <c r="J188">
         <v>91.5</v>
       </c>
       <c r="K188">
-        <v>0.52412497311482453</v>
+        <v>0.52412496978016132</v>
       </c>
       <c r="M188">
         <v>91.5</v>
       </c>
       <c r="N188">
-        <v>-2.5980451546064269E-17</v>
+        <v>-2.5976378286699939E-17</v>
       </c>
     </row>
     <row r="189" spans="4:14" x14ac:dyDescent="0.25">
@@ -5412,25 +5412,25 @@
         <v>92</v>
       </c>
       <c r="E189">
-        <v>1.9139545436784263E-3</v>
+        <v>1.9139556480022219E-3</v>
       </c>
       <c r="G189">
         <v>92</v>
       </c>
       <c r="H189">
-        <v>-2.8104353591873696E-17</v>
+        <v>-2.8102185532855467E-17</v>
       </c>
       <c r="J189">
         <v>92</v>
       </c>
       <c r="K189">
-        <v>0.50660453758189128</v>
+        <v>0.50660453428066365</v>
       </c>
       <c r="M189">
         <v>92</v>
       </c>
       <c r="N189">
-        <v>-2.5470242121234433E-17</v>
+        <v>-2.5466266125192678E-17</v>
       </c>
     </row>
     <row r="190" spans="4:14" x14ac:dyDescent="0.25">
@@ -5438,25 +5438,25 @@
         <v>92.5</v>
       </c>
       <c r="E190">
-        <v>1.7937945444406406E-3</v>
+        <v>1.7937959943005474E-3</v>
       </c>
       <c r="G190">
         <v>92.5</v>
       </c>
       <c r="H190">
-        <v>-2.6373701376246369E-17</v>
+        <v>-2.6371187597105711E-17</v>
       </c>
       <c r="J190">
         <v>92.5</v>
       </c>
       <c r="K190">
-        <v>0.48968550090444457</v>
+        <v>0.4896854976389487</v>
       </c>
       <c r="M190">
         <v>92.5</v>
       </c>
       <c r="N190">
-        <v>-2.4846951962086956E-17</v>
+        <v>-2.4843087645727929E-17</v>
       </c>
     </row>
     <row r="191" spans="4:14" x14ac:dyDescent="0.25">
@@ -5464,25 +5464,25 @@
         <v>93</v>
       </c>
       <c r="E191">
-        <v>1.6818311354063237E-3</v>
+        <v>1.6818320009396803E-3</v>
       </c>
       <c r="G191">
         <v>93</v>
       </c>
       <c r="H191">
-        <v>-2.4643049160619192E-17</v>
+        <v>-2.4640189661355964E-17</v>
       </c>
       <c r="J191">
         <v>93</v>
       </c>
       <c r="K191">
-        <v>0.47336786308248896</v>
+        <v>0.4733678598550134</v>
       </c>
       <c r="M191">
         <v>93</v>
       </c>
       <c r="N191">
-        <v>-2.4223661802939327E-17</v>
+        <v>-2.4219909166263029E-17</v>
       </c>
     </row>
     <row r="192" spans="4:14" x14ac:dyDescent="0.25">
@@ -5490,25 +5490,25 @@
         <v>93.5</v>
       </c>
       <c r="E192">
-        <v>1.5757822470280284E-3</v>
+        <v>1.5757831952707929E-3</v>
       </c>
       <c r="G192">
         <v>93.5</v>
       </c>
       <c r="H192">
-        <v>-2.2912396944992311E-17</v>
+        <v>-2.2909191725606218E-17</v>
       </c>
       <c r="J192">
         <v>93.5</v>
       </c>
       <c r="K192">
-        <v>0.45765162411602583</v>
+        <v>0.45765162092886075</v>
       </c>
       <c r="M192">
         <v>93.5</v>
       </c>
       <c r="N192">
-        <v>-2.3600371643791551E-17</v>
+        <v>-2.3596730686798273E-17</v>
       </c>
     </row>
     <row r="193" spans="4:14" x14ac:dyDescent="0.25">
@@ -5516,25 +5516,25 @@
         <v>94</v>
       </c>
       <c r="E193">
-        <v>1.4769114610113107E-3</v>
+        <v>1.4769127174347238E-3</v>
       </c>
       <c r="G193">
         <v>94</v>
       </c>
       <c r="H193">
-        <v>-2.1181744729365135E-17</v>
+        <v>-2.1178193789856465E-17</v>
       </c>
       <c r="J193">
         <v>94</v>
       </c>
       <c r="K193">
-        <v>0.44253678400505225</v>
+        <v>0.4425367808604862</v>
       </c>
       <c r="M193">
         <v>94</v>
       </c>
       <c r="N193">
-        <v>-2.2977081484643919E-17</v>
+        <v>-2.2973552207333373E-17</v>
       </c>
     </row>
     <row r="194" spans="4:14" x14ac:dyDescent="0.25">
@@ -5542,25 +5542,25 @@
         <v>94.5</v>
       </c>
       <c r="E194">
-        <v>1.3846550487733055E-3</v>
+        <v>1.38465577913957E-3</v>
       </c>
       <c r="G194">
         <v>94.5</v>
       </c>
       <c r="H194">
-        <v>-1.9451092513737807E-17</v>
+        <v>-1.9447195854106867E-17</v>
       </c>
       <c r="J194">
         <v>94.5</v>
       </c>
       <c r="K194">
-        <v>0.42793106214539117</v>
+        <v>0.42793105903320433</v>
       </c>
       <c r="M194">
         <v>94.5</v>
       </c>
       <c r="N194">
-        <v>-2.2353791325496439E-17</v>
+        <v>-2.2350373727868621E-17</v>
       </c>
     </row>
     <row r="195" spans="4:14" x14ac:dyDescent="0.25">
@@ -5568,25 +5568,25 @@
         <v>95</v>
       </c>
       <c r="E195">
-        <v>1.2973635860545078E-3</v>
+        <v>1.2973644007623698E-3</v>
       </c>
       <c r="G195">
         <v>95</v>
       </c>
       <c r="H195">
-        <v>-1.7720440298110775E-17</v>
+        <v>-1.7716197918356966E-17</v>
       </c>
       <c r="J195">
         <v>95</v>
       </c>
       <c r="K195">
-        <v>0.41362768294363844</v>
+        <v>0.41362767987194538</v>
       </c>
       <c r="M195">
         <v>95</v>
       </c>
       <c r="N195">
-        <v>-2.1730501166348662E-17</v>
+        <v>-2.1727195248403872E-17</v>
       </c>
     </row>
     <row r="196" spans="4:14" x14ac:dyDescent="0.25">
@@ -5594,25 +5594,25 @@
         <v>95.5</v>
       </c>
       <c r="E196">
-        <v>1.2160128862184262E-3</v>
+        <v>1.2160139748389558E-3</v>
       </c>
       <c r="G196">
         <v>95.5</v>
       </c>
       <c r="H196">
-        <v>-1.5989788082483599E-17</v>
+        <v>-1.5985199982607371E-17</v>
       </c>
       <c r="J196">
         <v>95.5</v>
       </c>
       <c r="K196">
-        <v>0.39981913568078414</v>
+        <v>0.39981913265105085</v>
       </c>
       <c r="M196">
         <v>95.5</v>
       </c>
       <c r="N196">
-        <v>-2.1107211007201034E-17</v>
+        <v>-2.1104016768938968E-17</v>
       </c>
     </row>
     <row r="197" spans="4:14" x14ac:dyDescent="0.25">
@@ -5620,25 +5620,25 @@
         <v>96</v>
       </c>
       <c r="E197">
-        <v>1.1399896640048889E-3</v>
+        <v>1.1399902810216769E-3</v>
       </c>
       <c r="G197">
         <v>96</v>
       </c>
       <c r="H197">
-        <v>-1.4259135866856601E-17</v>
+        <v>-1.425420204685768E-17</v>
       </c>
       <c r="J197">
         <v>96</v>
       </c>
       <c r="K197">
-        <v>0.38650542035682961</v>
+        <v>0.38650541737052241</v>
       </c>
       <c r="M197">
         <v>96</v>
       </c>
       <c r="N197">
-        <v>-2.0483920848053402E-17</v>
+        <v>-2.0480838289474216E-17</v>
       </c>
     </row>
     <row r="198" spans="4:14" x14ac:dyDescent="0.25">
@@ -5646,25 +5646,25 @@
         <v>96.5</v>
       </c>
       <c r="E198">
-        <v>1.0681400484486366E-3</v>
+        <v>1.0681407488130523E-3</v>
       </c>
       <c r="G198">
         <v>96.5</v>
       </c>
       <c r="H198">
-        <v>-1.2528483651229452E-17</v>
+        <v>-1.252320411110799E-17</v>
       </c>
       <c r="J198">
         <v>96.5</v>
       </c>
       <c r="K198">
-        <v>0.37368653697176901</v>
+        <v>0.37368653403035995</v>
       </c>
       <c r="M198">
         <v>96.5</v>
       </c>
       <c r="N198">
-        <v>-1.9860630688905925E-17</v>
+        <v>-1.9857659810009464E-17</v>
       </c>
     </row>
     <row r="199" spans="4:14" x14ac:dyDescent="0.25">
@@ -5672,25 +5672,25 @@
         <v>97</v>
       </c>
       <c r="E199">
-        <v>1.0012071450348726E-3</v>
+        <v>1.0012080880949269E-3</v>
       </c>
       <c r="G199">
         <v>97</v>
       </c>
       <c r="H199">
-        <v>-1.0797831435602334E-17</v>
+        <v>-1.0792206175358196E-17</v>
       </c>
       <c r="J199">
         <v>97</v>
       </c>
       <c r="K199">
-        <v>0.36136248552561123</v>
+        <v>0.36136248263056209</v>
       </c>
       <c r="M199">
         <v>97</v>
       </c>
       <c r="N199">
-        <v>-1.9237340529758146E-17</v>
+        <v>-1.9234481330544563E-17</v>
       </c>
     </row>
     <row r="200" spans="4:14" x14ac:dyDescent="0.25">
@@ -5698,25 +5698,25 @@
         <v>97.5</v>
       </c>
       <c r="E200">
-        <v>9.3855648240880561E-4</v>
+        <v>9.3855700426634749E-4</v>
       </c>
       <c r="G200">
         <v>97.5</v>
       </c>
       <c r="H200">
-        <v>-9.0671792199752594E-18</v>
+        <v>-9.0612082396084772E-18</v>
       </c>
       <c r="J200">
         <v>97.5</v>
       </c>
       <c r="K200">
-        <v>0.34939185495647562</v>
+        <v>0.3493918520975694</v>
       </c>
       <c r="M200">
         <v>97.5</v>
       </c>
       <c r="N200">
-        <v>-1.8614050370610369E-17</v>
+        <v>-1.8611302851079811E-17</v>
       </c>
     </row>
     <row r="201" spans="4:14" x14ac:dyDescent="0.25">
@@ -5724,25 +5724,25 @@
         <v>98</v>
       </c>
       <c r="E201">
-        <v>8.794188393014907E-4</v>
+        <v>8.7941944167554238E-4</v>
       </c>
       <c r="G201">
         <v>98</v>
       </c>
       <c r="H201">
-        <v>-7.3365270043480967E-18</v>
+        <v>-7.3302103038587431E-18</v>
       </c>
       <c r="J201">
         <v>98</v>
       </c>
       <c r="K201">
-        <v>0.33771554635782142</v>
+        <v>0.33771554354273459</v>
       </c>
       <c r="M201">
         <v>98</v>
       </c>
       <c r="N201">
-        <v>-1.7990760211462889E-17</v>
+        <v>-1.7988124371615062E-17</v>
       </c>
     </row>
     <row r="202" spans="4:14" x14ac:dyDescent="0.25">
@@ -5750,25 +5750,25 @@
         <v>98.5</v>
       </c>
       <c r="E202">
-        <v>8.2435038030788019E-4</v>
+        <v>8.2435119711005925E-4</v>
       </c>
       <c r="G202">
         <v>98.5</v>
       </c>
       <c r="H202">
-        <v>-5.6058747887210087E-18</v>
+        <v>-5.5992123681090236E-18</v>
       </c>
       <c r="J202">
         <v>98.5</v>
       </c>
       <c r="K202">
-        <v>0.32644638629577999</v>
+        <v>0.32644638352537086</v>
       </c>
       <c r="M202">
         <v>98.5</v>
       </c>
       <c r="N202">
-        <v>-1.7367470052315109E-17</v>
+        <v>-1.7364945892150155E-17</v>
       </c>
     </row>
     <row r="203" spans="4:14" x14ac:dyDescent="0.25">
@@ -5776,25 +5776,25 @@
         <v>99</v>
       </c>
       <c r="E203">
-        <v>7.72716452231266E-4</v>
+        <v>7.7271689410936273E-4</v>
       </c>
       <c r="G203">
         <v>99</v>
       </c>
       <c r="H203">
-        <v>-3.8752225730938907E-18</v>
+        <v>-3.8682144323592902E-18</v>
       </c>
       <c r="J203">
         <v>99</v>
       </c>
       <c r="K203">
-        <v>0.31558437477035145</v>
+        <v>0.31558437204548417</v>
       </c>
       <c r="M203">
         <v>99</v>
       </c>
       <c r="N203">
-        <v>-1.6744179893167632E-17</v>
+        <v>-1.6741767412685406E-17</v>
       </c>
     </row>
     <row r="204" spans="4:14" x14ac:dyDescent="0.25">
@@ -5802,25 +5802,25 @@
         <v>99.5</v>
       </c>
       <c r="E204">
-        <v>7.2404320554520635E-4</v>
+        <v>7.2404372387869273E-4</v>
       </c>
       <c r="G204">
         <v>99.5</v>
       </c>
       <c r="H204">
-        <v>-3.1410856890633684E-18</v>
+        <v>-3.1346348800255713E-18</v>
       </c>
       <c r="J204">
         <v>99.5</v>
       </c>
       <c r="K204">
-        <v>0.30512951178154013</v>
+        <v>0.30512950910307146</v>
       </c>
       <c r="M204">
         <v>99.5</v>
       </c>
       <c r="N204">
-        <v>-1.612088973402E-17</v>
+        <v>-1.6118588933220506E-17</v>
       </c>
     </row>
     <row r="205" spans="4:14" x14ac:dyDescent="0.25">
@@ -5828,38 +5828,38 @@
         <v>100</v>
       </c>
       <c r="E205">
-        <v>6.7873770924189222E-4</v>
+        <v>6.7873841654063967E-4</v>
       </c>
       <c r="G205">
         <v>100</v>
       </c>
       <c r="H205">
-        <v>-2.6752573001042593E-18</v>
+        <v>-2.6689553648978667E-18</v>
       </c>
       <c r="J205">
         <v>100</v>
       </c>
       <c r="K205">
-        <v>0.2950817973293432</v>
+        <v>0.29508179469813434</v>
       </c>
       <c r="M205">
         <v>100</v>
       </c>
       <c r="N205">
-        <v>-1.5497599574872372E-17</v>
+        <v>-1.5495410453755754E-17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5869,7 +5869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B18D3E4-1433-499C-80BE-8FE998DF2020}">
   <dimension ref="A3:S165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>

--- a/Human/Position_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous.xlsx
+++ b/Human/Position_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Human/Position_Related_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Human/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C38D31-01BF-41E9-B595-4598999633B7}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0709E7-6891-48FE-AEEE-56BB14F11FCF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vitreous concentrations" sheetId="1" r:id="rId1"/>
+    <sheet name="Half-lives" sheetId="2" r:id="rId2"/>
+    <sheet name="Duration of action" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
   <si>
     <t>conc (ug/ml)</t>
   </si>
@@ -91,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59317904-1CB2-4F02-821F-D90C999A7FF6}">
   <dimension ref="A2:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,15 +5859,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10274,4 +10282,5430 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2B637-9AB5-4368-8616-F84119520E42}">
+  <dimension ref="A2:N205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23:N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.66298342499999996</v>
+      </c>
+      <c r="B5">
+        <v>94.144099010000005</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>259.92767419960381</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>259.92767420134862</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>259.92767421293337</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>259.92767421408809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.988950276</v>
+      </c>
+      <c r="B6">
+        <v>163.6036933</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>258.68031728019986</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>252.53197080745028</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>258.48338104085599</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>253.15952949733546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.817679558</v>
+      </c>
+      <c r="B7">
+        <v>83.972663960000006</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>250.33617778639092</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>213.436737924819</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>250.14607546174423</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>216.82491720424036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.1436464089999996</v>
+      </c>
+      <c r="B8">
+        <v>49.25085713</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>237.5623480736441</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>167.33470344111791</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>239.22495402016926</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>173.21849448534076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.60773481</v>
+      </c>
+      <c r="B9">
+        <v>23.42368248</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>223.49938012393304</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>127.60727090942565</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>228.53132032315304</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>134.7474219778245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16.90607735</v>
+      </c>
+      <c r="B10">
+        <v>0.327991107</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>209.47887876775616</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>96.190823628044441</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>218.69588666318504</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>103.64880075856983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>43.093922650000003</v>
+      </c>
+      <c r="B11">
+        <v>1.4500377499999999</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>196.06805283022157</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>72.174982763363758</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>209.73413360242142</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>79.348188652330307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>54.033149170000002</v>
+      </c>
+      <c r="B12">
+        <v>0.389354168</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>183.45104426632935</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>54.004942070675284</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>201.52109413698028</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>60.493100269908489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>73.922651930000001</v>
+      </c>
+      <c r="B13">
+        <v>2.2763623E-2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>171.66102439301832</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>40.321513346824808</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>193.93113220621302</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>46.076838709110831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>95.138121549999994</v>
+      </c>
+      <c r="B14">
+        <v>5.5568359999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>160.67783619914542</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14">
+        <v>30.071233200076904</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>186.85768696816902</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>35.052193860621848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>101.43646409999999</v>
+      </c>
+      <c r="B15">
+        <v>2.6936730000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>150.45229877488148</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>22.435272724833236</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>180.20369903460551</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>26.673804589842977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>140.91874890933059</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>16.732332111020902</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>173.89596562209007</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>20.296910824203859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>132.01873817851092</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>12.48266513117937</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>167.8963903761381</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>15.447580372008005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+      <c r="E18">
+        <v>123.70057327599939</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>9.31379260458489</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>162.1801187126454</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>11.760069111363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>115.93899782006078</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>6.9475095574088277</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>156.70819056892577</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>8.9482220815338884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="D20">
+        <v>7.5</v>
+      </c>
+      <c r="E20">
+        <v>108.68668255797797</v>
+      </c>
+      <c r="G20">
+        <v>7.5</v>
+      </c>
+      <c r="H20">
+        <v>5.1857632049734992</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>151.4543367518562</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>6.8123263734862283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>101.89005755747438</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>3.8676564849340371</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>146.40753844588912</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>5.1838706409182169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>8.5</v>
+      </c>
+      <c r="E22">
+        <v>95.535568434596314</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2.8867238044960262</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>141.54926988391202</v>
+      </c>
+      <c r="M22">
+        <v>8.5</v>
+      </c>
+      <c r="N22">
+        <v>3.945928294451035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>175.82</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>89.587494863630738</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>2.1534291823143925</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>136.863066115246</v>
+      </c>
+      <c r="M23" s="5">
+        <v>9</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3.0034679105392827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>84.007477668354312</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>1.60704279947984</v>
+      </c>
+      <c r="J24">
+        <v>9.5</v>
+      </c>
+      <c r="K24">
+        <v>132.34031534064559</v>
+      </c>
+      <c r="M24">
+        <v>9.5</v>
+      </c>
+      <c r="N24">
+        <v>2.2857166280659214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>78.782111073208327</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>1.1991442056745711</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>127.96729876392514</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1.7402382601005491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26">
+        <v>73.887047213098754</v>
+      </c>
+      <c r="G26">
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <v>0.89471145019600873</v>
+      </c>
+      <c r="J26">
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <v>123.74871523503633</v>
+      </c>
+      <c r="M26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <v>1.3241266437623718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>69.29350122832787</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>0.66787499460313793</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>119.66880344320654</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1.008029567858389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>11.5</v>
+      </c>
+      <c r="E28">
+        <v>64.972903609479388</v>
+      </c>
+      <c r="G28">
+        <v>11.5</v>
+      </c>
+      <c r="H28">
+        <v>0.49823525326157075</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>115.72566433548539</v>
+      </c>
+      <c r="M28">
+        <v>11.5</v>
+      </c>
+      <c r="N28">
+        <v>0.76717744774803565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>60.905762959261303</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>0.37198939331759195</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>111.92428870967383</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>0.58396285979524032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>57.100313803076617</v>
+      </c>
+      <c r="G30">
+        <v>12.5</v>
+      </c>
+      <c r="H30">
+        <v>0.27760869857535847</v>
+      </c>
+      <c r="J30">
+        <v>12.5</v>
+      </c>
+      <c r="K30">
+        <v>108.24207201793965</v>
+      </c>
+      <c r="M30">
+        <v>12.5</v>
+      </c>
+      <c r="N30">
+        <v>0.4446130874740078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>53.516313581976377</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>0.20732370461383426</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>104.68257564549714</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>0.33837710546443384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>50.158524302533031</v>
+      </c>
+      <c r="G32">
+        <v>13.5</v>
+      </c>
+      <c r="H32">
+        <v>0.15477956985872499</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>101.24970687812174</v>
+      </c>
+      <c r="M32">
+        <v>13.5</v>
+      </c>
+      <c r="N32">
+        <v>0.25766230603625317</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>47.034866307001643</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>0.11556700200773215</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>97.920588655195601</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>0.19610553798359356</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>14.5</v>
+      </c>
+      <c r="E34">
+        <v>44.079411424715644</v>
+      </c>
+      <c r="G34">
+        <v>14.5</v>
+      </c>
+      <c r="H34">
+        <v>8.6308200682734357E-2</v>
+      </c>
+      <c r="J34">
+        <v>14.5</v>
+      </c>
+      <c r="K34">
+        <v>94.703642142442092</v>
+      </c>
+      <c r="M34">
+        <v>14.5</v>
+      </c>
+      <c r="N34">
+        <v>0.14930751495291858</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>41.310604547271758</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>6.4422019193055569E-2</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>91.599718019624163</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>0.1136662101939134</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>15.5</v>
+      </c>
+      <c r="E36">
+        <v>38.735823888889001</v>
+      </c>
+      <c r="G36">
+        <v>15.5</v>
+      </c>
+      <c r="H36">
+        <v>4.8106667307662547E-2</v>
+      </c>
+      <c r="J36">
+        <v>15.5</v>
+      </c>
+      <c r="K36">
+        <v>88.588123528326804</v>
+      </c>
+      <c r="M36">
+        <v>15.5</v>
+      </c>
+      <c r="N36">
+        <v>8.6522690608872341E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>36.29591819994755</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>3.5899603871500547E-2</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>85.679088412826886</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>6.588797760252231E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>34.015396843360612</v>
+      </c>
+      <c r="G38">
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>2.6812940108410548E-2</v>
+      </c>
+      <c r="J38">
+        <v>16.5</v>
+      </c>
+      <c r="K38">
+        <v>82.870430542869059</v>
+      </c>
+      <c r="M38">
+        <v>16.5</v>
+      </c>
+      <c r="N38">
+        <v>5.0142460713427491E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>31.895490890403916</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>2.0015052525098012E-2</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>80.146368469937784</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>3.8180015541006786E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="E40">
+        <v>29.883895563370167</v>
+      </c>
+      <c r="G40">
+        <v>17.5</v>
+      </c>
+      <c r="H40">
+        <v>1.494591613786754E-2</v>
+      </c>
+      <c r="J40">
+        <v>17.5</v>
+      </c>
+      <c r="K40">
+        <v>77.515238226811775</v>
+      </c>
+      <c r="M40">
+        <v>17.5</v>
+      </c>
+      <c r="N40">
+        <v>2.906169037701618E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>28.006604908144073</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>1.1160222554742435E-2</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>74.973482401442936</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>2.2124588393405909E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>26.259824678683923</v>
+      </c>
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
+        <v>8.3313397562606931E-3</v>
+      </c>
+      <c r="J42">
+        <v>18.5</v>
+      </c>
+      <c r="K42">
+        <v>72.509262699610701</v>
+      </c>
+      <c r="M42">
+        <v>18.5</v>
+      </c>
+      <c r="N42">
+        <v>1.6845710098388585E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>24.603558229313016</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>6.223593963970318E-3</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>70.129383776421875</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1.2821376191045819E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>19.5</v>
+      </c>
+      <c r="E44">
+        <v>23.058594884054372</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>4.6443689550100097E-3</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+      <c r="K44">
+        <v>67.826103757519888</v>
+      </c>
+      <c r="M44">
+        <v>19.5</v>
+      </c>
+      <c r="N44">
+        <v>9.7632364388158255E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>21.619307094693795</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>3.4679210258642219E-3</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>65.585676681242745</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>7.430645742122685E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>20.5</v>
+      </c>
+      <c r="E46">
+        <v>20.255836521849066</v>
+      </c>
+      <c r="G46">
+        <v>20.5</v>
+      </c>
+      <c r="H46">
+        <v>2.5882756572155898E-3</v>
+      </c>
+      <c r="J46">
+        <v>20.5</v>
+      </c>
+      <c r="K46">
+        <v>63.416990208422753</v>
+      </c>
+      <c r="M46">
+        <v>20.5</v>
+      </c>
+      <c r="N46">
+        <v>5.6575259642029562E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>18.984538378917819</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>1.9329198242695597E-3</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>61.32004433906004</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>4.3068927522450342E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>17.798592407045259</v>
+      </c>
+      <c r="G48">
+        <v>21.5</v>
+      </c>
+      <c r="H48">
+        <v>1.4431192255744329E-3</v>
+      </c>
+      <c r="J48">
+        <v>21.5</v>
+      </c>
+      <c r="K48">
+        <v>59.294839073154314</v>
+      </c>
+      <c r="M48">
+        <v>21.5</v>
+      </c>
+      <c r="N48">
+        <v>3.2784864684440736E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>16.676263826468659</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>1.0774535785008912E-3</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>57.341374410705427</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>2.4966203969594681E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>15.630239980474679</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>8.0472567850468728E-4</v>
+      </c>
+      <c r="J50">
+        <v>22.5</v>
+      </c>
+      <c r="K50">
+        <v>55.443450657048608</v>
+      </c>
+      <c r="M50">
+        <v>22.5</v>
+      </c>
+      <c r="N50">
+        <v>1.899966460573374E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>14.653002354669896</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>6.0062233965953908E-4</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>53.599893990338821</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>1.4467121542668022E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23.5</v>
+      </c>
+      <c r="E52">
+        <v>13.729224809528482</v>
+      </c>
+      <c r="G52">
+        <v>23.5</v>
+      </c>
+      <c r="H52">
+        <v>4.4850207876090951E-4</v>
+      </c>
+      <c r="J52">
+        <v>23.5</v>
+      </c>
+      <c r="K52">
+        <v>51.8196641054518</v>
+      </c>
+      <c r="M52">
+        <v>23.5</v>
+      </c>
+      <c r="N52">
+        <v>1.1011760130267938E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>12.868606048869196</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>3.3470712245925037E-4</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>50.102761002387531</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>8.3833936832538388E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>24.5</v>
+      </c>
+      <c r="E54">
+        <v>12.063303456887365</v>
+      </c>
+      <c r="G54">
+        <v>24.5</v>
+      </c>
+      <c r="H54">
+        <v>2.4997988412495895E-4</v>
+      </c>
+      <c r="J54">
+        <v>24.5</v>
+      </c>
+      <c r="K54">
+        <v>48.449184681145866</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+      <c r="N54">
+        <v>6.3829198867817289E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>11.302986485574264</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>1.8661187040498189E-4</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>46.858935141727265</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>4.8582158700687648E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>25.5</v>
+      </c>
+      <c r="E56">
+        <v>10.594943053593214</v>
+      </c>
+      <c r="G56">
+        <v>25.5</v>
+      </c>
+      <c r="H56">
+        <v>1.3934293611477427E-4</v>
+      </c>
+      <c r="J56">
+        <v>25.5</v>
+      </c>
+      <c r="K56">
+        <v>45.30205293951169</v>
+      </c>
+      <c r="M56">
+        <v>25.5</v>
+      </c>
+      <c r="N56">
+        <v>3.6994752726608835E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>9.9312841711630409</v>
+      </c>
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>1.0405527381749704E-4</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <v>43.792416954687233</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>2.8155614313884699E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>26.5</v>
+      </c>
+      <c r="E58">
+        <v>9.3055278779728621</v>
+      </c>
+      <c r="G58">
+        <v>26.5</v>
+      </c>
+      <c r="H58">
+        <v>7.7674818969206309E-5</v>
+      </c>
+      <c r="J58">
+        <v>26.5</v>
+      </c>
+      <c r="K58">
+        <v>42.335191392066513</v>
+      </c>
+      <c r="M58">
+        <v>26.5</v>
+      </c>
+      <c r="N58">
+        <v>2.1437398984600775E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>8.7230341355152188</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>5.8024420183310291E-5</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>40.93037625164952</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>1.6319147836838964E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>27.5</v>
+      </c>
+      <c r="E60">
+        <v>8.1760690213604423</v>
+      </c>
+      <c r="G60">
+        <v>27.5</v>
+      </c>
+      <c r="H60">
+        <v>4.3307051905480365E-5</v>
+      </c>
+      <c r="J60">
+        <v>27.5</v>
+      </c>
+      <c r="K60">
+        <v>39.577971533436092</v>
+      </c>
+      <c r="M60">
+        <v>27.5</v>
+      </c>
+      <c r="N60">
+        <v>1.2422730600075601E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>7.66107681388198</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>3.2347752929222795E-5</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>38.276473160811861</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>9.459937314928413E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>28.5</v>
+      </c>
+      <c r="E62">
+        <v>7.1818887396623365</v>
+      </c>
+      <c r="G62">
+        <v>28.5</v>
+      </c>
+      <c r="H62">
+        <v>2.4145437149083313E-5</v>
+      </c>
+      <c r="J62">
+        <v>28.5</v>
+      </c>
+      <c r="K62">
+        <v>36.998481721354416</v>
+      </c>
+      <c r="M62">
+        <v>28.5</v>
+      </c>
+      <c r="N62">
+        <v>7.1992387262391139E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>6.7310674294966075</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>1.8031246173963407E-5</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63">
+        <v>35.764073619764638</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>5.4818635338116938E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>29.5</v>
+      </c>
+      <c r="E64">
+        <v>6.3072471836728079</v>
+      </c>
+      <c r="G64">
+        <v>29.5</v>
+      </c>
+      <c r="H64">
+        <v>1.3462995790798993E-5</v>
+      </c>
+      <c r="J64">
+        <v>29.5</v>
+      </c>
+      <c r="K64">
+        <v>34.57324885604298</v>
+      </c>
+      <c r="M64">
+        <v>29.5</v>
+      </c>
+      <c r="N64">
+        <v>4.1724686966568878E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>5.9130581671579412</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>1.0051131575284672E-5</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>33.426007430189458</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>3.1766157894853415E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>30.5</v>
+      </c>
+      <c r="E66">
+        <v>5.5414544115520776</v>
+      </c>
+      <c r="G66">
+        <v>30.5</v>
+      </c>
+      <c r="H66">
+        <v>7.5075374157690623E-6</v>
+      </c>
+      <c r="J66">
+        <v>30.5</v>
+      </c>
+      <c r="K66">
+        <v>32.322349342203907</v>
+      </c>
+      <c r="M66">
+        <v>30.5</v>
+      </c>
+      <c r="N66">
+        <v>2.418522208059281E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>5.192676823617437</v>
+      </c>
+      <c r="G67">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>5.6030159534723481E-6</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>31.25573293317094</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>1.8408536323031691E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+      <c r="E68">
+        <v>4.868421702547721</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68">
+        <v>4.1838525758469045E-6</v>
+      </c>
+      <c r="J68">
+        <v>31.5</v>
+      </c>
+      <c r="K68">
+        <v>30.211487442001676</v>
+      </c>
+      <c r="M68">
+        <v>31.5</v>
+      </c>
+      <c r="N68">
+        <v>1.4018013231112227E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>4.5620934187164695</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>3.1224418855543057E-6</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>29.203267156611552</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>1.0668512458662416E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>32.5</v>
+      </c>
+      <c r="E70">
+        <v>4.2750806560626131</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+      <c r="H70">
+        <v>2.3319500631270089E-6</v>
+      </c>
+      <c r="J70">
+        <v>32.5</v>
+      </c>
+      <c r="K70">
+        <v>28.231072077000423</v>
+      </c>
+      <c r="M70">
+        <v>32.5</v>
+      </c>
+      <c r="N70">
+        <v>8.1230241254066945E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>4.008362374971397</v>
+      </c>
+      <c r="G71">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>1.7409147160050605E-6</v>
+      </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>27.294902203168139</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>6.1834583636132426E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>33.5</v>
+      </c>
+      <c r="E72">
+        <v>3.7558249271423865</v>
+      </c>
+      <c r="G72">
+        <v>33.5</v>
+      </c>
+      <c r="H72">
+        <v>1.2998786793026634E-6</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>26.394757535114699</v>
+      </c>
+      <c r="M72">
+        <v>33.5</v>
+      </c>
+      <c r="N72">
+        <v>4.7071817334914029E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>3.5196469584699419</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>9.7076210763699499E-7</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>25.520440737555493</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>3.5843954377479201E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34.5</v>
+      </c>
+      <c r="E74">
+        <v>3.3002644462755102</v>
+      </c>
+      <c r="G74">
+        <v>34.5</v>
+      </c>
+      <c r="H74">
+        <v>7.2461097441548969E-7</v>
+      </c>
+      <c r="J74">
+        <v>34.5</v>
+      </c>
+      <c r="K74">
+        <v>24.667683953525763</v>
+      </c>
+      <c r="M74">
+        <v>34.5</v>
+      </c>
+      <c r="N74">
+        <v>2.7278944394928E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>3.0920569180981174</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>5.4110797955511673E-7</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <v>23.844627613346706</v>
+      </c>
+      <c r="M75">
+        <v>35</v>
+      </c>
+      <c r="N75">
+        <v>2.0771811571779971E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>2.8977166490680721</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>4.0381122683641461E-7</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>23.051271717018174</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76">
+        <v>1.5809928485430666E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77" s="5">
+        <v>36</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2.7170157569000488</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>3.0161905169877933E-7</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>22.28761626454002</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77">
+        <v>1.2036762415449366E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>2.5456042623018877</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78">
+        <v>2.2515712931788114E-7</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>21.553661255912697</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78">
+        <v>9.1639218584813944E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>2.3856960442768744</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <v>1.681472053129709E-7</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>20.83676971551705</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79">
+        <v>6.9752855542448201E-7</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>2.2368253809281922</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80">
+        <v>1.2555256576861646E-7</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>20.14058376665891</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80">
+        <v>5.311691150485121E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>2.0957353195081949</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>9.3748385532564786E-8</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>19.468856265569357</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>4.042435826384137E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>1.9641661080763295</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82">
+        <v>7.0031963321092429E-8</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>18.821587212248239</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82">
+        <v>3.0779637959720183E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>1.8415145149597036</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>5.2282273205796781E-8</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>18.198776606695407</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>2.3429657530479458E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>1.7253888135018667</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84">
+        <v>3.9069112012704111E-8</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>17.600424448911014</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84">
+        <v>1.7836312963050217E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>1.6171432521360993</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>2.917764598288444E-8</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>17.012422169883482</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>1.358139093430901E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>40.5</v>
+      </c>
+      <c r="E86">
+        <v>1.516088655795585</v>
+      </c>
+      <c r="G86">
+        <v>40.5</v>
+      </c>
+      <c r="H86">
+        <v>2.1802055367536734E-8</v>
+      </c>
+      <c r="J86">
+        <v>40.5</v>
+      </c>
+      <c r="K86">
+        <v>16.444148747945558</v>
+      </c>
+      <c r="M86">
+        <v>40.5</v>
+      </c>
+      <c r="N86">
+        <v>1.0336389889590038E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>41</v>
+      </c>
+      <c r="E87">
+        <v>1.4205122407751229</v>
+      </c>
+      <c r="G87">
+        <v>41</v>
+      </c>
+      <c r="H87">
+        <v>1.6286803882208474E-8</v>
+      </c>
+      <c r="J87">
+        <v>41</v>
+      </c>
+      <c r="K87">
+        <v>15.896007059706232</v>
+      </c>
+      <c r="M87">
+        <v>41</v>
+      </c>
+      <c r="N87">
+        <v>7.8708309621429323E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>41.5</v>
+      </c>
+      <c r="E88">
+        <v>1.3314562547699638</v>
+      </c>
+      <c r="G88">
+        <v>41.5</v>
+      </c>
+      <c r="H88">
+        <v>1.2167537070644549E-8</v>
+      </c>
+      <c r="J88">
+        <v>41.5</v>
+      </c>
+      <c r="K88">
+        <v>15.367997105165653</v>
+      </c>
+      <c r="M88">
+        <v>41.5</v>
+      </c>
+      <c r="N88">
+        <v>5.9905567450604559E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>42</v>
+      </c>
+      <c r="E89">
+        <v>1.2481864442474562</v>
+      </c>
+      <c r="G89">
+        <v>42</v>
+      </c>
+      <c r="H89">
+        <v>9.0917311445784092E-9</v>
+      </c>
+      <c r="J89">
+        <v>42</v>
+      </c>
+      <c r="K89">
+        <v>14.860118884323954</v>
+      </c>
+      <c r="M89">
+        <v>42</v>
+      </c>
+      <c r="N89">
+        <v>4.5609451166008621E-8</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>42.5</v>
+      </c>
+      <c r="E90">
+        <v>1.169522703253796</v>
+      </c>
+      <c r="G90">
+        <v>42.5</v>
+      </c>
+      <c r="H90">
+        <v>6.7898396334491144E-9</v>
+      </c>
+      <c r="J90">
+        <v>42.5</v>
+      </c>
+      <c r="K90">
+        <v>14.37029996181313</v>
+      </c>
+      <c r="M90">
+        <v>42.5</v>
+      </c>
+      <c r="N90">
+        <v>3.4722682831793856E-8</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>43</v>
+      </c>
+      <c r="E91">
+        <v>1.0962540850404203</v>
+      </c>
+      <c r="G91">
+        <v>43</v>
+      </c>
+      <c r="H91">
+        <v>5.0744063780743356E-9</v>
+      </c>
+      <c r="J91">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>13.889918703526812</v>
+      </c>
+      <c r="M91">
+        <v>43</v>
+      </c>
+      <c r="N91">
+        <v>2.6430476663371103E-8</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>43.5</v>
+      </c>
+      <c r="E92">
+        <v>1.0276317089597804</v>
+      </c>
+      <c r="G92">
+        <v>43.5</v>
+      </c>
+      <c r="H92">
+        <v>3.789726871471564E-9</v>
+      </c>
+      <c r="J92">
+        <v>43.5</v>
+      </c>
+      <c r="K92">
+        <v>13.426104308262307</v>
+      </c>
+      <c r="M92">
+        <v>43.5</v>
+      </c>
+      <c r="N92">
+        <v>2.0127005633701668E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>44</v>
+      </c>
+      <c r="E93">
+        <v>0.96288784613844902</v>
+      </c>
+      <c r="G93">
+        <v>44</v>
+      </c>
+      <c r="H93">
+        <v>2.8315796621849405E-9</v>
+      </c>
+      <c r="J93">
+        <v>44</v>
+      </c>
+      <c r="K93">
+        <v>12.978856776019722</v>
+      </c>
+      <c r="M93">
+        <v>44</v>
+      </c>
+      <c r="N93">
+        <v>1.5317320229896938E-8</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>44.5</v>
+      </c>
+      <c r="E94">
+        <v>0.9026083333434054</v>
+      </c>
+      <c r="G94">
+        <v>44.5</v>
+      </c>
+      <c r="H94">
+        <v>2.1145748933520979E-9</v>
+      </c>
+      <c r="J94">
+        <v>44.5</v>
+      </c>
+      <c r="K94">
+        <v>12.548176106798905</v>
+      </c>
+      <c r="M94">
+        <v>44.5</v>
+      </c>
+      <c r="N94">
+        <v>1.16629757743925E-8</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>45</v>
+      </c>
+      <c r="E95">
+        <v>0.84605173342896201</v>
+      </c>
+      <c r="G95">
+        <v>45</v>
+      </c>
+      <c r="H95">
+        <v>1.5798389666910153E-9</v>
+      </c>
+      <c r="J95">
+        <v>45</v>
+      </c>
+      <c r="K95">
+        <v>12.134062300600005</v>
+      </c>
+      <c r="M95">
+        <v>45</v>
+      </c>
+      <c r="N95">
+        <v>8.8777101816611812E-9</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>45.5</v>
+      </c>
+      <c r="E96">
+        <v>0.7927653366707661</v>
+      </c>
+      <c r="G96">
+        <v>45.5</v>
+      </c>
+      <c r="H96">
+        <v>1.1802507840126334E-9</v>
+      </c>
+      <c r="J96">
+        <v>45.5</v>
+      </c>
+      <c r="K96">
+        <v>11.732678086006002</v>
+      </c>
+      <c r="M96">
+        <v>45.5</v>
+      </c>
+      <c r="N96">
+        <v>6.7584858896423275E-9</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>46</v>
+      </c>
+      <c r="E97">
+        <v>0.74317345822608361</v>
+      </c>
+      <c r="G97">
+        <v>46</v>
+      </c>
+      <c r="H97">
+        <v>8.8140928691286352E-10</v>
+      </c>
+      <c r="J97">
+        <v>46</v>
+      </c>
+      <c r="K97">
+        <v>11.340520559062872</v>
+      </c>
+      <c r="M97">
+        <v>46</v>
+      </c>
+      <c r="N97">
+        <v>5.146041070951537E-9</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>46.5</v>
+      </c>
+      <c r="E98">
+        <v>0.69655757506444327</v>
+      </c>
+      <c r="G98">
+        <v>46.5</v>
+      </c>
+      <c r="H98">
+        <v>6.5867760812016821E-10</v>
+      </c>
+      <c r="J98">
+        <v>46.5</v>
+      </c>
+      <c r="K98">
+        <v>10.961995008154885</v>
+      </c>
+      <c r="M98">
+        <v>46.5</v>
+      </c>
+      <c r="N98">
+        <v>3.916611812984139E-9</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>47</v>
+      </c>
+      <c r="E99">
+        <v>0.65270215052034986</v>
+      </c>
+      <c r="G99">
+        <v>47</v>
+      </c>
+      <c r="H99">
+        <v>4.9180901887021806E-10</v>
+      </c>
+      <c r="J99">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>10.597101433282223</v>
+      </c>
+      <c r="M99">
+        <v>47</v>
+      </c>
+      <c r="N99">
+        <v>2.9824065446027462E-9</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>47.5</v>
+      </c>
+      <c r="E100">
+        <v>0.61190431305524806</v>
+      </c>
+      <c r="G100">
+        <v>47.5</v>
+      </c>
+      <c r="H100">
+        <v>3.6747729540652138E-10</v>
+      </c>
+      <c r="J100">
+        <v>47.5</v>
+      </c>
+      <c r="K100">
+        <v>10.245839834444686</v>
+      </c>
+      <c r="M100">
+        <v>47.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2698905521156853E-9</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101">
+        <v>0.57347910759099441</v>
+      </c>
+      <c r="G101">
+        <v>48</v>
+      </c>
+      <c r="H101">
+        <v>2.744470756660734E-10</v>
+      </c>
+      <c r="J101">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>9.9082102116423769</v>
+      </c>
+      <c r="M101">
+        <v>48</v>
+      </c>
+      <c r="N101">
+        <v>1.7282244838389822E-9</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>48.5</v>
+      </c>
+      <c r="E102">
+        <v>0.5373865628577229</v>
+      </c>
+      <c r="G102">
+        <v>48.5</v>
+      </c>
+      <c r="H102">
+        <v>2.0509136624772305E-10</v>
+      </c>
+      <c r="J102">
+        <v>48.5</v>
+      </c>
+      <c r="K102">
+        <v>9.5791758394970596</v>
+      </c>
+      <c r="M102">
+        <v>48.5</v>
+      </c>
+      <c r="N102">
+        <v>1.3156663112455462E-9</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>49</v>
+      </c>
+      <c r="E103">
+        <v>0.50382452859536531</v>
+      </c>
+      <c r="G103">
+        <v>49</v>
+      </c>
+      <c r="H103">
+        <v>1.5322807013003345E-10</v>
+      </c>
+      <c r="J103">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>9.2590621480154098</v>
+      </c>
+      <c r="M103">
+        <v>49</v>
+      </c>
+      <c r="N103">
+        <v>1.0014937880416565E-9</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>49.5</v>
+      </c>
+      <c r="E104">
+        <v>0.47214854873260892</v>
+      </c>
+      <c r="G104">
+        <v>49.5</v>
+      </c>
+      <c r="H104">
+        <v>1.1445845157594491E-10</v>
+      </c>
+      <c r="J104">
+        <v>49.5</v>
+      </c>
+      <c r="K104">
+        <v>8.9501650181104928</v>
+      </c>
+      <c r="M104">
+        <v>49.5</v>
+      </c>
+      <c r="N104">
+        <v>7.6265042421732096E-10</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <v>0.44244570058453897</v>
+      </c>
+      <c r="G105">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>8.5523503707293286E-11</v>
+      </c>
+      <c r="J105">
+        <v>50</v>
+      </c>
+      <c r="K105">
+        <v>8.65248444978225</v>
+      </c>
+      <c r="M105">
+        <v>50</v>
+      </c>
+      <c r="N105">
+        <v>5.8039388750039694E-10</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>50.5</v>
+      </c>
+      <c r="E106">
+        <v>0.41483715917941399</v>
+      </c>
+      <c r="G106">
+        <v>50.5</v>
+      </c>
+      <c r="H106">
+        <v>6.386776499814266E-11</v>
+      </c>
+      <c r="J106">
+        <v>50.5</v>
+      </c>
+      <c r="K106">
+        <v>8.3660204430308447</v>
+      </c>
+      <c r="M106">
+        <v>50.5</v>
+      </c>
+      <c r="N106">
+        <v>4.4193188051809826E-10</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>51</v>
+      </c>
+      <c r="E107">
+        <v>0.38872301648438068</v>
+      </c>
+      <c r="G107">
+        <v>51</v>
+      </c>
+      <c r="H107">
+        <v>4.7728935906364627E-11</v>
+      </c>
+      <c r="J107">
+        <v>51</v>
+      </c>
+      <c r="K107">
+        <v>8.0907729978561278</v>
+      </c>
+      <c r="M107">
+        <v>51</v>
+      </c>
+      <c r="N107">
+        <v>3.3638490223231655E-10</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>51.5</v>
+      </c>
+      <c r="E108">
+        <v>0.36427943946414398</v>
+      </c>
+      <c r="G108">
+        <v>51.5</v>
+      </c>
+      <c r="H108">
+        <v>3.5644090969513233E-11</v>
+      </c>
+      <c r="J108">
+        <v>51.5</v>
+      </c>
+      <c r="K108">
+        <v>7.8209489275179154</v>
+      </c>
+      <c r="M108">
+        <v>51.5</v>
+      </c>
+      <c r="N108">
+        <v>2.5609077665183386E-10</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>52</v>
+      </c>
+      <c r="E109">
+        <v>0.34156916000760229</v>
+      </c>
+      <c r="G109">
+        <v>52</v>
+      </c>
+      <c r="H109">
+        <v>2.6627953335133996E-11</v>
+      </c>
+      <c r="J109">
+        <v>52</v>
+      </c>
+      <c r="K109">
+        <v>7.5596614245770928</v>
+      </c>
+      <c r="M109">
+        <v>52</v>
+      </c>
+      <c r="N109">
+        <v>1.9498575972740203E-10</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>52.5</v>
+      </c>
+      <c r="E110">
+        <v>0.32003867843587913</v>
+      </c>
+      <c r="G110">
+        <v>52.5</v>
+      </c>
+      <c r="H110">
+        <v>1.9887991981428056E-11</v>
+      </c>
+      <c r="J110">
+        <v>52.5</v>
+      </c>
+      <c r="K110">
+        <v>7.3076028890751603</v>
+      </c>
+      <c r="M110">
+        <v>52.5</v>
+      </c>
+      <c r="N110">
+        <v>1.4840635201160839E-10</v>
+      </c>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>53</v>
+      </c>
+      <c r="E111">
+        <v>0.29992380428630189</v>
+      </c>
+      <c r="G111">
+        <v>53</v>
+      </c>
+      <c r="H111">
+        <v>1.4858292585365563E-11</v>
+      </c>
+      <c r="J111">
+        <v>53</v>
+      </c>
+      <c r="K111">
+        <v>7.0647733210122237</v>
+      </c>
+      <c r="M111">
+        <v>53</v>
+      </c>
+      <c r="N111">
+        <v>1.1300902815051827E-10</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>53.5</v>
+      </c>
+      <c r="E112">
+        <v>0.28123018605700473</v>
+      </c>
+      <c r="G112">
+        <v>53.5</v>
+      </c>
+      <c r="H112">
+        <v>1.1101489321103997E-11</v>
+      </c>
+      <c r="J112">
+        <v>53.5</v>
+      </c>
+      <c r="K112">
+        <v>6.8311727203882207</v>
+      </c>
+      <c r="M112">
+        <v>53.5</v>
+      </c>
+      <c r="N112">
+        <v>8.6008839113605907E-11</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>54</v>
+      </c>
+      <c r="E113">
+        <v>0.26349074888161145</v>
+      </c>
+      <c r="G113">
+        <v>54</v>
+      </c>
+      <c r="H113">
+        <v>8.2903135063773958E-12</v>
+      </c>
+      <c r="J113">
+        <v>54</v>
+      </c>
+      <c r="K113">
+        <v>6.6063015467492807</v>
+      </c>
+      <c r="M113">
+        <v>54</v>
+      </c>
+      <c r="N113">
+        <v>6.5485568246140411E-11</v>
+      </c>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>54.5</v>
+      </c>
+      <c r="E114">
+        <v>0.2469385522027584</v>
+      </c>
+      <c r="G114">
+        <v>54.5</v>
+      </c>
+      <c r="H114">
+        <v>6.1954776603375197E-12</v>
+      </c>
+      <c r="J114">
+        <v>54.5</v>
+      </c>
+      <c r="K114">
+        <v>6.3854506652919758</v>
+      </c>
+      <c r="M114">
+        <v>54.5</v>
+      </c>
+      <c r="N114">
+        <v>4.9851566226417739E-11</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>55</v>
+      </c>
+      <c r="E115">
+        <v>0.23153737128945603</v>
+      </c>
+      <c r="G115">
+        <v>55</v>
+      </c>
+      <c r="H115">
+        <v>4.626800148767726E-12</v>
+      </c>
+      <c r="J115">
+        <v>55</v>
+      </c>
+      <c r="K115">
+        <v>6.1721933058775509</v>
+      </c>
+      <c r="M115">
+        <v>55</v>
+      </c>
+      <c r="N115">
+        <v>3.7948251849461414E-11</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>55.5</v>
+      </c>
+      <c r="E116">
+        <v>0.21693470677516152</v>
+      </c>
+      <c r="G116">
+        <v>55.5</v>
+      </c>
+      <c r="H116">
+        <v>3.4578601121568251E-12</v>
+      </c>
+      <c r="J116">
+        <v>55.5</v>
+      </c>
+      <c r="K116">
+        <v>5.9665294685060024</v>
+      </c>
+      <c r="M116">
+        <v>55.5</v>
+      </c>
+      <c r="N116">
+        <v>2.8898270450099927E-11</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>56</v>
+      </c>
+      <c r="E117">
+        <v>0.20331463021170884</v>
+      </c>
+      <c r="G117">
+        <v>56</v>
+      </c>
+      <c r="H117">
+        <v>2.5829506614546929E-12</v>
+      </c>
+      <c r="J117">
+        <v>56</v>
+      </c>
+      <c r="K117">
+        <v>5.7684591531772433</v>
+      </c>
+      <c r="M117">
+        <v>56</v>
+      </c>
+      <c r="N117">
+        <v>2.19919245934702E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>56.5</v>
+      </c>
+      <c r="E118">
+        <v>0.19062517235559912</v>
+      </c>
+      <c r="G118">
+        <v>56.5</v>
+      </c>
+      <c r="H118">
+        <v>1.9300783473238167E-12</v>
+      </c>
+      <c r="J118">
+        <v>56.5</v>
+      </c>
+      <c r="K118">
+        <v>5.5779823598913776</v>
+      </c>
+      <c r="M118">
+        <v>56.5</v>
+      </c>
+      <c r="N118">
+        <v>1.6745625551933855E-11</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>57</v>
+      </c>
+      <c r="E119">
+        <v>0.17860497209307105</v>
+      </c>
+      <c r="G119">
+        <v>57</v>
+      </c>
+      <c r="H119">
+        <v>1.442098472198395E-12</v>
+      </c>
+      <c r="J119">
+        <v>57</v>
+      </c>
+      <c r="K119">
+        <v>5.3937387556879566</v>
+      </c>
+      <c r="M119">
+        <v>57</v>
+      </c>
+      <c r="N119">
+        <v>1.2745959299800964E-11</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>57.5</v>
+      </c>
+      <c r="E120">
+        <v>0.16739798451117524</v>
+      </c>
+      <c r="G120">
+        <v>57.5</v>
+      </c>
+      <c r="H120">
+        <v>1.0773469622159066E-12</v>
+      </c>
+      <c r="J120">
+        <v>57.5</v>
+      </c>
+      <c r="K120">
+        <v>5.2134464165291341</v>
+      </c>
+      <c r="M120">
+        <v>57.5</v>
+      </c>
+      <c r="N120">
+        <v>9.7037288990921661E-12</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>58</v>
+      </c>
+      <c r="E121">
+        <v>0.15694209618420263</v>
+      </c>
+      <c r="G121">
+        <v>58</v>
+      </c>
+      <c r="H121">
+        <v>8.0523220895355093E-13</v>
+      </c>
+      <c r="J121">
+        <v>58</v>
+      </c>
+      <c r="K121">
+        <v>5.0394019459216404</v>
+      </c>
+      <c r="M121">
+        <v>58</v>
+      </c>
+      <c r="N121">
+        <v>7.388107100703686E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>58.5</v>
+      </c>
+      <c r="E122">
+        <v>0.1470479462690685</v>
+      </c>
+      <c r="G122">
+        <v>58.5</v>
+      </c>
+      <c r="H122">
+        <v>6.0138926283636363E-13</v>
+      </c>
+      <c r="J122">
+        <v>58.5</v>
+      </c>
+      <c r="K122">
+        <v>4.8716053438654185</v>
+      </c>
+      <c r="M122">
+        <v>58.5</v>
+      </c>
+      <c r="N122">
+        <v>5.6233453907270125E-12</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>59</v>
+      </c>
+      <c r="E123">
+        <v>0.13782683013448582</v>
+      </c>
+      <c r="G123">
+        <v>59</v>
+      </c>
+      <c r="H123">
+        <v>4.4947847986549449E-13</v>
+      </c>
+      <c r="J123">
+        <v>59</v>
+      </c>
+      <c r="K123">
+        <v>4.7100566103605708</v>
+      </c>
+      <c r="M123">
+        <v>59</v>
+      </c>
+      <c r="N123">
+        <v>4.2821263223259132E-12</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>59.5</v>
+      </c>
+      <c r="E124">
+        <v>0.1292107834196756</v>
+      </c>
+      <c r="G124">
+        <v>59.5</v>
+      </c>
+      <c r="H124">
+        <v>3.3572429882666073E-13</v>
+      </c>
+      <c r="J124">
+        <v>59.5</v>
+      </c>
+      <c r="K124">
+        <v>4.5547557454069327</v>
+      </c>
+      <c r="M124">
+        <v>59.5</v>
+      </c>
+      <c r="N124">
+        <v>3.2589799823210322E-12</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>60</v>
+      </c>
+      <c r="E125">
+        <v>0.12106688561616442</v>
+      </c>
+      <c r="G125">
+        <v>60</v>
+      </c>
+      <c r="H125">
+        <v>2.5088477101496361E-13</v>
+      </c>
+      <c r="J125">
+        <v>60</v>
+      </c>
+      <c r="K125">
+        <v>4.4037451787730761</v>
+      </c>
+      <c r="M125">
+        <v>60</v>
+      </c>
+      <c r="N125">
+        <v>2.4813680996824281E-12</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>60.5</v>
+      </c>
+      <c r="E126">
+        <v>0.11348000628525425</v>
+      </c>
+      <c r="G126">
+        <v>60.5</v>
+      </c>
+      <c r="H126">
+        <v>1.8743255299541585E-13</v>
+      </c>
+      <c r="J126">
+        <v>60.5</v>
+      </c>
+      <c r="K126">
+        <v>4.2565722669273249</v>
+      </c>
+      <c r="M126">
+        <v>60.5</v>
+      </c>
+      <c r="N126">
+        <v>1.888915124115565E-12</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>61</v>
+      </c>
+      <c r="E127">
+        <v>0.1063795736560066</v>
+      </c>
+      <c r="G127">
+        <v>61</v>
+      </c>
+      <c r="H127">
+        <v>1.400391065977918E-13</v>
+      </c>
+      <c r="J127">
+        <v>61</v>
+      </c>
+      <c r="K127">
+        <v>4.1145400176624625</v>
+      </c>
+      <c r="M127">
+        <v>61</v>
+      </c>
+      <c r="N127">
+        <v>1.4379227718780996E-12</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>61.5</v>
+      </c>
+      <c r="E128">
+        <v>9.9676514615887835E-2</v>
+      </c>
+      <c r="G128">
+        <v>61.5</v>
+      </c>
+      <c r="H128">
+        <v>1.0465284201559047E-13</v>
+      </c>
+      <c r="J128">
+        <v>61.5</v>
+      </c>
+      <c r="K128">
+        <v>3.9776484309785327</v>
+      </c>
+      <c r="M128">
+        <v>61.5</v>
+      </c>
+      <c r="N128">
+        <v>1.0949669821330498E-12</v>
+      </c>
+    </row>
+    <row r="129" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>62</v>
+      </c>
+      <c r="E129">
+        <v>9.3434457084406314E-2</v>
+      </c>
+      <c r="G129">
+        <v>62</v>
+      </c>
+      <c r="H129">
+        <v>7.8045878836298485E-14</v>
+      </c>
+      <c r="J129">
+        <v>62</v>
+      </c>
+      <c r="K129">
+        <v>3.8458975068754464</v>
+      </c>
+      <c r="M129">
+        <v>62</v>
+      </c>
+      <c r="N129">
+        <v>8.3330515342982074E-13</v>
+      </c>
+    </row>
+    <row r="130" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>62.5</v>
+      </c>
+      <c r="E130">
+        <v>8.7582627779276098E-2</v>
+      </c>
+      <c r="G130">
+        <v>62.5</v>
+      </c>
+      <c r="H130">
+        <v>5.7902226862106692E-14</v>
+      </c>
+      <c r="J130">
+        <v>62.5</v>
+      </c>
+      <c r="K130">
+        <v>3.719287245353263</v>
+      </c>
+      <c r="M130">
+        <v>62.5</v>
+      </c>
+      <c r="N130">
+        <v>6.3452330976825642E-13</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>63</v>
+      </c>
+      <c r="E131">
+        <v>8.2065658973833527E-2</v>
+      </c>
+      <c r="G131">
+        <v>63</v>
+      </c>
+      <c r="H131">
+        <v>4.2717448728233087E-14</v>
+      </c>
+      <c r="J131">
+        <v>63</v>
+      </c>
+      <c r="K131">
+        <v>3.5954701436814602</v>
+      </c>
+      <c r="M131">
+        <v>63</v>
+      </c>
+      <c r="N131">
+        <v>4.8295777639505143E-13</v>
+      </c>
+    </row>
+    <row r="132" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>63.5</v>
+      </c>
+      <c r="E132">
+        <v>7.6930225801366867E-2</v>
+      </c>
+      <c r="G132">
+        <v>63.5</v>
+      </c>
+      <c r="H132">
+        <v>3.1507530161874484E-14</v>
+      </c>
+      <c r="J132">
+        <v>63.5</v>
+      </c>
+      <c r="K132">
+        <v>3.4753403197617567</v>
+      </c>
+      <c r="M132">
+        <v>63.5</v>
+      </c>
+      <c r="N132">
+        <v>3.6769160116527795E-13</v>
+      </c>
+    </row>
+    <row r="133" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>64</v>
+      </c>
+      <c r="E133">
+        <v>7.2107095740757396E-2</v>
+      </c>
+      <c r="G133">
+        <v>64</v>
+      </c>
+      <c r="H133">
+        <v>2.3267348533879489E-14</v>
+      </c>
+      <c r="J133">
+        <v>64</v>
+      </c>
+      <c r="K133">
+        <v>3.3594401441287354</v>
+      </c>
+      <c r="M133">
+        <v>64</v>
+      </c>
+      <c r="N133">
+        <v>2.7993957713664783E-13</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>64.5</v>
+      </c>
+      <c r="E134">
+        <v>6.7566481387514338E-2</v>
+      </c>
+      <c r="G134">
+        <v>64.5</v>
+      </c>
+      <c r="H134">
+        <v>1.7213927250849254E-14</v>
+      </c>
+      <c r="J134">
+        <v>64.5</v>
+      </c>
+      <c r="K134">
+        <v>3.2477696167824104</v>
+      </c>
+      <c r="M134">
+        <v>64.5</v>
+      </c>
+      <c r="N134">
+        <v>2.130774991164345E-13</v>
+      </c>
+    </row>
+    <row r="135" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>65</v>
+      </c>
+      <c r="E135">
+        <v>6.3341634853601836E-2</v>
+      </c>
+      <c r="G135">
+        <v>65</v>
+      </c>
+      <c r="H135">
+        <v>1.2716749092378151E-14</v>
+      </c>
+      <c r="J135">
+        <v>65</v>
+      </c>
+      <c r="K135">
+        <v>3.1403287377227529</v>
+      </c>
+      <c r="M135">
+        <v>65</v>
+      </c>
+      <c r="N135">
+        <v>1.6225802065446015E-13</v>
+      </c>
+    </row>
+    <row r="136" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>65.5</v>
+      </c>
+      <c r="E136">
+        <v>5.9366085097997609E-2</v>
+      </c>
+      <c r="G136">
+        <v>65.5</v>
+      </c>
+      <c r="H136">
+        <v>9.3690861389514659E-15</v>
+      </c>
+      <c r="J136">
+        <v>65.5</v>
+      </c>
+      <c r="K136">
+        <v>3.0370891702273877</v>
+      </c>
+      <c r="M136">
+        <v>65.5</v>
+      </c>
+      <c r="N136">
+        <v>1.2323401926716726E-13</v>
+      </c>
+    </row>
+    <row r="137" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>66</v>
+      </c>
+      <c r="E137">
+        <v>5.5629153383052153E-2</v>
+      </c>
+      <c r="G137">
+        <v>66</v>
+      </c>
+      <c r="H137">
+        <v>6.922306499800423E-15</v>
+      </c>
+      <c r="J137">
+        <v>66</v>
+      </c>
+      <c r="K137">
+        <v>2.9355594039161943</v>
+      </c>
+      <c r="M137">
+        <v>66</v>
+      </c>
+      <c r="N137">
+        <v>9.3121986476474505E-14</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>66.5</v>
+      </c>
+      <c r="E138">
+        <v>5.2153558507349637E-2</v>
+      </c>
+      <c r="G138">
+        <v>66.5</v>
+      </c>
+      <c r="H138">
+        <v>5.0918307093187488E-15</v>
+      </c>
+      <c r="J138">
+        <v>66.5</v>
+      </c>
+      <c r="K138">
+        <v>2.8375096939661604</v>
+      </c>
+      <c r="M138">
+        <v>66.5</v>
+      </c>
+      <c r="N138">
+        <v>7.042355651501483E-14</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>67</v>
+      </c>
+      <c r="E139">
+        <v>4.8876405510765254E-2</v>
+      </c>
+      <c r="G139">
+        <v>67</v>
+      </c>
+      <c r="H139">
+        <v>3.6175746602638062E-15</v>
+      </c>
+      <c r="J139">
+        <v>67</v>
+      </c>
+      <c r="K139">
+        <v>2.7429400403772859</v>
+      </c>
+      <c r="M139">
+        <v>67</v>
+      </c>
+      <c r="N139">
+        <v>5.3087358711065456E-14</v>
+      </c>
+    </row>
+    <row r="140" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>67.5</v>
+      </c>
+      <c r="E140">
+        <v>4.580100268735663E-2</v>
+      </c>
+      <c r="G140">
+        <v>67.5</v>
+      </c>
+      <c r="H140">
+        <v>2.572175288577173E-15</v>
+      </c>
+      <c r="J140" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="K140" s="5">
+        <v>2.6518504431495558</v>
+      </c>
+      <c r="M140">
+        <v>67.5</v>
+      </c>
+      <c r="N140">
+        <v>4.0058199625272627E-14</v>
+      </c>
+    </row>
+    <row r="141" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>68</v>
+      </c>
+      <c r="E141">
+        <v>4.2941888350519097E-2</v>
+      </c>
+      <c r="G141">
+        <v>68</v>
+      </c>
+      <c r="H141">
+        <v>1.7508366756470478E-15</v>
+      </c>
+      <c r="J141">
+        <v>68</v>
+      </c>
+      <c r="K141">
+        <v>2.5642409022830139</v>
+      </c>
+      <c r="M141">
+        <v>68</v>
+      </c>
+      <c r="N141">
+        <v>3.0273912848019133E-14</v>
+      </c>
+    </row>
+    <row r="142" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>68.5</v>
+      </c>
+      <c r="E142">
+        <v>4.0240245411636975E-2</v>
+      </c>
+      <c r="G142">
+        <v>68.5</v>
+      </c>
+      <c r="H142">
+        <v>1.1730781059144589E-15</v>
+      </c>
+      <c r="J142">
+        <v>68.5</v>
+      </c>
+      <c r="K142">
+        <v>2.479665731650841</v>
+      </c>
+      <c r="M142">
+        <v>68.5</v>
+      </c>
+      <c r="N142">
+        <v>2.2899580183588571E-14</v>
+      </c>
+    </row>
+    <row r="143" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>69</v>
+      </c>
+      <c r="E143">
+        <v>3.7709345314353451E-2</v>
+      </c>
+      <c r="G143">
+        <v>69</v>
+      </c>
+      <c r="H143">
+        <v>8.2404476450432468E-16</v>
+      </c>
+      <c r="J143">
+        <v>69</v>
+      </c>
+      <c r="K143">
+        <v>2.3967794478198368</v>
+      </c>
+      <c r="M143">
+        <v>69</v>
+      </c>
+      <c r="N143">
+        <v>1.7329568307423398E-14</v>
+      </c>
+    </row>
+    <row r="144" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>69.5</v>
+      </c>
+      <c r="E144">
+        <v>3.535745063254031E-2</v>
+      </c>
+      <c r="G144">
+        <v>69.5</v>
+      </c>
+      <c r="H144">
+        <v>5.1669975106251009E-16</v>
+      </c>
+      <c r="J144">
+        <v>69.5</v>
+      </c>
+      <c r="K144">
+        <v>2.316756447134773</v>
+      </c>
+      <c r="M144">
+        <v>69.5</v>
+      </c>
+      <c r="N144">
+        <v>1.3117722076108357E-14</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>70</v>
+      </c>
+      <c r="E145">
+        <v>3.3130086134342325E-2</v>
+      </c>
+      <c r="G145">
+        <v>70</v>
+      </c>
+      <c r="H145">
+        <v>3.4654470970380861E-16</v>
+      </c>
+      <c r="J145">
+        <v>70</v>
+      </c>
+      <c r="K145">
+        <v>2.2395967295956658</v>
+      </c>
+      <c r="M145">
+        <v>70</v>
+      </c>
+      <c r="N145">
+        <v>9.9148387063226573E-15</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>70.5</v>
+      </c>
+      <c r="E146">
+        <v>3.1047351277223811E-2</v>
+      </c>
+      <c r="G146">
+        <v>70.5</v>
+      </c>
+      <c r="H146">
+        <v>2.2495312219685502E-16</v>
+      </c>
+      <c r="J146">
+        <v>70.5</v>
+      </c>
+      <c r="K146">
+        <v>2.1653002952025444</v>
+      </c>
+      <c r="M146">
+        <v>70.5</v>
+      </c>
+      <c r="N146">
+        <v>7.335831893172328E-15</v>
+      </c>
+    </row>
+    <row r="147" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>71</v>
+      </c>
+      <c r="E147">
+        <v>2.9112765493137197E-2</v>
+      </c>
+      <c r="G147">
+        <v>71</v>
+      </c>
+      <c r="H147">
+        <v>1.3434607226805921E-16</v>
+      </c>
+      <c r="J147">
+        <v>71</v>
+      </c>
+      <c r="K147">
+        <v>2.0938671439553782</v>
+      </c>
+      <c r="M147">
+        <v>71</v>
+      </c>
+      <c r="N147">
+        <v>5.4383154498859445E-15</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>71.5</v>
+      </c>
+      <c r="E148">
+        <v>2.7276281516367542E-2</v>
+      </c>
+      <c r="G148">
+        <v>71.5</v>
+      </c>
+      <c r="H148">
+        <v>9.4158273136058697E-17</v>
+      </c>
+      <c r="J148">
+        <v>71.5</v>
+      </c>
+      <c r="K148">
+        <v>2.0245568334815451</v>
+      </c>
+      <c r="M148">
+        <v>71.5</v>
+      </c>
+      <c r="N148">
+        <v>3.9219822482957483E-15</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>72</v>
+      </c>
+      <c r="E149">
+        <v>2.5562407883816307E-2</v>
+      </c>
+      <c r="G149">
+        <v>72</v>
+      </c>
+      <c r="H149">
+        <v>3.6373829912061805E-17</v>
+      </c>
+      <c r="J149">
+        <v>72</v>
+      </c>
+      <c r="K149">
+        <v>1.9568944470970899</v>
+      </c>
+      <c r="M149">
+        <v>72</v>
+      </c>
+      <c r="N149">
+        <v>2.8548115620400811E-15</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>72.5</v>
+      </c>
+      <c r="E150">
+        <v>2.396860106242079E-2</v>
+      </c>
+      <c r="G150">
+        <v>72.5</v>
+      </c>
+      <c r="H150">
+        <v>-6.9079203294209157E-18</v>
+      </c>
+      <c r="J150">
+        <v>72.5</v>
+      </c>
+      <c r="K150">
+        <v>1.8915878688594427</v>
+      </c>
+      <c r="M150">
+        <v>72.5</v>
+      </c>
+      <c r="N150">
+        <v>2.0705952860287537E-15</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>73</v>
+      </c>
+      <c r="E151">
+        <v>2.2456832020412165E-2</v>
+      </c>
+      <c r="G151">
+        <v>73</v>
+      </c>
+      <c r="H151">
+        <v>-3.5686977588388656E-17</v>
+      </c>
+      <c r="J151">
+        <v>73</v>
+      </c>
+      <c r="K151">
+        <v>1.828637098768634</v>
+      </c>
+      <c r="M151">
+        <v>73</v>
+      </c>
+      <c r="N151">
+        <v>1.4760990205215558E-15</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>73.5</v>
+      </c>
+      <c r="E152">
+        <v>2.1046539233122059E-2</v>
+      </c>
+      <c r="G152">
+        <v>73.5</v>
+      </c>
+      <c r="H152">
+        <v>-4.9963341864841929E-17</v>
+      </c>
+      <c r="J152">
+        <v>73.5</v>
+      </c>
+      <c r="K152">
+        <v>1.7680421368246337</v>
+      </c>
+      <c r="M152">
+        <v>73.5</v>
+      </c>
+      <c r="N152">
+        <v>1.0860111653831324E-15</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>74</v>
+      </c>
+      <c r="E153">
+        <v>1.9733396684288897E-2</v>
+      </c>
+      <c r="G153">
+        <v>74</v>
+      </c>
+      <c r="H153">
+        <v>-4.9932809088734578E-17</v>
+      </c>
+      <c r="J153">
+        <v>74</v>
+      </c>
+      <c r="K153">
+        <v>1.7098029830274717</v>
+      </c>
+      <c r="M153">
+        <v>74</v>
+      </c>
+      <c r="N153">
+        <v>7.6237178058027186E-16</v>
+      </c>
+    </row>
+    <row r="154" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>74.5</v>
+      </c>
+      <c r="E154">
+        <v>1.8488965670139156E-2</v>
+      </c>
+      <c r="G154">
+        <v>74.5</v>
+      </c>
+      <c r="H154">
+        <v>-5.2999374794863994E-17</v>
+      </c>
+      <c r="J154">
+        <v>74.5</v>
+      </c>
+      <c r="K154">
+        <v>1.6529813795030148</v>
+      </c>
+      <c r="M154">
+        <v>74.5</v>
+      </c>
+      <c r="N154">
+        <v>5.6835270039987997E-16</v>
+      </c>
+    </row>
+    <row r="155" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>75</v>
+      </c>
+      <c r="E155">
+        <v>1.7328518786598576E-2</v>
+      </c>
+      <c r="G155">
+        <v>75</v>
+      </c>
+      <c r="H155">
+        <v>-5.6065940500993564E-17</v>
+      </c>
+      <c r="J155">
+        <v>75</v>
+      </c>
+      <c r="K155">
+        <v>1.5977498118610662</v>
+      </c>
+      <c r="M155">
+        <v>75</v>
+      </c>
+      <c r="N155">
+        <v>4.1568602664506409E-16</v>
+      </c>
+    </row>
+    <row r="156" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>75.5</v>
+      </c>
+      <c r="E156">
+        <v>1.624654515119944E-2</v>
+      </c>
+      <c r="G156">
+        <v>75.5</v>
+      </c>
+      <c r="H156">
+        <v>-5.9132506207122973E-17</v>
+      </c>
+      <c r="J156">
+        <v>75.5</v>
+      </c>
+      <c r="K156">
+        <v>1.5444565273362831</v>
+      </c>
+      <c r="M156">
+        <v>75.5</v>
+      </c>
+      <c r="N156">
+        <v>3.4024489889214681E-16</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>76</v>
+      </c>
+      <c r="E157">
+        <v>1.52222067723579E-2</v>
+      </c>
+      <c r="G157">
+        <v>76</v>
+      </c>
+      <c r="H157">
+        <v>-6.2199071913252382E-17</v>
+      </c>
+      <c r="J157">
+        <v>76</v>
+      </c>
+      <c r="K157">
+        <v>1.4931015259286655</v>
+      </c>
+      <c r="M157">
+        <v>76</v>
+      </c>
+      <c r="N157">
+        <v>2.6478016163831979E-16</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>76.5</v>
+      </c>
+      <c r="E158">
+        <v>1.4267375629806492E-2</v>
+      </c>
+      <c r="G158">
+        <v>76.5</v>
+      </c>
+      <c r="H158">
+        <v>-6.5265637619381804E-17</v>
+      </c>
+      <c r="J158">
+        <v>76.5</v>
+      </c>
+      <c r="K158">
+        <v>1.4436848076382489</v>
+      </c>
+      <c r="M158">
+        <v>76.5</v>
+      </c>
+      <c r="N158">
+        <v>1.9051476955560982E-16</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>77</v>
+      </c>
+      <c r="E159">
+        <v>1.3375815733564883E-2</v>
+      </c>
+      <c r="G159">
+        <v>77</v>
+      </c>
+      <c r="H159">
+        <v>-6.8332203325510918E-17</v>
+      </c>
+      <c r="J159">
+        <v>77</v>
+      </c>
+      <c r="K159">
+        <v>1.3962063724649889</v>
+      </c>
+      <c r="M159">
+        <v>77</v>
+      </c>
+      <c r="N159">
+        <v>1.3057130824178948E-16</v>
+      </c>
+    </row>
+    <row r="160" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>77.5</v>
+      </c>
+      <c r="E160">
+        <v>1.2532668995721797E-2</v>
+      </c>
+      <c r="G160">
+        <v>77.5</v>
+      </c>
+      <c r="H160">
+        <v>-7.1398769031640179E-17</v>
+      </c>
+      <c r="J160">
+        <v>77.5</v>
+      </c>
+      <c r="K160">
+        <v>1.3496058241959705</v>
+      </c>
+      <c r="M160">
+        <v>77.5</v>
+      </c>
+      <c r="N160">
+        <v>8.4949777696857634E-17</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>78</v>
+      </c>
+      <c r="E161">
+        <v>1.174704807668028E-2</v>
+      </c>
+      <c r="G161">
+        <v>78</v>
+      </c>
+      <c r="H161">
+        <v>-7.4465334737770193E-17</v>
+      </c>
+      <c r="J161">
+        <v>78</v>
+      </c>
+      <c r="K161">
+        <v>1.3045239365310566</v>
+      </c>
+      <c r="M161">
+        <v>78</v>
+      </c>
+      <c r="N161">
+        <v>5.8359073313868469E-17</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>78.5</v>
+      </c>
+      <c r="E162">
+        <v>1.10123416598569E-2</v>
+      </c>
+      <c r="G162">
+        <v>78.5</v>
+      </c>
+      <c r="H162">
+        <v>-7.7531900443899467E-17</v>
+      </c>
+      <c r="J162">
+        <v>78.5</v>
+      </c>
+      <c r="K162">
+        <v>1.2610368240838414</v>
+      </c>
+      <c r="M162">
+        <v>78.5</v>
+      </c>
+      <c r="N162">
+        <v>5.1457872368409672E-17</v>
+      </c>
+    </row>
+    <row r="163" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>79</v>
+      </c>
+      <c r="E163">
+        <v>1.0318357044010225E-2</v>
+      </c>
+      <c r="G163">
+        <v>79</v>
+      </c>
+      <c r="H163">
+        <v>-8.0598466150029024E-17</v>
+      </c>
+      <c r="J163">
+        <v>79</v>
+      </c>
+      <c r="K163">
+        <v>1.21914448685433</v>
+      </c>
+      <c r="M163">
+        <v>79</v>
+      </c>
+      <c r="N163">
+        <v>4.4556671422950868E-17</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>79.5</v>
+      </c>
+      <c r="E164">
+        <v>9.6719821440756654E-3</v>
+      </c>
+      <c r="G164">
+        <v>79.5</v>
+      </c>
+      <c r="H164">
+        <v>-7.9547977106233966E-17</v>
+      </c>
+      <c r="J164">
+        <v>79.5</v>
+      </c>
+      <c r="K164">
+        <v>1.1788469248425157</v>
+      </c>
+      <c r="M164">
+        <v>79.5</v>
+      </c>
+      <c r="N164">
+        <v>3.7655470477491923E-17</v>
+      </c>
+    </row>
+    <row r="165" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>80</v>
+      </c>
+      <c r="E165">
+        <v>9.0664920792976767E-3</v>
+      </c>
+      <c r="G165">
+        <v>80</v>
+      </c>
+      <c r="H165">
+        <v>-7.7391674154230305E-17</v>
+      </c>
+      <c r="J165">
+        <v>80</v>
+      </c>
+      <c r="K165">
+        <v>1.1400190615184629</v>
+      </c>
+      <c r="M165">
+        <v>80</v>
+      </c>
+      <c r="N165">
+        <v>3.0754269532032971E-17</v>
+      </c>
+    </row>
+    <row r="166" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>80.5</v>
+      </c>
+      <c r="E166">
+        <v>8.4952984709508045E-3</v>
+      </c>
+      <c r="G166">
+        <v>80.5</v>
+      </c>
+      <c r="H166">
+        <v>-7.5235371202226496E-17</v>
+      </c>
+      <c r="J166">
+        <v>80.5</v>
+      </c>
+      <c r="K166">
+        <v>1.1019117766578326</v>
+      </c>
+      <c r="M166">
+        <v>80.5</v>
+      </c>
+      <c r="N166">
+        <v>2.3853068586574174E-17</v>
+      </c>
+    </row>
+    <row r="167" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>81</v>
+      </c>
+      <c r="E167">
+        <v>7.9635077787894772E-3</v>
+      </c>
+      <c r="G167">
+        <v>81</v>
+      </c>
+      <c r="H167">
+        <v>-7.3079068250222983E-17</v>
+      </c>
+      <c r="J167">
+        <v>81</v>
+      </c>
+      <c r="K167">
+        <v>1.0651166529059486</v>
+      </c>
+      <c r="M167">
+        <v>81</v>
+      </c>
+      <c r="N167">
+        <v>1.6951867641115225E-17</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>81.5</v>
+      </c>
+      <c r="E168">
+        <v>7.4644733527271159E-3</v>
+      </c>
+      <c r="G168">
+        <v>81.5</v>
+      </c>
+      <c r="H168">
+        <v>-7.0922765298219938E-17</v>
+      </c>
+      <c r="J168">
+        <v>81.5</v>
+      </c>
+      <c r="K168">
+        <v>1.0296336902628016</v>
+      </c>
+      <c r="M168">
+        <v>81.5</v>
+      </c>
+      <c r="N168">
+        <v>1.0050666695656337E-17</v>
+      </c>
+    </row>
+    <row r="169" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>82</v>
+      </c>
+      <c r="E169">
+        <v>6.9943590049613581E-3</v>
+      </c>
+      <c r="G169">
+        <v>82</v>
+      </c>
+      <c r="H169">
+        <v>-6.8766462346216277E-17</v>
+      </c>
+      <c r="J169">
+        <v>82</v>
+      </c>
+      <c r="K169">
+        <v>0.99546288872839228</v>
+      </c>
+      <c r="M169">
+        <v>82</v>
+      </c>
+      <c r="N169">
+        <v>3.1494657501974789E-18</v>
+      </c>
+    </row>
+    <row r="170" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>82.5</v>
+      </c>
+      <c r="E170">
+        <v>6.5568554333778747E-3</v>
+      </c>
+      <c r="G170">
+        <v>82.5</v>
+      </c>
+      <c r="H170">
+        <v>-6.6610159394212912E-17</v>
+      </c>
+      <c r="J170">
+        <v>82.5</v>
+      </c>
+      <c r="K170">
+        <v>0.96260424830272739</v>
+      </c>
+      <c r="M170">
+        <v>82.5</v>
+      </c>
+      <c r="N170">
+        <v>-2.934844419508258E-18</v>
+      </c>
+    </row>
+    <row r="171" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>83</v>
+      </c>
+      <c r="E171">
+        <v>6.1455308166424036E-3</v>
+      </c>
+      <c r="G171">
+        <v>83</v>
+      </c>
+      <c r="H171">
+        <v>-6.4453856442209399E-17</v>
+      </c>
+      <c r="J171">
+        <v>83</v>
+      </c>
+      <c r="K171">
+        <v>0.93078842168734499</v>
+      </c>
+      <c r="M171">
+        <v>83</v>
+      </c>
+      <c r="N171">
+        <v>-4.2149296343522228E-18</v>
+      </c>
+    </row>
+    <row r="172" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>83.5</v>
+      </c>
+      <c r="E172">
+        <v>5.7586206020325287E-3</v>
+      </c>
+      <c r="G172">
+        <v>83.5</v>
+      </c>
+      <c r="H172">
+        <v>-6.2297553490206034E-17</v>
+      </c>
+      <c r="J172">
+        <v>83.5</v>
+      </c>
+      <c r="K172">
+        <v>0.89967910169784282</v>
+      </c>
+      <c r="M172">
+        <v>83.5</v>
+      </c>
+      <c r="N172">
+        <v>-5.4950148491962025E-18</v>
+      </c>
+    </row>
+    <row r="173" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>84</v>
+      </c>
+      <c r="E173">
+        <v>5.3986998293466095E-3</v>
+      </c>
+      <c r="G173">
+        <v>84</v>
+      </c>
+      <c r="H173">
+        <v>-6.0141250538202385E-17</v>
+      </c>
+      <c r="J173">
+        <v>84</v>
+      </c>
+      <c r="K173">
+        <v>0.86964942135894496</v>
+      </c>
+      <c r="M173">
+        <v>84</v>
+      </c>
+      <c r="N173">
+        <v>-6.7751000640402123E-18</v>
+      </c>
+    </row>
+    <row r="174" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>84.5</v>
+      </c>
+      <c r="E174">
+        <v>5.0596449360466389E-3</v>
+      </c>
+      <c r="G174">
+        <v>84.5</v>
+      </c>
+      <c r="H174">
+        <v>-5.798494758619902E-17</v>
+      </c>
+      <c r="J174">
+        <v>84.5</v>
+      </c>
+      <c r="K174">
+        <v>0.84069938067065275</v>
+      </c>
+      <c r="M174">
+        <v>84.5</v>
+      </c>
+      <c r="N174">
+        <v>-8.0551852788842067E-18</v>
+      </c>
+    </row>
+    <row r="175" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>85</v>
+      </c>
+      <c r="E175">
+        <v>4.7412227963085623E-3</v>
+      </c>
+      <c r="G175">
+        <v>85</v>
+      </c>
+      <c r="H175">
+        <v>-5.5828644634195224E-17</v>
+      </c>
+      <c r="J175">
+        <v>85</v>
+      </c>
+      <c r="K175">
+        <v>0.81282897963296608</v>
+      </c>
+      <c r="M175">
+        <v>85</v>
+      </c>
+      <c r="N175">
+        <v>-9.3352704937281719E-18</v>
+      </c>
+    </row>
+    <row r="176" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>85.5</v>
+      </c>
+      <c r="E176">
+        <v>4.445137750597003E-3</v>
+      </c>
+      <c r="G176">
+        <v>85.5</v>
+      </c>
+      <c r="H176">
+        <v>-5.3672341682192E-17</v>
+      </c>
+      <c r="J176">
+        <v>85.5</v>
+      </c>
+      <c r="K176">
+        <v>0.78603821824589104</v>
+      </c>
+      <c r="M176">
+        <v>85.5</v>
+      </c>
+      <c r="N176">
+        <v>-1.0615355708572166E-17</v>
+      </c>
+    </row>
+    <row r="177" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>86</v>
+      </c>
+      <c r="E177">
+        <v>4.1656345034525189E-3</v>
+      </c>
+      <c r="G177">
+        <v>86</v>
+      </c>
+      <c r="H177">
+        <v>-5.1516038730188499E-17</v>
+      </c>
+      <c r="J177">
+        <v>86</v>
+      </c>
+      <c r="K177">
+        <v>0.75995865885750857</v>
+      </c>
+      <c r="M177">
+        <v>86</v>
+      </c>
+      <c r="N177">
+        <v>-1.189544092341613E-17</v>
+      </c>
+    </row>
+    <row r="178" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>86.5</v>
+      </c>
+      <c r="E178">
+        <v>3.9035854864345387E-3</v>
+      </c>
+      <c r="G178">
+        <v>86.5</v>
+      </c>
+      <c r="H178">
+        <v>-4.9359735778185134E-17</v>
+      </c>
+      <c r="J178">
+        <v>86.5</v>
+      </c>
+      <c r="K178">
+        <v>0.73456376553185909</v>
+      </c>
+      <c r="M178">
+        <v>86.5</v>
+      </c>
+      <c r="N178">
+        <v>-1.3175526138260155E-17</v>
+      </c>
+    </row>
+    <row r="179" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>87</v>
+      </c>
+      <c r="E179">
+        <v>3.6600231713927699E-3</v>
+      </c>
+      <c r="G179">
+        <v>87</v>
+      </c>
+      <c r="H179">
+        <v>-4.7203432826181479E-17</v>
+      </c>
+      <c r="J179">
+        <v>87</v>
+      </c>
+      <c r="K179">
+        <v>0.71005719894278407</v>
+      </c>
+      <c r="M179">
+        <v>87</v>
+      </c>
+      <c r="N179">
+        <v>-1.4455611353104105E-17</v>
+      </c>
+    </row>
+    <row r="180" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>87.5</v>
+      </c>
+      <c r="E180">
+        <v>3.4295949710594544E-3</v>
+      </c>
+      <c r="G180">
+        <v>87.5</v>
+      </c>
+      <c r="H180">
+        <v>-4.5047129874177819E-17</v>
+      </c>
+      <c r="J180">
+        <v>87.5</v>
+      </c>
+      <c r="K180">
+        <v>0.68643895909029684</v>
+      </c>
+      <c r="M180">
+        <v>87.5</v>
+      </c>
+      <c r="N180">
+        <v>-1.5735696567948042E-17</v>
+      </c>
+    </row>
+    <row r="181" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>88</v>
+      </c>
+      <c r="E181">
+        <v>3.2139457595639991E-3</v>
+      </c>
+      <c r="G181">
+        <v>88</v>
+      </c>
+      <c r="H181">
+        <v>-4.2890826922174305E-17</v>
+      </c>
+      <c r="J181">
+        <v>88</v>
+      </c>
+      <c r="K181">
+        <v>0.66370904597438563</v>
+      </c>
+      <c r="M181">
+        <v>88</v>
+      </c>
+      <c r="N181">
+        <v>-1.7015781782791992E-17</v>
+      </c>
+    </row>
+    <row r="182" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>88.5</v>
+      </c>
+      <c r="E182">
+        <v>3.0135965754448666E-3</v>
+      </c>
+      <c r="G182">
+        <v>88.5</v>
+      </c>
+      <c r="H182">
+        <v>-4.0734523970170805E-17</v>
+      </c>
+      <c r="J182">
+        <v>88.5</v>
+      </c>
+      <c r="K182">
+        <v>0.64186745959505487</v>
+      </c>
+      <c r="M182">
+        <v>88.5</v>
+      </c>
+      <c r="N182">
+        <v>-1.8295866997636089E-17</v>
+      </c>
+    </row>
+    <row r="183" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>89</v>
+      </c>
+      <c r="E183">
+        <v>2.8236127070355075E-3</v>
+      </c>
+      <c r="G183">
+        <v>89</v>
+      </c>
+      <c r="H183">
+        <v>-3.857822101816744E-17</v>
+      </c>
+      <c r="J183">
+        <v>89</v>
+      </c>
+      <c r="K183">
+        <v>0.62048211485198557</v>
+      </c>
+      <c r="M183">
+        <v>89</v>
+      </c>
+      <c r="N183">
+        <v>-1.9575952212479891E-17</v>
+      </c>
+    </row>
+    <row r="184" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>89.5</v>
+      </c>
+      <c r="E184">
+        <v>2.6461532632969988E-3</v>
+      </c>
+      <c r="G184">
+        <v>89.5</v>
+      </c>
+      <c r="H184">
+        <v>-3.6757175211604211E-17</v>
+      </c>
+      <c r="J184">
+        <v>89.5</v>
+      </c>
+      <c r="K184">
+        <v>0.59975327766075093</v>
+      </c>
+      <c r="M184">
+        <v>89.5</v>
+      </c>
+      <c r="N184">
+        <v>-2.0856037427323841E-17</v>
+      </c>
+    </row>
+    <row r="185" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>90</v>
+      </c>
+      <c r="E185">
+        <v>2.4812143277720571E-3</v>
+      </c>
+      <c r="G185">
+        <v>90</v>
+      </c>
+      <c r="H185">
+        <v>-3.5026177275854459E-17</v>
+      </c>
+      <c r="J185">
+        <v>90</v>
+      </c>
+      <c r="K185">
+        <v>0.57975535659138677</v>
+      </c>
+      <c r="M185">
+        <v>90</v>
+      </c>
+      <c r="N185">
+        <v>-2.2136122642167942E-17</v>
+      </c>
+    </row>
+    <row r="186" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>90.5</v>
+      </c>
+      <c r="E186">
+        <v>2.3247064244264304E-3</v>
+      </c>
+      <c r="G186">
+        <v>90.5</v>
+      </c>
+      <c r="H186">
+        <v>-3.3295179340104558E-17</v>
+      </c>
+      <c r="J186">
+        <v>90.5</v>
+      </c>
+      <c r="K186">
+        <v>0.56048835164390209</v>
+      </c>
+      <c r="M186">
+        <v>90.5</v>
+      </c>
+      <c r="N186">
+        <v>-2.3416207857011891E-17</v>
+      </c>
+    </row>
+    <row r="187" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>91</v>
+      </c>
+      <c r="E187">
+        <v>2.1786784345920102E-3</v>
+      </c>
+      <c r="G187">
+        <v>91</v>
+      </c>
+      <c r="H187">
+        <v>-3.1564181404354818E-17</v>
+      </c>
+      <c r="J187">
+        <v>91</v>
+      </c>
+      <c r="K187">
+        <v>0.5419522628182879</v>
+      </c>
+      <c r="M187">
+        <v>91</v>
+      </c>
+      <c r="N187">
+        <v>-2.4696293071855992E-17</v>
+      </c>
+    </row>
+    <row r="188" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>91.5</v>
+      </c>
+      <c r="E188">
+        <v>2.0427887241394179E-3</v>
+      </c>
+      <c r="G188">
+        <v>91.5</v>
+      </c>
+      <c r="H188">
+        <v>-2.9833183468605213E-17</v>
+      </c>
+      <c r="J188">
+        <v>91.5</v>
+      </c>
+      <c r="K188">
+        <v>0.52412496978016132</v>
+      </c>
+      <c r="M188">
+        <v>91.5</v>
+      </c>
+      <c r="N188">
+        <v>-2.5976378286699939E-17</v>
+      </c>
+    </row>
+    <row r="189" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189">
+        <v>1.9139556480022219E-3</v>
+      </c>
+      <c r="G189">
+        <v>92</v>
+      </c>
+      <c r="H189">
+        <v>-2.8102185532855467E-17</v>
+      </c>
+      <c r="J189">
+        <v>92</v>
+      </c>
+      <c r="K189">
+        <v>0.50660453428066365</v>
+      </c>
+      <c r="M189">
+        <v>92</v>
+      </c>
+      <c r="N189">
+        <v>-2.5466266125192678E-17</v>
+      </c>
+    </row>
+    <row r="190" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>92.5</v>
+      </c>
+      <c r="E190">
+        <v>1.7937959943005474E-3</v>
+      </c>
+      <c r="G190">
+        <v>92.5</v>
+      </c>
+      <c r="H190">
+        <v>-2.6371187597105711E-17</v>
+      </c>
+      <c r="J190">
+        <v>92.5</v>
+      </c>
+      <c r="K190">
+        <v>0.4896854976389487</v>
+      </c>
+      <c r="M190">
+        <v>92.5</v>
+      </c>
+      <c r="N190">
+        <v>-2.4843087645727929E-17</v>
+      </c>
+    </row>
+    <row r="191" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>93</v>
+      </c>
+      <c r="E191">
+        <v>1.6818320009396803E-3</v>
+      </c>
+      <c r="G191">
+        <v>93</v>
+      </c>
+      <c r="H191">
+        <v>-2.4640189661355964E-17</v>
+      </c>
+      <c r="J191">
+        <v>93</v>
+      </c>
+      <c r="K191">
+        <v>0.4733678598550134</v>
+      </c>
+      <c r="M191">
+        <v>93</v>
+      </c>
+      <c r="N191">
+        <v>-2.4219909166263029E-17</v>
+      </c>
+    </row>
+    <row r="192" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>93.5</v>
+      </c>
+      <c r="E192">
+        <v>1.5757831952707929E-3</v>
+      </c>
+      <c r="G192">
+        <v>93.5</v>
+      </c>
+      <c r="H192">
+        <v>-2.2909191725606218E-17</v>
+      </c>
+      <c r="J192">
+        <v>93.5</v>
+      </c>
+      <c r="K192">
+        <v>0.45765162092886075</v>
+      </c>
+      <c r="M192">
+        <v>93.5</v>
+      </c>
+      <c r="N192">
+        <v>-2.3596730686798273E-17</v>
+      </c>
+    </row>
+    <row r="193" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>94</v>
+      </c>
+      <c r="E193">
+        <v>1.4769127174347238E-3</v>
+      </c>
+      <c r="G193">
+        <v>94</v>
+      </c>
+      <c r="H193">
+        <v>-2.1178193789856465E-17</v>
+      </c>
+      <c r="J193">
+        <v>94</v>
+      </c>
+      <c r="K193">
+        <v>0.4425367808604862</v>
+      </c>
+      <c r="M193">
+        <v>94</v>
+      </c>
+      <c r="N193">
+        <v>-2.2973552207333373E-17</v>
+      </c>
+    </row>
+    <row r="194" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>94.5</v>
+      </c>
+      <c r="E194">
+        <v>1.38465577913957E-3</v>
+      </c>
+      <c r="G194">
+        <v>94.5</v>
+      </c>
+      <c r="H194">
+        <v>-1.9447195854106867E-17</v>
+      </c>
+      <c r="J194">
+        <v>94.5</v>
+      </c>
+      <c r="K194">
+        <v>0.42793105903320433</v>
+      </c>
+      <c r="M194">
+        <v>94.5</v>
+      </c>
+      <c r="N194">
+        <v>-2.2350373727868621E-17</v>
+      </c>
+    </row>
+    <row r="195" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>95</v>
+      </c>
+      <c r="E195">
+        <v>1.2973644007623698E-3</v>
+      </c>
+      <c r="G195">
+        <v>95</v>
+      </c>
+      <c r="H195">
+        <v>-1.7716197918356966E-17</v>
+      </c>
+      <c r="J195">
+        <v>95</v>
+      </c>
+      <c r="K195">
+        <v>0.41362767987194538</v>
+      </c>
+      <c r="M195">
+        <v>95</v>
+      </c>
+      <c r="N195">
+        <v>-2.1727195248403872E-17</v>
+      </c>
+    </row>
+    <row r="196" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>95.5</v>
+      </c>
+      <c r="E196">
+        <v>1.2160139748389558E-3</v>
+      </c>
+      <c r="G196">
+        <v>95.5</v>
+      </c>
+      <c r="H196">
+        <v>-1.5985199982607371E-17</v>
+      </c>
+      <c r="J196">
+        <v>95.5</v>
+      </c>
+      <c r="K196">
+        <v>0.39981913265105085</v>
+      </c>
+      <c r="M196">
+        <v>95.5</v>
+      </c>
+      <c r="N196">
+        <v>-2.1104016768938968E-17</v>
+      </c>
+    </row>
+    <row r="197" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>96</v>
+      </c>
+      <c r="E197">
+        <v>1.1399902810216769E-3</v>
+      </c>
+      <c r="G197">
+        <v>96</v>
+      </c>
+      <c r="H197">
+        <v>-1.425420204685768E-17</v>
+      </c>
+      <c r="J197">
+        <v>96</v>
+      </c>
+      <c r="K197">
+        <v>0.38650541737052241</v>
+      </c>
+      <c r="M197">
+        <v>96</v>
+      </c>
+      <c r="N197">
+        <v>-2.0480838289474216E-17</v>
+      </c>
+    </row>
+    <row r="198" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>96.5</v>
+      </c>
+      <c r="E198">
+        <v>1.0681407488130523E-3</v>
+      </c>
+      <c r="G198">
+        <v>96.5</v>
+      </c>
+      <c r="H198">
+        <v>-1.252320411110799E-17</v>
+      </c>
+      <c r="J198">
+        <v>96.5</v>
+      </c>
+      <c r="K198">
+        <v>0.37368653403035995</v>
+      </c>
+      <c r="M198">
+        <v>96.5</v>
+      </c>
+      <c r="N198">
+        <v>-1.9857659810009464E-17</v>
+      </c>
+    </row>
+    <row r="199" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>97</v>
+      </c>
+      <c r="E199">
+        <v>1.0012080880949269E-3</v>
+      </c>
+      <c r="G199">
+        <v>97</v>
+      </c>
+      <c r="H199">
+        <v>-1.0792206175358196E-17</v>
+      </c>
+      <c r="J199">
+        <v>97</v>
+      </c>
+      <c r="K199">
+        <v>0.36136248263056209</v>
+      </c>
+      <c r="M199">
+        <v>97</v>
+      </c>
+      <c r="N199">
+        <v>-1.9234481330544563E-17</v>
+      </c>
+    </row>
+    <row r="200" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>97.5</v>
+      </c>
+      <c r="E200">
+        <v>9.3855700426634749E-4</v>
+      </c>
+      <c r="G200">
+        <v>97.5</v>
+      </c>
+      <c r="H200">
+        <v>-9.0612082396084772E-18</v>
+      </c>
+      <c r="J200">
+        <v>97.5</v>
+      </c>
+      <c r="K200">
+        <v>0.3493918520975694</v>
+      </c>
+      <c r="M200">
+        <v>97.5</v>
+      </c>
+      <c r="N200">
+        <v>-1.8611302851079811E-17</v>
+      </c>
+    </row>
+    <row r="201" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>98</v>
+      </c>
+      <c r="E201">
+        <v>8.7941944167554238E-4</v>
+      </c>
+      <c r="G201">
+        <v>98</v>
+      </c>
+      <c r="H201">
+        <v>-7.3302103038587431E-18</v>
+      </c>
+      <c r="J201">
+        <v>98</v>
+      </c>
+      <c r="K201">
+        <v>0.33771554354273459</v>
+      </c>
+      <c r="M201">
+        <v>98</v>
+      </c>
+      <c r="N201">
+        <v>-1.7988124371615062E-17</v>
+      </c>
+    </row>
+    <row r="202" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>98.5</v>
+      </c>
+      <c r="E202">
+        <v>8.2435119711005925E-4</v>
+      </c>
+      <c r="G202">
+        <v>98.5</v>
+      </c>
+      <c r="H202">
+        <v>-5.5992123681090236E-18</v>
+      </c>
+      <c r="J202">
+        <v>98.5</v>
+      </c>
+      <c r="K202">
+        <v>0.32644638352537086</v>
+      </c>
+      <c r="M202">
+        <v>98.5</v>
+      </c>
+      <c r="N202">
+        <v>-1.7364945892150155E-17</v>
+      </c>
+    </row>
+    <row r="203" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>99</v>
+      </c>
+      <c r="E203">
+        <v>7.7271689410936273E-4</v>
+      </c>
+      <c r="G203">
+        <v>99</v>
+      </c>
+      <c r="H203">
+        <v>-3.8682144323592902E-18</v>
+      </c>
+      <c r="J203">
+        <v>99</v>
+      </c>
+      <c r="K203">
+        <v>0.31558437204548417</v>
+      </c>
+      <c r="M203">
+        <v>99</v>
+      </c>
+      <c r="N203">
+        <v>-1.6741767412685406E-17</v>
+      </c>
+    </row>
+    <row r="204" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>99.5</v>
+      </c>
+      <c r="E204">
+        <v>7.2404372387869273E-4</v>
+      </c>
+      <c r="G204">
+        <v>99.5</v>
+      </c>
+      <c r="H204">
+        <v>-3.1346348800255713E-18</v>
+      </c>
+      <c r="J204">
+        <v>99.5</v>
+      </c>
+      <c r="K204">
+        <v>0.30512950910307146</v>
+      </c>
+      <c r="M204">
+        <v>99.5</v>
+      </c>
+      <c r="N204">
+        <v>-1.6118588933220506E-17</v>
+      </c>
+    </row>
+    <row r="205" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>100</v>
+      </c>
+      <c r="E205">
+        <v>6.7873841654063967E-4</v>
+      </c>
+      <c r="G205">
+        <v>100</v>
+      </c>
+      <c r="H205">
+        <v>-2.6689553648978667E-18</v>
+      </c>
+      <c r="J205">
+        <v>100</v>
+      </c>
+      <c r="K205">
+        <v>0.29508179469813434</v>
+      </c>
+      <c r="M205">
+        <v>100</v>
+      </c>
+      <c r="N205">
+        <v>-1.5495410453755754E-17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>